--- a/test_cases/test_api.xlsx
+++ b/test_cases/test_api.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14390" windowWidth="28980" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14390" windowWidth="28980" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="submitOrder" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="tel" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="main" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="phone" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="login" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -796,7 +799,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -811,8 +814,8 @@
     <col customWidth="1" max="8" min="8" style="15" width="22.08984375"/>
     <col customWidth="1" max="9" min="9" style="15" width="56.81640625"/>
     <col customWidth="1" max="10" min="10" style="15" width="19"/>
-    <col customWidth="1" max="50" min="11" style="13" width="8.7265625"/>
-    <col customWidth="1" max="16384" min="51" style="13" width="8.7265625"/>
+    <col customWidth="1" max="56" min="11" style="13" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="57" style="13" width="8.7265625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="20.4" r="1" s="10">
@@ -1007,8 +1010,8 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -1023,8 +1026,8 @@
     <col customWidth="1" max="8" min="8" style="9" width="28.453125"/>
     <col customWidth="1" max="9" min="9" style="9" width="32"/>
     <col customWidth="1" max="10" min="10" style="18" width="20.54296875"/>
-    <col customWidth="1" max="42" min="11" style="9" width="8.7265625"/>
-    <col customWidth="1" max="16384" min="43" style="9" width="8.7265625"/>
+    <col customWidth="1" max="48" min="11" style="9" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="49" style="9" width="8.7265625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="21" r="1" s="10">
@@ -1592,4 +1595,673 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="10" width="10.6328125"/>
+    <col customWidth="1" max="2" min="2" style="10" width="12.6328125"/>
+    <col customWidth="1" max="3" min="3" style="10" width="17.81640625"/>
+    <col customWidth="1" max="4" min="4" style="10" width="15.36328125"/>
+    <col customWidth="1" max="5" min="5" style="10" width="9.81640625"/>
+    <col customWidth="1" max="6" min="6" style="10" width="27.26953125"/>
+    <col customWidth="1" max="8" min="8" style="10" width="25.453125"/>
+    <col customWidth="1" max="9" min="9" style="10" width="47.08984375"/>
+    <col customWidth="1" max="10" min="10" style="10" width="21.54296875"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="21" r="1" s="9">
+      <c r="A1" s="21" t="inlineStr">
+        <is>
+          <t>CaseId</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Path</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>Params</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sql</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ExpectedResult</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ActualResult</t>
+        </is>
+      </c>
+      <c r="J1" s="17" t="inlineStr">
+        <is>
+          <t>TestResult</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>isExitPhone</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>验证存在的手机号</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>isExitPhone.do</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F2" s="13" t="inlineStr">
+        <is>
+          <t>{"phone":"13242045218"}</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I2" s="9" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","isExit":true}</t>
+        </is>
+      </c>
+      <c r="J2" s="9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="70" r="3" s="9">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>isExitPhone</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>验证不存在的手机号</t>
+        </is>
+      </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>isExitPhone.do</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F3" s="13" t="inlineStr">
+        <is>
+          <t>{"phone":"1324204521899"}</t>
+        </is>
+      </c>
+      <c r="G3" s="13" t="n"/>
+      <c r="H3" s="13" t="inlineStr">
+        <is>
+          <t>{
+    "msg": "Mobile No. format does not match",
+    "code": "1000"
+}</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
+        </is>
+      </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="70" r="4" s="9">
+      <c r="A4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>isExitPhone</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>验证空手机号</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>isExitPhone.do</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F4" s="13" t="inlineStr">
+        <is>
+          <t>{"phone":""}</t>
+        </is>
+      </c>
+      <c r="G4" s="13" t="n"/>
+      <c r="H4" s="13" t="inlineStr">
+        <is>
+          <t>{
+    "msg": "Mobile No. format does not match",
+    "code": "1000"
+}</t>
+        </is>
+      </c>
+      <c r="I4" s="9" t="inlineStr">
+        <is>
+          <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
+        </is>
+      </c>
+      <c r="J4" s="9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="13" width="8.7265625"/>
+    <col customWidth="1" max="2" min="2" style="13" width="13.7265625"/>
+    <col customWidth="1" max="3" min="3" style="13" width="22.54296875"/>
+    <col customWidth="1" max="4" min="4" style="13" width="15.1796875"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.7265625"/>
+    <col customWidth="1" max="6" min="6" style="13" width="20.36328125"/>
+    <col customWidth="1" max="7" min="7" style="13" width="8.7265625"/>
+    <col customWidth="1" max="8" min="8" style="13" width="25.08984375"/>
+    <col customWidth="1" max="9" min="9" style="13" width="51.6328125"/>
+    <col customWidth="1" max="10" min="10" style="13" width="13.7265625"/>
+    <col customWidth="1" max="11" min="11" style="13" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="12" style="13" width="8.7265625"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="42" r="1" s="10">
+      <c r="A1" s="17" t="inlineStr">
+        <is>
+          <t>CaseId</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>Path</t>
+        </is>
+      </c>
+      <c r="E1" s="11" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="F1" s="11" t="inlineStr">
+        <is>
+          <t>Params</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Sql</t>
+        </is>
+      </c>
+      <c r="H1" s="11" t="inlineStr">
+        <is>
+          <t>ExpectedResult</t>
+        </is>
+      </c>
+      <c r="I1" s="11" t="inlineStr">
+        <is>
+          <t>ActualResult</t>
+        </is>
+      </c>
+      <c r="J1" s="17" t="inlineStr">
+        <is>
+          <t>TestResult</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="84" r="2" s="10">
+      <c r="A2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C2" s="13" t="inlineStr">
+        <is>
+          <t>正常登录</t>
+        </is>
+      </c>
+      <c r="D2" s="20" t="inlineStr">
+        <is>
+          <t>loginByPwd.do</t>
+        </is>
+      </c>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="20" t="inlineStr">
+        <is>
+          <t>{
+    "password": "a12345",
+    "phone": "13242045218"
+}</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I2" s="13" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","user":{"uid":98,"name":"qqqqqhhbbbhb","password":"af8f9dffa5d420fbc249141645b962ee","phone":"13242045218","status":"Normal","type":"Ordinary","createTime":"2019-08-27 20:07:46","updateTime":"2019-08-27 20:07:46","isDel":"NO"},"token":"sAuBbwQw6r75INjuSj1kECVjkmObDFxrW_Gcj8_tyOPh7v-Ir5iX0ByMbB9zgAOgoTkwUXv1mGoDkTCqSSFYZA"}</t>
+        </is>
+      </c>
+      <c r="J2" s="13" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="70" r="3" s="10">
+      <c r="A3" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>空手机号</t>
+        </is>
+      </c>
+      <c r="D3" s="20" t="inlineStr">
+        <is>
+          <t>loginByPwd.do</t>
+        </is>
+      </c>
+      <c r="E3" s="20" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="20" t="inlineStr">
+        <is>
+          <t>{
+    "password": "a12345",
+    "phone": ""
+}</t>
+        </is>
+      </c>
+      <c r="H3" s="13" t="inlineStr">
+        <is>
+          <t>{"msg":"Mobile No. is required","code":"1000"}</t>
+        </is>
+      </c>
+      <c r="I3" s="13" t="inlineStr">
+        <is>
+          <t>{"msg":"Mobile No. is required","code":"1000"}</t>
+        </is>
+      </c>
+      <c r="J3" s="13" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="84" r="4" s="10">
+      <c r="A4" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="inlineStr">
+        <is>
+          <t>错误手机号</t>
+        </is>
+      </c>
+      <c r="D4" s="20" t="inlineStr">
+        <is>
+          <t>loginByPwd.do</t>
+        </is>
+      </c>
+      <c r="E4" s="20" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" s="20" t="inlineStr">
+        <is>
+          <t>{
+    "password": "a12345",
+    "phone": "1324204521898"
+}</t>
+        </is>
+      </c>
+      <c r="H4" s="13" t="inlineStr">
+        <is>
+          <t>{
+    "msg": "Mobile No. format does not match",
+    "code": "1000"
+}</t>
+        </is>
+      </c>
+      <c r="I4" s="13" t="inlineStr">
+        <is>
+          <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
+        </is>
+      </c>
+      <c r="J4" s="13" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="70" r="5" s="10">
+      <c r="A5" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>空密码</t>
+        </is>
+      </c>
+      <c r="D5" s="20" t="inlineStr">
+        <is>
+          <t>loginByPwd.do</t>
+        </is>
+      </c>
+      <c r="E5" s="20" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="20" t="inlineStr">
+        <is>
+          <t>{
+    "password": "",
+    "phone": "13242045218"
+}</t>
+        </is>
+      </c>
+      <c r="H5" s="9" t="inlineStr">
+        <is>
+          <t>{"msg":"Password is required","code":"1000"}</t>
+        </is>
+      </c>
+      <c r="I5" s="9" t="inlineStr">
+        <is>
+          <t>{"msg":"Password is required","code":"1000"}</t>
+        </is>
+      </c>
+      <c r="J5" s="9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="98" r="6" s="10">
+      <c r="A6" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>错误密码</t>
+        </is>
+      </c>
+      <c r="D6" s="20" t="inlineStr">
+        <is>
+          <t>loginByPwd.do</t>
+        </is>
+      </c>
+      <c r="E6" s="20" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" s="20" t="inlineStr">
+        <is>
+          <t>{
+    "password": "a1234sd541f5sd4f5",
+    "phone": "13242045218"
+}</t>
+        </is>
+      </c>
+      <c r="H6" s="9" t="inlineStr">
+        <is>
+          <t>{"msg":"Mobile No. and password do not match","code":"1006"}</t>
+        </is>
+      </c>
+      <c r="I6" s="9" t="inlineStr">
+        <is>
+          <t>{"msg":"Mobile No. and password do not match","code":"1006"}</t>
+        </is>
+      </c>
+      <c r="J6" s="9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="84" r="7" s="10">
+      <c r="A7" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>错误手机号/密码</t>
+        </is>
+      </c>
+      <c r="D7" s="20" t="inlineStr">
+        <is>
+          <t>loginByPwd.do</t>
+        </is>
+      </c>
+      <c r="E7" s="20" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" s="20" t="inlineStr">
+        <is>
+          <t>{
+    "password": "a123sd3f5445",
+    "phone": "13242045df415218"
+}</t>
+        </is>
+      </c>
+      <c r="H7" s="9" t="inlineStr">
+        <is>
+          <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
+        </is>
+      </c>
+      <c r="I7" s="9" t="inlineStr">
+        <is>
+          <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
+        </is>
+      </c>
+      <c r="J7" s="9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="8" s="10">
+      <c r="A8" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C8" s="13" t="inlineStr">
+        <is>
+          <t>空手机号/密码</t>
+        </is>
+      </c>
+      <c r="D8" s="20" t="inlineStr">
+        <is>
+          <t>loginByPwd.do</t>
+        </is>
+      </c>
+      <c r="E8" s="20" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F8" s="20" t="inlineStr">
+        <is>
+          <t>{
+    "password": "",
+    "phone": ""
+}</t>
+        </is>
+      </c>
+      <c r="H8" s="9" t="inlineStr">
+        <is>
+          <t>{"msg":"Mobile No. is required","code":"1000"}</t>
+        </is>
+      </c>
+      <c r="I8" s="9" t="inlineStr">
+        <is>
+          <t>{"msg":"Mobile No. is required","code":"1000"}</t>
+        </is>
+      </c>
+      <c r="J8" s="9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/test_cases/test_api.xlsx
+++ b/test_cases/test_api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14390" windowWidth="28980" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="7" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14390" windowWidth="28980" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="login1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="main" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="phone" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="login" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="list" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="creatorder_index" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -130,9 +131,6 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -168,6 +166,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,10 +488,10 @@
     <col customWidth="1" max="8" min="8" style="3" width="42.54296875"/>
     <col customWidth="1" max="9" min="9" style="7" width="26.08984375"/>
     <col customWidth="1" max="10" min="10" style="3" width="19.54296875"/>
-    <col customWidth="1" max="12" min="11" style="9" width="8.90625"/>
+    <col customWidth="1" max="12" min="11" style="22" width="8.90625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="20.4" r="1" s="10">
+    <row customHeight="1" ht="20.4" r="1" s="9">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CaseId</t>
@@ -589,7 +590,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="56" r="3" s="10">
+    <row customHeight="1" ht="56" r="3" s="9">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -638,7 +639,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="56" r="4" s="10">
+    <row customHeight="1" ht="56" r="4" s="9">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -687,7 +688,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="56" r="5" s="10">
+    <row customHeight="1" ht="56" r="5" s="9">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -736,7 +737,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="56" r="6" s="10">
+    <row customHeight="1" ht="56" r="6" s="9">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -804,74 +805,74 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="14" width="12.453125"/>
-    <col customWidth="1" max="2" min="2" style="15" width="12.90625"/>
-    <col customWidth="1" max="3" min="3" style="15" width="12.453125"/>
-    <col customWidth="1" max="4" min="4" style="15" width="11.90625"/>
-    <col customWidth="1" max="5" min="5" style="15" width="8.7265625"/>
-    <col customWidth="1" max="6" min="6" style="15" width="34.36328125"/>
-    <col customWidth="1" max="7" min="7" style="15" width="8.7265625"/>
-    <col customWidth="1" max="8" min="8" style="15" width="22.08984375"/>
-    <col customWidth="1" max="9" min="9" style="15" width="56.81640625"/>
-    <col customWidth="1" max="10" min="10" style="15" width="19"/>
-    <col customWidth="1" max="56" min="11" style="13" width="8.7265625"/>
-    <col customWidth="1" max="16384" min="57" style="13" width="8.7265625"/>
+    <col customWidth="1" max="1" min="1" style="13" width="12.453125"/>
+    <col customWidth="1" max="2" min="2" style="14" width="12.90625"/>
+    <col customWidth="1" max="3" min="3" style="14" width="12.453125"/>
+    <col customWidth="1" max="4" min="4" style="14" width="11.90625"/>
+    <col customWidth="1" max="5" min="5" style="14" width="8.7265625"/>
+    <col customWidth="1" max="6" min="6" style="14" width="34.36328125"/>
+    <col customWidth="1" max="7" min="7" style="14" width="8.7265625"/>
+    <col customWidth="1" max="8" min="8" style="14" width="22.08984375"/>
+    <col customWidth="1" max="9" min="9" style="14" width="56.81640625"/>
+    <col customWidth="1" max="10" min="10" style="14" width="19"/>
+    <col customWidth="1" max="80" min="11" style="12" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="81" style="12" width="8.7265625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="20.4" r="1" s="10">
-      <c r="A1" s="17" t="inlineStr">
+    <row customHeight="1" ht="20.4" r="1" s="9">
+      <c r="A1" s="16" t="inlineStr">
         <is>
           <t>CaseId</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Path</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>Method</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Params</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>Sql</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>ExpectedResult</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>ActualResult</t>
         </is>
       </c>
-      <c r="J1" s="11" t="inlineStr">
+      <c r="J1" s="10" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
       </c>
-      <c r="K1" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="70" r="2" s="10">
+      <c r="K1" s="11" t="n"/>
+    </row>
+    <row customHeight="1" ht="70" r="2" s="9">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -911,38 +912,38 @@
           <t>{"msg":"成功","code":"0000","user":{"id":10787,"status":"Normal","userType":"Member","headImg":"https://file.lihvip.com/data/upload_file/img/head.jpg","name":"pp_13242045218","phone":"132****5218","tradePasswd":"E10ADC3949BA59ABBE56E057F20F883E","lastLoginTime":"2019-08-05 15:17:04","lastLoginIp":"113.87.182.110","setTradePassword":true},"token":"SjeYs1-CjkbswCzIVBF5evCuc75n0P12GpFtB_7LFDrxFppnhIoAcwgNu8EdBPSrtDlgaAnkZOr-BrIFZrjPRA"}</t>
         </is>
       </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="K2" s="16" t="n"/>
-    </row>
-    <row customHeight="1" ht="56" r="3" s="10">
-      <c r="A3" s="14" t="n">
+      <c r="J2" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K2" s="15" t="n"/>
+    </row>
+    <row customHeight="1" ht="56" r="3" s="9">
+      <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="inlineStr">
+      <c r="B3" s="14" t="inlineStr">
         <is>
           <t>提交订单</t>
         </is>
       </c>
-      <c r="C3" s="15" t="inlineStr">
+      <c r="C3" s="14" t="inlineStr">
         <is>
           <t>不使用优惠券</t>
         </is>
       </c>
-      <c r="D3" s="15" t="inlineStr">
+      <c r="D3" s="14" t="inlineStr">
         <is>
           <t>user/submitOrder.do</t>
         </is>
       </c>
-      <c r="E3" s="15" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F3" s="15" t="inlineStr">
+      <c r="F3" s="14" t="inlineStr">
         <is>
           <t>{"addressId":"152","goodsId":"264","num":"1","remark":"","periodId":"","orderType":"Presell","spec":"件"}</t>
         </is>
@@ -958,7 +959,7 @@
           <t>{"msg":"成功","code":"0000","order":{"id":19635,"status":"ToPay","orderNumber":"15649919077016261","userId":10787,"goodsId":264,"goodsCoverImg":"https://file.lihvip.com/data/upload_file/img/20190530/1544cac3-f72e-41b9-aaf3-d1f05f2c5585.jpg","goodsName":"VERSACE COLLECTION腰带","num":1,"salePrice":1500.00,"freight":0.00,"shouldPrice":1500.00,"payPrice":1500.00,"receiveRegion":"湖北省 武汉市 江岸区","receiveDetailed":"阳光科创中心A栋","receiveRecipients":"许彦","receivePhone":"13242045218","refundNum":0.00,"isDel":"NO","createTime":"2019-08-05 16:47:24","orderType":"Presell","rate":6.00,"noFirstPayRate":6.00,"cycle":0,"presellEndTime":"2019-08-09 00:00:00","spec":"件"}}</t>
         </is>
       </c>
-      <c r="J3" s="9" t="inlineStr">
+      <c r="J3" s="22" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -984,16 +985,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.90625" defaultRowHeight="14"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="10" width="12.90625"/>
+    <col customWidth="1" max="2" min="2" style="9" width="12.90625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>tel</t>
         </is>
       </c>
-      <c r="B1" s="9" t="n">
+      <c r="B1" s="22" t="n">
         <v>15096098903</v>
       </c>
     </row>
@@ -1016,22 +1017,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="19" width="8.7265625"/>
-    <col customWidth="1" max="2" min="2" style="9" width="17.08984375"/>
-    <col customWidth="1" max="3" min="3" style="9" width="20"/>
-    <col customWidth="1" max="4" min="4" style="9" width="36.36328125"/>
-    <col customWidth="1" max="5" min="5" style="9" width="8.7265625"/>
-    <col customWidth="1" max="6" min="6" style="13" width="36.26953125"/>
-    <col customWidth="1" max="7" min="7" style="9" width="8.7265625"/>
-    <col customWidth="1" max="8" min="8" style="9" width="28.453125"/>
-    <col customWidth="1" max="9" min="9" style="9" width="32"/>
-    <col customWidth="1" max="10" min="10" style="18" width="20.54296875"/>
-    <col customWidth="1" max="48" min="11" style="9" width="8.7265625"/>
-    <col customWidth="1" max="16384" min="49" style="9" width="8.7265625"/>
+    <col customWidth="1" max="1" min="1" style="18" width="8.7265625"/>
+    <col customWidth="1" max="2" min="2" style="22" width="17.08984375"/>
+    <col customWidth="1" max="3" min="3" style="22" width="20"/>
+    <col customWidth="1" max="4" min="4" style="22" width="36.36328125"/>
+    <col customWidth="1" max="5" min="5" style="22" width="8.7265625"/>
+    <col customWidth="1" max="6" min="6" style="12" width="36.26953125"/>
+    <col customWidth="1" max="7" min="7" style="22" width="8.7265625"/>
+    <col customWidth="1" max="8" min="8" style="22" width="28.453125"/>
+    <col customWidth="1" max="9" min="9" style="22" width="32"/>
+    <col customWidth="1" max="10" min="10" style="17" width="20.54296875"/>
+    <col customWidth="1" max="72" min="11" style="22" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="73" style="22" width="8.7265625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="21" r="1" s="10">
-      <c r="A1" s="21" t="inlineStr">
+    <row customHeight="1" ht="21" r="1" s="9">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>CaseId</t>
         </is>
@@ -1056,7 +1057,7 @@
           <t>Method</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Params</t>
         </is>
@@ -1076,37 +1077,37 @@
           <t>ActualResult</t>
         </is>
       </c>
-      <c r="J1" s="17" t="inlineStr">
+      <c r="J1" s="16" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="56" r="2" s="10">
-      <c r="A2" s="19" t="n">
+    <row customHeight="1" ht="56" r="2" s="9">
+      <c r="A2" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="22" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="22" t="inlineStr">
         <is>
           <t>后台登录</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
+      <c r="D2" s="22" t="inlineStr">
         <is>
           <t>sys/login</t>
         </is>
       </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="E2" s="22" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="20" t="inlineStr">
+      <c r="F2" s="19" t="inlineStr">
         <is>
           <t>{
     "username": "xuyan",
@@ -1124,37 +1125,37 @@
           <t>{"msg":"成功","code":"0000","expire":43200,"token":"8f3c8ffaafc82954a60c4eadf3705882"}</t>
         </is>
       </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="33.5" r="3" s="10">
-      <c r="A3" s="19" t="n">
+      <c r="J2" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="33.5" r="3" s="9">
+      <c r="A3" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="22" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="22" t="inlineStr">
         <is>
           <t>分类列表</t>
         </is>
       </c>
-      <c r="D3" s="22" t="inlineStr">
+      <c r="D3" s="21" t="inlineStr">
         <is>
           <t>sys/goodsType/list</t>
         </is>
       </c>
-      <c r="E3" s="22" t="inlineStr">
+      <c r="E3" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F3" s="20" t="inlineStr">
+      <c r="F3" s="19" t="inlineStr">
         <is>
           <t>{
     "pageNum": "1",
@@ -1167,42 +1168,42 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I3" s="9" t="inlineStr">
+      <c r="I3" s="22" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","pageList":{"count":31,"pages":1,"data":[{"id":27,"pid":0,"type":"practicality","key":"652a3127f34e4df7","name":"轻奢优品","isDel":"NO","createTime":"2019-08-09 11:05:25","isDisplay":"YES","orderNum":500,"typeNum":0},{"id":33,"pid":0,"type":"practicality","key":"70b856ad317e4da4","name":"家居优品","isDel":"NO","createTime":"2019-08-09 11:12:44","isDisplay":"YES","orderNum":490,"typeNum":0},{"id":39,"pid":0,"type":"practicality","key":"b8ed0f17b4644daa","name":"数码优品","isDel":"NO","createTime":"2019-08-09 11:21:07","isDisplay":"YES","orderNum":485,"typeNum":0},{"id":10,"pid":0,"type":"practicality","key":"wine_p","name":"居家生活","isDel":"NO","createTime":"2019-08-02 16:09:04","remark":"add_pid","isDisplay":"YES","orderNum":344,"typeNum":0},{"id":11,"pid":0,"type":"practicality","key":"zhubao_p","name":"珠宝首饰","isDel":"NO","createTime":"2019-08-02 16:09:04","remark":"add_pid","isDisplay":"YES","orderNum":222,"typeNum":0},{"id":25,"pid":0,"type":"practicality","key":"a26547413408406b","name":"特殊分类-","isDel":"NO","createTime":"2019-08-07 17:05:35","isDisplay":"YES","orderNum":123,"typeNum":0},{"id":24,"pid":0,"type":"practicality","key":"21708b2691e746c1","name":"玉玺","isDel":"NO","createTime":"2019-08-06 17:26:19","isDisplay":"YES","orderNum":99,"typeNum":0},{"id":40,"pid":39,"type":"practicality","key":"2766f06ee8f643fa","name":"时尚耳机","isDel":"NO","createTime":"2019-08-09 11:21:57","isDisplay":"YES","orderNum":50,"typeNum":2},{"id":34,"pid":33,"type":"practicality","key":"dbedade0afec4984","name":"家纺床品","isDel":"NO","createTime":"2019-08-09 11:13:04","isDisplay":"YES","orderNum":50,"typeNum":1},{"id":28,"pid":27,"type":"practicality","key":"eb772147bd98458b","name":"香水彩妆","isDel":"NO","createTime":"2019-08-09 11:06:47","isDisplay":"YES","orderNum":50,"typeNum":44},{"id":41,"pid":39,"type":"practicality","key":"0aae60c72c394123","name":"无人机","isDel":"NO","createTime":"2019-08-09 11:23:20","isDisplay":"YES","orderNum":45,"typeNum":0},{"id":35,"pid":33,"type":"practicality","key":"ac4bf0bb669d46f8","name":"生活用品","isDel":"NO","createTime":"2019-08-09 11:14:48","isDisplay":"YES","orderNum":45,"typeNum":3},{"id":29,"pid":27,"type":"practicality","key":"3456aef02d2346d3","name":"个护清洁","isDel":"NO","createTime":"2019-08-09 11:07:14","isDisplay":"YES","orderNum":45,"typeNum":0},{"id":42,"pid":39,"type":"practicality","key":"c5d64d3eb0e64bbc","name":"电子个护","isDel":"NO","createTime":"2019-08-09 11:25:00","isDisplay":"YES","orderNum":40,"typeNum":0},{"id":30,"pid":27,"type":"practicality","key":"d5fcbd55012c44cf","name":"鞋帽","isDel":"NO","createTime":"2019-08-09 11:09:38","isDisplay":"YES","orderNum":40,"typeNum":0},{"id":2,"pid":9,"type":"practicality","key":"healthProducts","name":"箱包皮具","isDel":"NO","createTime":"2019-03-06 17:34:51","isDisplay":"YES","orderNum":40,"typeNum":277},{"id":43,"pid":39,"type":"practicality","key":"275f9a9393224fde","name":"智能音箱","isDel":"NO","createTime":"2019-08-09 11:26:10","isDisplay":"YES","orderNum":35,"typeNum":0},{"id":36,"pid":33,"type":"practicality","key":"d41d24514ea4462f","name":"运动健康","isDel":"NO","createTime":"2019-08-09 11:16:01","isDisplay":"YES","orderNum":35,"typeNum":0},{"id":31,"pid":27,"type":"practicality","key":"b1c9d4ab881846eb","name":"皮具箱包","isDel":"NO","createTime":"2019-08-09 11:10:03","isDisplay":"YES","orderNum":35,"typeNum":0},{"id":12,"pid":0,"type":"practicality","key":"14c64e067abe468e_p","name":"女装_","isDel":"NO","createTime":"2019-08-02 16:09:04","remark":"add_pid","isDisplay":"YES","orderNum":33,"typeNum":0},{"id":44,"pid":39,"type":"practicality","key":"644c08f265714d22","name":"创意数码","isDel":"NO","createTime":"2019-08-09 11:28:58","isDisplay":"YES","orderNum":30,"typeNum":0},{"id":37,"pid":33,"type":"practicality","key":"0d5ef62f483443e6","name":"厨房用品","isDel":"NO","createTime":"2019-08-09 11:16:56","isDisplay":"YES","orderNum":30,"typeNum":0},{"id":32,"pid":27,"type":"practicality","key":"fe142b73215a4edd","name":"珠宝首饰2","isDel":"NO","createTime":"2019-08-09 11:10:57","isDisplay":"YES","orderNum":30,"typeNum":0},{"id":38,"pid":33,"type":"practicality","key":"c3d4fe529bf64536","name":"家装摆饰","isDel":"NO","createTime":"2019-08-09 11:19:50","isDisplay":"YES","orderNum":25,"typeNum":0},{"id":9,"pid":0,"type":"practicality","key":"healthProducts_p","name":"服饰鞋包","isDel":"NO","createTime":"2019-08-02 16:09:04","remark":"add_pid","isDisplay":"YES","orderNum":23,"typeNum":0},{"id":4,"pid":11,"type":"practicality","key":"zhubao","name":"珠宝","isDel":"NO","createTime":"2019-04-15 09:25:45","isDisplay":"YES","orderNum":20,"typeNum":227},{"id":3,"pid":10,"type":"practicality","key":"wine","name":"眼镜","isDel":"NO","createTime":"2019-03-06 17:34:51","isDisplay":"YES","orderNum":10,"typeNum":17},{"id":13,"pid":0,"type":"practicality","key":"d58f536d095c45c0_p","name":"手表_","isDel":"NO","createTime":"2019-08-02 16:09:04","remark":"add_pid","isDisplay":"YES","orderNum":2,"typeNum":0},{"id":26,"pid":10,"type":"practicality","key":"aeb9da9913504107","name":"收纳","isDel":"NO","createTime":"2019-08-08 09:50:43","isDisplay":"YES","orderNum":1,"typeNum":0},{"id":8,"pid":13,"type":"practicality","key":"d58f536d095c45c0","name":"手表","isDel":"NO","createTime":"2019-07-22 17:49:51","isDisplay":"YES","orderNum":1,"typeNum":1},{"id":7,"pid":12,"type":"practicality","key":"14c64e067abe468e","name":"女装","isDel":"NO","createTime":"2019-07-11 13:45:54","isDisplay":"YES","orderNum":0,"typeNum":6}],"currentNum":1,"pageSize":1000}}</t>
         </is>
       </c>
-      <c r="J3" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="4" s="10">
-      <c r="A4" s="19" t="n">
+      <c r="J3" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="4" s="9">
+      <c r="A4" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="22" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="22" t="inlineStr">
         <is>
           <t>厂商列表</t>
         </is>
       </c>
-      <c r="D4" s="22" t="inlineStr">
+      <c r="D4" s="21" t="inlineStr">
         <is>
           <t>sys/manufacturer/list</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="E4" s="22" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F4" s="20" t="inlineStr">
+      <c r="F4" s="19" t="inlineStr">
         <is>
           <t>{
     "pageNum": "1",
@@ -1215,42 +1216,42 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I4" s="9" t="inlineStr">
+      <c r="I4" s="22" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","pageList":{"count":8,"pages":1,"data":[{"id":12,"name":"深港通/华悦","type":"factory","isSale":"YES","saleNum":375260.40,"useNum":375260.40,"updateTime":"2019-06-21 09:42:38","createTime":"2019-05-19 14:48:12","isDel":"NO"},{"id":11,"name":"国外","type":"factory","isSale":"NO","saleNum":883028.54,"useNum":883028.54,"createTime":"2019-05-19 14:47:40","isDel":"NO"},{"id":10,"name":"卡地亚","type":"factory","isSale":"NO","saleNum":49400.00,"useNum":49400.00,"createTime":"2019-05-17 19:27:28","isDel":"NO"},{"id":9,"name":"欧米茄","type":"factory","isSale":"NO","saleNum":131735.60,"useNum":131735.60,"createTime":"2019-05-17 19:27:17","isDel":"NO"},{"id":8,"name":"厦门代理商","type":"factory","isSale":"YES","saleNum":291278.00,"useNum":291278.00,"updateTime":"2019-06-21 09:42:33","createTime":"2019-05-17 10:30:54","isDel":"NO"},{"id":7,"name":"兴唯珠宝","type":"factory","isSale":"YES","saleNum":776957.02,"useNum":776957.02,"updateTime":"2019-06-21 09:42:26","createTime":"2019-04-16 19:42:22","isDel":"NO"},{"id":6,"name":"优荟酒窖","type":"factory","isSale":"YES","saleNum":37698.40,"useNum":37698.40,"createTime":"2019-04-16 18:42:39","isDel":"NO"},{"id":5,"name":"燕之屋","type":"commercial","isSale":"YES","saleNum":564.16,"useNum":564.16,"createTime":"2019-04-16 15:51:25","isDel":"NO"}],"currentNum":1,"pageSize":10}}</t>
         </is>
       </c>
-      <c r="J4" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="5" s="10">
-      <c r="A5" s="19" t="n">
+      <c r="J4" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="5" s="9">
+      <c r="A5" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="22" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C5" s="22" t="inlineStr">
+      <c r="C5" s="21" t="inlineStr">
         <is>
           <t>标签列表</t>
         </is>
       </c>
-      <c r="D5" s="22" t="inlineStr">
+      <c r="D5" s="21" t="inlineStr">
         <is>
           <t>sys/goodsLabel/selectAllLabel</t>
         </is>
       </c>
-      <c r="E5" s="22" t="inlineStr">
+      <c r="E5" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F5" s="20" t="inlineStr">
+      <c r="F5" s="19" t="inlineStr">
         <is>
           <t>{
     "pageNum": "1",
@@ -1263,42 +1264,42 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I5" s="9" t="inlineStr">
+      <c r="I5" s="22" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}]}</t>
         </is>
       </c>
-      <c r="J5" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="84" r="6" s="10">
-      <c r="A6" s="19" t="n">
+      <c r="J5" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="84" r="6" s="9">
+      <c r="A6" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="22" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C6" s="22" t="inlineStr">
+      <c r="C6" s="21" t="inlineStr">
         <is>
           <t>周期列表</t>
         </is>
       </c>
-      <c r="D6" s="22" t="inlineStr">
+      <c r="D6" s="21" t="inlineStr">
         <is>
           <t>sys/period/list</t>
         </is>
       </c>
-      <c r="E6" s="22" t="inlineStr">
+      <c r="E6" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F6" s="20" t="inlineStr">
+      <c r="F6" s="19" t="inlineStr">
         <is>
           <t xml:space="preserve">{
     "pageNum": 1,
@@ -1313,37 +1314,37 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I6" s="9" t="inlineStr">
+      <c r="I6" s="22" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","pageList":{"count":3,"pages":1,"data":[{"id":3,"periodKey":"b19dd47fce07","periodName":"180天","periodDay":180,"rate":10.00,"goodsNum":25,"isDel":"NO","createTime":"2019-07-09 19:59:39"},{"id":2,"periodKey":"dd788be8971d","periodName":"90天","periodDay":90,"rate":8.00,"goodsNum":55,"isDel":"NO","createTime":"2019-07-09 19:59:29"},{"id":1,"periodKey":"2dd9e99269db","periodName":"30天","periodDay":30,"rate":6.00,"goodsNum":55,"isDel":"NO","createTime":"2019-07-09 19:59:18"}],"currentNum":1,"pageSize":10}}</t>
         </is>
       </c>
-      <c r="J6" s="9" t="inlineStr">
+      <c r="J6" s="22" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="n">
+      <c r="A7" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="22" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C7" s="22" t="inlineStr">
         <is>
           <t>新增商品查询分类</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
+      <c r="D7" s="22" t="inlineStr">
         <is>
           <t>sys/goods/getGoodsType</t>
         </is>
       </c>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="E7" s="22" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -1353,37 +1354,37 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I7" s="9" t="inlineStr">
+      <c r="I7" s="22" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","practicality":[{"id":27,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/e4e674a9-ff08-4e5f-ad2e-7b00f37ec81e.jpg","key":"652a3127f34e4df7","name":"轻奢优品","orderNum":500,"typeNum":0,"children":[{"id":28,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/b46a94b3-c277-4ca0-b362-1f5feffc29e4.jpg","key":"eb772147bd98458b","name":"香水彩妆","orderNum":50,"typeNum":0},{"id":29,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/ac0e741e-dcc9-4895-b7af-1ca76c21f9ae.png","key":"3456aef02d2346d3","name":"个护清洁","orderNum":45,"typeNum":0},{"id":30,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/ffdb3d3e-91d0-4120-9e80-4c5b00a7c95e.png","key":"d5fcbd55012c44cf","name":"鞋帽","orderNum":40,"typeNum":0},{"id":31,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/c765dcc1-4714-4cfd-bcdc-3920c4a53056.jpg","key":"b1c9d4ab881846eb","name":"皮具箱包","orderNum":35,"typeNum":0},{"id":32,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/634fb37b-f203-4f54-a9b8-ac03bb6ff809.png","key":"fe142b73215a4edd","name":"珠宝首饰2","orderNum":30,"typeNum":0}]},{"id":33,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/d4f6767b-48b4-4708-a55c-9869dbf6fb45.jpg","key":"70b856ad317e4da4","name":"家居优品","orderNum":490,"typeNum":0,"children":[{"id":34,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/670b251a-b8cf-4f44-a858-ed57fc13ec96.jpg","key":"dbedade0afec4984","name":"家纺床品","orderNum":50,"typeNum":0},{"id":35,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/3d668046-6d35-45fd-9a1d-b9859fbcc17d.png","key":"ac4bf0bb669d46f8","name":"生活用品","orderNum":45,"typeNum":0},{"id":36,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/5c38fcc5-3a48-4c17-9d8e-bb8c2b4193a4.jpg","key":"d41d24514ea4462f","name":"运动健康","orderNum":35,"typeNum":0},{"id":37,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/41863f51-5869-4dc3-aed1-3130be725a19.jpg","key":"0d5ef62f483443e6","name":"厨房用品","orderNum":30,"typeNum":0},{"id":38,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/b1f7fe77-cdb8-4ae8-8089-0519a944fa3a.png","key":"c3d4fe529bf64536","name":"家装摆饰","orderNum":25,"typeNum":0}]},{"id":39,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/68e76923-1812-442f-9ed5-11fe5ca0c984.png","key":"b8ed0f17b4644daa","name":"数码优品","orderNum":485,"typeNum":0,"children":[{"id":40,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/fbceb907-3224-4c2b-b62c-880046269419.jpg","key":"2766f06ee8f643fa","name":"时尚耳机","orderNum":50,"typeNum":0},{"id":41,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/979647e0-35a6-4c3d-b62d-1df26d60c9e7.jpg","key":"0aae60c72c394123","name":"无人机","orderNum":45,"typeNum":0},{"id":42,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/e9c8355d-5e90-42f4-8abf-9912f425aeca.jpg","key":"c5d64d3eb0e64bbc","name":"电子个护","orderNum":40,"typeNum":0},{"id":43,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/b2dccc24-55cc-4562-845e-c339af29363c.jpg","key":"275f9a9393224fde","name":"智能音箱","orderNum":35,"typeNum":0},{"id":44,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/4da4e8db-bb66-4f85-bfe8-3aad31f60254.jpg","key":"644c08f265714d22","name":"创意数码","orderNum":30,"typeNum":0}]},{"id":10,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190802/59a9e02b-183f-4228-ab76-a003285061e8.png","key":"wine_p","name":"居家生活","orderNum":344,"typeNum":0,"children":[{"id":3,"imgUrl":"","key":"wine","name":"眼镜","orderNum":10,"typeNum":0},{"id":26,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190808/b754db12-256d-4d30-b4b5-27b7445059fc.jpg","key":"aeb9da9913504107","name":"收纳","orderNum":1,"typeNum":0}]},{"id":11,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190802/f3ec1319-ab38-4d5b-bf53-a1af65334f11.jpg","key":"zhubao_p","name":"珠宝首饰","orderNum":222,"typeNum":0,"children":[{"id":4,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190802/6bfba947-1377-4bdf-9f58-218653cef6bd.jpg","key":"zhubao","name":"珠宝","orderNum":20,"typeNum":0}]},{"id":12,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190802/f9b48342-c33f-46e6-af3f-06a496335d0d.jpg","key":"14c64e067abe468e_p","name":"女装_","orderNum":33,"typeNum":0,"children":[{"id":7,"imgUrl":"","key":"14c64e067abe468e","name":"女装","orderNum":0,"typeNum":0}]},{"id":9,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190802/c073d379-8b98-407d-9f62-1c899e88c7ee.png","key":"healthProducts_p","name":"服饰鞋包","orderNum":23,"typeNum":0,"children":[{"id":2,"imgUrl":"","key":"healthProducts","name":"箱包皮具","orderNum":40,"typeNum":0}]},{"id":13,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190802/b722332c-7719-4c24-a858-1c5810ebe4db.jpg","key":"d58f536d095c45c0_p","name":"手表_","orderNum":2,"typeNum":0,"children":[{"id":8,"imgUrl":"","key":"d58f536d095c45c0","name":"手表","orderNum":1,"typeNum":0}]}]}</t>
         </is>
       </c>
-      <c r="J7" s="9" t="inlineStr">
+      <c r="J7" s="22" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="n">
+      <c r="A8" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="22" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="22" t="inlineStr">
         <is>
           <t>新增商品查询厂商</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
+      <c r="D8" s="22" t="inlineStr">
         <is>
           <t>sys/manufacturer/getManufactTypeOrName</t>
         </is>
       </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="E8" s="22" t="inlineStr">
         <is>
           <t>get</t>
         </is>
@@ -1393,37 +1394,37 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I8" s="9" t="inlineStr">
+      <c r="I8" s="22" t="inlineStr">
         <is>
           <t>{"msg":"成功","factory":[{"id":12,"name":"深港通/华悦","type":"factory","isSale":"YES","saleNum":375260.40,"useNum":375260.40,"updateTime":"2019-06-21 09:42:38","createTime":"2019-05-19 14:48:12","isDel":"NO"},{"id":11,"name":"国外","type":"factory","isSale":"NO","saleNum":883028.54,"useNum":883028.54,"createTime":"2019-05-19 14:47:40","isDel":"NO"},{"id":10,"name":"卡地亚","type":"factory","isSale":"NO","saleNum":49400.00,"useNum":49400.00,"createTime":"2019-05-17 19:27:28","isDel":"NO"},{"id":9,"name":"欧米茄","type":"factory","isSale":"NO","saleNum":131735.60,"useNum":131735.60,"createTime":"2019-05-17 19:27:17","isDel":"NO"},{"id":8,"name":"厦门代理商","type":"factory","isSale":"YES","saleNum":291278.00,"useNum":291278.00,"updateTime":"2019-06-21 09:42:33","createTime":"2019-05-17 10:30:54","isDel":"NO"},{"id":7,"name":"兴唯珠宝","type":"factory","isSale":"YES","saleNum":776957.02,"useNum":776957.02,"updateTime":"2019-06-21 09:42:26","createTime":"2019-04-16 19:42:22","isDel":"NO"},{"id":6,"name":"优荟酒窖","type":"factory","isSale":"YES","saleNum":37698.40,"useNum":37698.40,"createTime":"2019-04-16 18:42:39","isDel":"NO"}],"commercial":[{"id":5,"name":"燕之屋","type":"commercial","isSale":"YES","saleNum":564.16,"useNum":564.16,"createTime":"2019-04-16 15:51:25","isDel":"NO"}],"code":"0000"}</t>
         </is>
       </c>
-      <c r="J8" s="9" t="inlineStr">
+      <c r="J8" s="22" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="n">
+      <c r="A9" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="22" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="22" t="inlineStr">
         <is>
           <t>新增商品查询标签</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="22" t="inlineStr">
         <is>
           <t>sys/goodsLabel/selectAllLabel</t>
         </is>
       </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="E9" s="22" t="inlineStr">
         <is>
           <t>get</t>
         </is>
@@ -1433,42 +1434,42 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I9" s="9" t="inlineStr">
+      <c r="I9" s="22" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}]}</t>
         </is>
       </c>
-      <c r="J9" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="72.5" r="10" s="10">
-      <c r="A10" s="19" t="n">
+      <c r="J9" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="72.5" r="10" s="9">
+      <c r="A10" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="22" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="22" t="inlineStr">
         <is>
           <t>新增商品</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="D10" s="22" t="inlineStr">
         <is>
           <t>sys/goods/save</t>
         </is>
       </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="E10" s="22" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F10" s="9" t="inlineStr">
+      <c r="F10" s="22" t="inlineStr">
         <is>
           <t>{"coverImg": "https://file.test.lihvip.com/data/upload_file/img/20190807/46df0f68-7f91-43e1-bcd4-0d30dd9e430b.jpg", "createTime": "", "describe": "&lt;p&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/a5011d25-fe51-47d4-a0f0-51174f01d9d1.jpg\" alt=\"\" width=\"1200\" height=\"362\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/1623c254-e77e-4d22-a776-273e2111fbdc.png\" alt=\"\" width=\"1200\" height=\"2256\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/ce00686f-6305-44af-9da7-df052019dd8a.png\" alt=\"\" width=\"1200\" height=\"1854\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/bb893f0e-db37-447c-8343-f7c618c9eb81.png\" alt=\"\" width=\"1200\" height=\"1110\" /&gt;&lt;/p&gt;", "entrustPrice": 111, "firstFreight": 0, "marketPrice": 1600, "goodsTypeKey": "zhubao", "isPresell": "NO", "isSellWell": "NO", "isShelves": "NO", "manufactId": 12, "name": "toy toy toy", "noFirstFreight": 0, "presellBeginTime": "", "presellEndTime": "", "salePrice": 100, "showImgs": ["https://file.test.lihvip.com/data/upload_file/img/20190807/46df0f68-7f91-43e1-bcd4-0d30dd9e430b.jpg", "https://file.test.lihvip.com/data/upload_file/img/20190807/e21f9046-a27f-44c5-9bf8-76602733eb0a.jpg", "https://file.test.lihvip.com/data/upload_file/img/20190807/e8900198-ff78-4150-b65e-9d9522e87360.jpg", "https://file.test.lihvip.com/data/upload_file/img/20190807/3f4e7549-8263-4f3e-b64b-0e143bcca285.jpg"], "property": "[{\"title\":\"\u5546\u54c1\u578b\u53f7\",\"value\":\"\u5510\u5b8b\u5143\u660e\u6e05\"},{\"title\":\"\u54c1\u724c\",\"value\":\"\u7687\u5bb6\u4e13\u7528\"}]", "isDel": "NO", "goodsLabel": [{"id": 1, "isDisplay": "YES", "labelTag": "1cc4e4fe25ad4ee8", "name": "\u5047\u4e00\u8d54\u5341"}, {"id": 2, "isDisplay": "YES", "labelTag": "f75b1edc17754d97", "name": "\u6b63\u54c1\u4fdd\u969c"}, {"id": 3, "isDisplay": "YES", "labelTag": "82747624b4734081", "name": "\u8d85\u503c\u6298\u6263"}], "specifications": [{"specs": "\u5510"}, {"specs": "\u5b8b"}, {"specs": "\u5143"}, {"specs": "\u660e"}]}</t>
         </is>
@@ -1478,56 +1479,56 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I10" s="9" t="inlineStr">
+      <c r="I10" s="22" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","key":665}</t>
         </is>
       </c>
-      <c r="J10" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="72.5" r="11" s="10">
-      <c r="F11" s="9" t="n"/>
+      <c r="J10" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="72.5" r="11" s="9">
+      <c r="F11" s="22" t="n"/>
       <c r="H11" s="4" t="n"/>
-      <c r="I11" s="9" t="inlineStr">
+      <c r="I11" s="22" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","pageList":{"count":579,"pages":58,"data":[{"id":664,"isSellWell":"YES","isShelves":"NO","isPresell":"NO","presellBeginTime":"2019-08-05 00:00:00","presellEndTime":"2019-08-31 00:00:00","goodsTypeKey":"2766f06ee8f643fa","name":"手机-0009","stock":100000,"sale":0,"property":"[{\"title\":\"123\",\"value\":\"123\"}]","salePrice":1233.00,"marketPrice":2222.00,"entrustPrice":0.00,"discount":0.00,"discountType":"NoAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.test.lihvip.com/data/upload_file/img/20190813/4a966e1d-989d-415b-9ce7-cf57f4d75c38.png","showImgs":["https://file.test.lihvip.com/data/upload_file/img/20190813/fad35762-7e96-4579-b651-98603418b6c8.png"],"isDel":"NO","createTime":"2019-08-13 17:31:44","describe":"&lt;p&gt;反反复复&lt;/p&gt;","goodsTypeName":"时尚耳机","manufactName":"深港通/华悦","orderWeight":213123,"goodsLabel":[{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"}],"goodsPeriod":"3,2,1","specifications":[{"specs":"d'd'd顶顶顶"}]},{"id":296,"isSellWell":"YES","isShelves":"NO","isPresell":"NO","presellBeginTime":"2019-08-02 00:00:00","presellEndTime":"2019-08-09 00:00:00","goodsTypeKey":"healthProducts","name":"EMPORIO ARMANI钱包","stock":99976,"sale":20,"cycle":30,"property":"[{\"title\":\"商品型号\",\"value\":\"Y4R1656\"},{\"title\":\"品牌\",\"value\":\"EMPORIO ARMANI\"}]","salePrice":1000.00,"marketPrice":1800.00,"entrustPrice":1005.00,"discount":0.00,"discountType":"ReduceAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.lihvip.com/data/upload_file/img/20190603/503b10ba-1a7c-4895-82a0-373385eedf12.jpg","showImgs":["https://file.lihvip.com/data/upload_file/img/20190603/bb63daf1-2fd3-4bbe-84cf-95612c8ee6b5.jpg","https://file.lihvip.com/data/upload_file/img/20190603/b7907af6-7c39-4815-9f18-979ac919768b.jpg","https://file.lihvip.com/data/upload_file/img/20190603/4a755ecf-80d4-4eb9-a6b7-5ea9a9dea322.jpg"],"isDel":"NO","createTime":"2019-06-03 16:47:36","describe":"&lt;p&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/6d153796-2c7e-43d7-afe9-ea4e54ab7923.jpg\" alt=\"\" width=\"810\" height=\"362\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/b9904aeb-31c1-4d79-a3cc-1c38b06b0254.jpg\" alt=\"\" width=\"780\" height=\"875\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/3111e39c-32cd-4f92-9d29-f0294a7bf1a0.jpg\" alt=\"\" width=\"780\" height=\"855\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/da72d970-3224-4974-9a7c-b1a9d5564e84.jpg\" alt=\"\" width=\"780\" height=\"1002\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/08e26e9d-0425-43d3-8e48-b445e65deb3a.jpg\" alt=\"\" width=\"780\" height=\"784\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/c48ca072-0914-4055-9870-b781d390a854.jpg\" alt=\"\" width=\"780\" height=\"1019\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/e75826b9-0344-442c-9bce-f051517ecba2.jpg\" alt=\"\" width=\"780\" height=\"708\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/3dc38333-9431-40a7-9726-0b993056c1a7.jpg\" alt=\"\" width=\"780\" height=\"795\" /&gt;&lt;/p&gt;","goodsTypeName":"箱包皮具","manufactName":"深港通/华悦","orderWeight":22,"goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}],"goodsPeriod":"","specifications":[{"specs":"件"},{"specs":"23"}]},{"id":40,"isSellWell":"YES","isShelves":"NO","isPresell":"NO","presellBeginTime":"2019-08-05 00:00:00","presellEndTime":"2019-08-31 00:00:00","goodsTypeKey":"zhubao","name":"Cartier卡地亚 RONDE SOLO DE CARTIER腕表","stock":996,"sale":0,"cycle":90,"property":"[{\"title\":\"商品型号\",\"value\":\"WSRN0012\"},{\"title\":\"产地\",\"value\":\"法国\"},{\"title\":\"品牌\",\"value\":\"Cartier卡地亚\"}]","salePrice":21275.00,"marketPrice":24700.00,"entrustPrice":21700.50,"discount":3425.00,"discountType":"ReduceAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.lihvip.com/data/upload_file/img/20190517/ddb8a0a6-b368-43ae-951e-1a70d0229735.jpg","showImgs":["https://file.lihvip.com/data/upload_file/img/20190517/3ae427f1-e28a-40f8-99b7-51e1ffa8968b.jpg","https://file.lihvip.com/data/upload_file/img/20190517/b9215f72-6d53-445a-be16-ab3e9554a5e5.jpg"],"isDel":"NO","createTime":"2019-05-17 20:07:31","describe":"&lt;p&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/a32837ef-bb05-4aba-a16b-effa2b9ead14.jpg\" alt=\"\" width=\"810\" height=\"362\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/85402139-0afa-419a-9b43-7d50655bd468.jpg\" alt=\"\" width=\"810\" height=\"1535\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/6ece0b1d-c603-4c44-a8fc-c8821e5149d6.jpg\" alt=\"\" width=\"810\" height=\"1873\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/95a6c3cb-c4c5-4142-b170-d34f5bad3894.jpg\" alt=\"\" width=\"810\" height=\"1662\" /&gt;&lt;/p&gt;","goodsTypeName":"珠宝","manufactName":"卡地亚","orderWeight":2,"goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}],"goodsPeriod":"1,2,3","specifications":[{"specs":"件"}]},{"id":457,"isSellWell":"YES","isShelves":"NO","isPresell":"NO","presellBeginTime":"2019-08-02 00:00:00","presellEndTime":"2019-08-09 00:00:00","goodsTypeKey":"healthProducts","name":"范思哲商务休闲皮带","stock":100000,"sale":0,"cycle":30,"property":"[{\"title\":\"商品型号\",\"value\":\"VC1701M2203812\"},{\"title\":\"产地\",\"value\":\"意大利\"},{\"title\":\"品牌\",\"value\":\"VERSACE COLLECTION\"}]","salePrice":1550.00,"marketPrice":2190.00,"entrustPrice":1557.75,"discount":0.00,"discountType":"ReduceAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.lihvip.com/data/upload_file/img/20190624/8c04e6d7-ef67-4e7d-9144-ef0b97576ce4.jpg","showImgs":["https://file.lihvip.com/data/upload_file/img/20190624/7ef1a251-6dff-4583-9185-bbb7e0a7cfde.jpg","https://file.lihvip.com/data/upload_file/img/20190624/30f56926-988d-4739-8932-78ec49f77a2b.jpg","https://file.lihvip.com/data/upload_file/img/20190624/40c4b714-dad6-4097-a102-c65ee5ed42ca.jpg"],"isDel":"NO","createTime":"2019-06-24 15:39:37","describe":"&lt;p&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/4c435262-4d8b-4721-9e9f-95aaa776388d.jpg\" alt=\"\" width=\"810\" height=\"362\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/26ae7b9e-0506-4b1b-bff2-239495eac484.jpg\" alt=\"\" width=\"750\" height=\"491\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/cd15cdad-8b30-4240-abc6-f8728fc93aba.jpg\" alt=\"\" width=\"750\" height=\"427\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/b35b073e-9829-48e9-b7ca-a1e008de78b0.jpg\" alt=\"\" width=\"750\" height=\"854\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/189b0f80-ab20-435c-b11d-d556d0ffa451.jpg\" alt=\"\" width=\"750\" height=\"750\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/a5a247c6-faa0-4009-ac3e-6845f0216636.jpg\" alt=\"\" width=\"750\" height=\"750\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/c4b23765-856a-430e-ace3-76a8da8b8f92.jpg\" alt=\"\" width=\"750\" height=\"750\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/0746d8ea-3fd2-40c9-9b78-6c197d81d3d2.jpg\" alt=\"\" width=\"750\" height=\"750\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/5c40f6f4-ef76-4a9f-b0fd-921307b7bb6b.jpg\" alt=\"\" width=\"750\" height=\"750\" /&gt;&lt;/p&gt;","goodsTypeName":"箱包皮具","manufactName":"厦门代理商","orderWeight":1,"goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}],"goodsPeriod":"","specifications":[{"specs":"件"},{"specs":"23"}]},{"id":272,"isSellWell":"YES","isShelves":"NO","isPresell":"NO","presellBeginTime":"2019-08-02 00:00:00","presellEndTime":"2019-08-09 00:00:00","goodsTypeKey":"healthProducts","name":"新秀丽 （ Samsonite ）商务休闲 双肩背包（蓝色）","stock":100000,"sale":0,"cycle":30,"property":"[{\"title\":\"商品编号\",\"value\":\"642*75020\"},{\"title\":\"品牌\",\"value\":\"新秀丽 （ Samsonite ）\"}]","salePrice":488.00,"marketPrice":680.00,"entrustPrice":490.44,"discount":0.00,"discountType":"ReduceAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.lihvip.com/data/upload_file/img/20190530/19b85dcf-96b2-446a-841b-cb5392b95a5b.jpg","showImgs":["https://file.lihvip.com/data/upload_file/img/20190530/961359b3-884c-4147-a9c4-12c9aa726b1f.jpg","https://file.lihvip.com/data/upload_file/img/20190530/951d7dfe-c71c-4a3b-bffa-0e493177a3e4.jpg"],"isDel":"NO","createTime":"2019-05-30 18:13:27","describe":"&lt;p&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/55b9fc6d-4a51-453f-980d-ed4b48d02803.jpg\" alt=\"\" width=\"1200\" height=\"4021\" /&gt;&lt;/p&gt;","goodsTypeName":"箱包皮具","manufactName":"深港通/华悦","orderWeight":1,"goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}],"goodsPeriod":"","specifications":[{"specs":"件"},{"specs":"23"}]},{"id":266,"isSellWell":"YES","isShelves":"NO","isPresell":"YES","presellBeginTime":"2019-08-02 00:00:00","presellEndTime":"2019-08-09 00:00:00","goodsTypeKey":"healthProducts","name":"VERSACE COLLECTION腰带(棕色）","stock":99998,"sale":1,"cycle":30,"property":"[{\"title\":\"商品型号\",\"value\":\"V91192S VM00046  V239 100\"},{\"title\":\"品牌\",\"value\":\"VERSACE COLLECTION\"}]","salePrice":1152.00,"marketPrice":1600.00,"entrustPrice":1157.76,"discount":0.00,"discountType":"ReduceAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.lihvip.com/data/upload_file/img/20190530/090a3048-348e-4d64-a2b7-9cb0f141b47d.jpg","showImgs":["https://file.lihvip.com/data/upload_file/img/20190530/c8667bfc-8474-4db9-8761-ad4bdc5b117c.jpg","https://file.lihvip.com/data/upload_file/img/20190530/b762a847-9725-4b0f-aa3a-fe65c9e11427.jpg","https://file.lihvip.com/data/upload_file/img/20190530/6f449cde-5b17-4e39-bcd8-fea12a147614.jpg","https://file.lihvip.com/data/upload_file/img/20190530/e290f36e-3c15-43d8-be8d-909b3b15561d.jpg"],"isDel":"NO","createTime":"2019-05-30 16:59:26","describe":"&lt;p&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/d1010b5d-5a02-4abd-b626-c3431a0f9ce4.jpg\" alt=\"\" width=\"1200\" height=\"362\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/b39e6c09-5c63-466a-b60d-480f5796072d.jpg\" alt=\"\" width=\"1200\" height=\"850\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/282ef933-d0ac-4865-ad4f-cd3639d97286.png\" alt=\"\" width=\"1200\" height=\"2170\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/4532a0aa-4233-4fac-8b10-2fc75d2b0985.png\" alt=\"\" width=\"1200\" height=\"2782\" /&gt;&lt;/p&gt;","goodsTypeName":"箱包皮具","manufactName":"深港通/华悦","orderWeight":1,"goodsLabel":[],"goodsPeriod":"","specifications":[{"specs":"件"},{"specs":"23"}]},{"id":665,"isSellWell":"NO","isShelves":"NO","isPresell":"NO","goodsTypeKey":"zhubao","name":"toy toy toy","stock":100000,"sale":0,"property":"[{\"title\":\"商品型号\",\"value\":\"唐宋元明清\"},{\"title\":\"品牌\",\"value\":\"皇家专用\"}]","salePrice":100.00,"marketPrice":1600.00,"entrustPrice":0.00,"discount":0.00,"discountType":"NoAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.test.lihvip.com/data/upload_file/img/20190807/46df0f68-7f91-43e1-bcd4-0d30dd9e430b.jpg","showImgs":["https://file.test.lihvip.com/data/upload_file/img/20190807/46df0f68-7f91-43e1-bcd4-0d30dd9e430b.jpg","https://file.test.lihvip.com/data/upload_file/img/20190807/e21f9046-a27f-44c5-9bf8-76602733eb0a.jpg","https://file.test.lihvip.com/data/upload_file/img/20190807/e8900198-ff78-4150-b65e-9d9522e87360.jpg","https://file.test.lihvip.com/data/upload_file/img/20190807/3f4e7549-8263-4f3e-b64b-0e143bcca285.jpg"],"isDel":"NO","createTime":"2019-08-14 09:41:55","describe":"&lt;p&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/a5011d25-fe51-47d4-a0f0-51174f01d9d1.jpg\" alt=\"\" width=\"1200\" height=\"362\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/1623c254-e77e-4d22-a776-273e2111fbdc.png\" alt=\"\" width=\"1200\" height=\"2256\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/ce00686f-6305-44af-9da7-df052019dd8a.png\" alt=\"\" width=\"1200\" height=\"1854\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/bb893f0e-db37-447c-8343-f7c618c9eb81.png\" alt=\"\" width=\"1200\" height=\"1110\" /&gt;&lt;/p&gt;","goodsTypeName":"珠宝","manufactName":"深港通/华悦","orderWeight":0,"goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}],"specifications":[{"specs":"唐"},{"specs":"宋"},{"specs":"元"},{"specs":"明"}]},{"id":663,"isSellWell":"NO","isShelves":"NO","isPresell":"NO","goodsTypeKey":"zhubao","name":"toy toy toy","stock":100000,"sale":0,"property":"[{\"title\":\"商品型号\",\"value\":\"唐宋元明清\"},{\"title\":\"品牌\",\"value\":\"皇家专用\"}]","salePrice":100.00,"marketPrice":1600.00,"entrustPrice":0.00,"discount":0.00,"discountType":"NoAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.test.lihvip.com/data/upload_file/img/20190807/46df0f68-7f91-43e1-bcd4-0d30dd9e430b.jpg","showImgs":["https://file.test.lihvip.com/data/upload_file/img/20190807/46df0f68-7f91-43e1-bcd4-0d30dd9e430b.jpg","https://file.test.lihvip.com/data/upload_file/img/20190807/e21f9046-a27f-44c5-9bf8-76602733eb0a.jpg","https://file.test.lihvip.com/data/upload_file/img/20190807/e8900198-ff78-4150-b65e-9d9522e87360.jpg","https://file.test.lihvip.com/data/upload_file/img/20190807/3f4e7549-8263-4f3e-b64b-0e143bcca285.jpg"],"isDel":"NO","createTime":"2019-08-12 11:20:29","describe":"&lt;p&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/a5011d25-fe51-47d4-a0f0-51174f01d9d1.jpg\" alt=\"\" width=\"1200\" height=\"362\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/1623c254-e77e-4d22-a776-273e2111fbdc.png\" alt=\"\" width=\"1200\" height=\"2256\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/ce00686f-6305-44af-9da7-df052019dd8a.png\" alt=\"\" width=\"1200\" height=\"1854\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/bb893f0e-db37-447c-8343-f7c618c9eb81.png\" alt=\"\" width=\"1200\" height=\"1110\" /&gt;&lt;/p&gt;","goodsTypeName":"珠宝","manufactName":"深港通/华悦","orderWeight":0,"goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}],"specifications":[{"specs":"唐"},{"specs":"宋"},{"specs":"元"},{"specs":"明"}]},{"id":662,"isSellWell":"YES","isShelves":"NO","isPresell":"NO","presellBeginTime":"2019-08-02 00:00:00","presellEndTime":"2019-08-09 00:00:00","goodsTypeKey":"eb772147bd98458b","name":"8.12测试商品","stock":100000,"sale":0,"property":"[{\"title\":\"1\",\"value\":\"1\"}]","salePrice":500.00,"marketPrice":5000.00,"entrustPrice":0.00,"discount":0.00,"discountType":"NoAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.test.lihvip.com/data/upload_file/img/20190812/f71d0916-0211-4120-a412-b2f9e8d451fa.png","showImgs":["https://file.test.lihvip.com/data/upload_file/img/20190812/aaea2653-4d18-446a-859b-c79a7fb27ba2.png"],"isDel":"NO","createTime":"2019-08-12 10:57:00","describe":"&lt;p&gt;12121212&lt;/p&gt;","goodsTypeName":"香水彩妆","manufactName":"燕之屋","orderWeight":0,"goodsLabel":[],"specifications":[{"specs":"测试"}]},{"id":661,"isSellWell":"YES","isShelves":"NO","isPresell":"NO","presellBeginTime":"2019-08-02 00:00:00","presellEndTime":"2019-08-09 00:00:00","goodsTypeKey":"ac4bf0bb669d46f8","name":"标题-新品","stock":99990,"sale":0,"property":"[{\"title\":\"对对对\",\"value\":\"嗖嗖嗖\"}]","salePrice":1233.00,"marketPrice":2321.00,"entrustPrice":0.00,"discount":0.00,"discountType":"NoAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.test.lihvip.com/data/upload_file/img/20190809/2e251258-97c4-4480-8303-ad4bf073b34e.jpg","showImgs":["https://file.test.lihvip.com/data/upload_file/img/20190809/5f1ca96b-5e8d-4ebf-b395-773521713539.jpg"],"isDel":"NO","createTime":"2019-08-09 16:02:54","describe":"&lt;p&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.test.lihvip.com/data/upload_file/img/20190809/bd6c9b0f-61f4-4ab6-971e-846c01d1307a.jpg\" alt=\"\" width=\"750\" height=\"4381\" /&gt;&lt;/p&gt;","goodsTypeName":"生活用品","manufactName":"深港通/华悦","orderWeight":0,"goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"}],"specifications":[{"specs":"点点滴滴"}]}],"currentNum":1,"pageSize":10}}</t>
         </is>
       </c>
-      <c r="J11" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="12" s="10">
-      <c r="A12" s="19" t="n">
+      <c r="J11" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="12" s="9">
+      <c r="A12" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="22" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="22" t="inlineStr">
         <is>
           <t>商品列表</t>
         </is>
       </c>
-      <c r="D12" s="9" t="inlineStr">
+      <c r="D12" s="22" t="inlineStr">
         <is>
           <t>sys/goods/list</t>
         </is>
       </c>
-      <c r="E12" s="9" t="inlineStr">
+      <c r="E12" s="22" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F12" s="20" t="inlineStr">
+      <c r="F12" s="19" t="inlineStr">
         <is>
           <t>{
     "pageNum": "1",
@@ -1540,37 +1541,37 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I12" s="9" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000"}</t>
-        </is>
-      </c>
-      <c r="J12" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="13" s="10">
-      <c r="A13" s="19" t="n">
+      <c r="I12" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="J12" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="13" s="9">
+      <c r="A13" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="inlineStr">
+      <c r="B13" s="22" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C13" s="22" t="inlineStr">
         <is>
           <t>上架商品</t>
         </is>
       </c>
-      <c r="D13" s="9" t="inlineStr">
+      <c r="D13" s="22" t="inlineStr">
         <is>
           <t>sys/goods/save</t>
         </is>
       </c>
-      <c r="E13" s="9" t="inlineStr">
+      <c r="E13" s="22" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -1580,12 +1581,12 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000"}</t>
-        </is>
-      </c>
-      <c r="J13" s="9" t="inlineStr">
+      <c r="I13" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="J13" s="22" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1606,24 +1607,24 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J4"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="10" width="10.6328125"/>
-    <col customWidth="1" max="2" min="2" style="10" width="12.6328125"/>
-    <col customWidth="1" max="3" min="3" style="10" width="17.81640625"/>
-    <col customWidth="1" max="4" min="4" style="10" width="15.36328125"/>
-    <col customWidth="1" max="5" min="5" style="10" width="9.81640625"/>
-    <col customWidth="1" max="6" min="6" style="10" width="27.26953125"/>
-    <col customWidth="1" max="8" min="8" style="10" width="25.453125"/>
-    <col customWidth="1" max="9" min="9" style="10" width="47.08984375"/>
-    <col customWidth="1" max="10" min="10" style="10" width="21.54296875"/>
+    <col customWidth="1" max="1" min="1" style="9" width="10.6328125"/>
+    <col customWidth="1" max="2" min="2" style="9" width="12.6328125"/>
+    <col customWidth="1" max="3" min="3" style="9" width="17.81640625"/>
+    <col customWidth="1" max="4" min="4" style="9" width="15.36328125"/>
+    <col customWidth="1" max="5" min="5" style="9" width="9.81640625"/>
+    <col customWidth="1" max="6" min="6" style="9" width="27.26953125"/>
+    <col customWidth="1" max="8" min="8" style="9" width="25.453125"/>
+    <col customWidth="1" max="9" min="9" style="9" width="47.08984375"/>
+    <col customWidth="1" max="10" min="10" style="9" width="21.54296875"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21" r="1" s="9">
-      <c r="A1" s="21" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="21" r="1" s="22">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>CaseId</t>
         </is>
@@ -1648,7 +1649,7 @@
           <t>Method</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Params</t>
         </is>
@@ -1668,37 +1669,37 @@
           <t>ActualResult</t>
         </is>
       </c>
-      <c r="J1" s="17" t="inlineStr">
+      <c r="J1" s="16" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="22" t="inlineStr">
         <is>
           <t>isExitPhone</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="22" t="inlineStr">
         <is>
           <t>验证存在的手机号</t>
         </is>
       </c>
-      <c r="D2" s="9" t="inlineStr">
+      <c r="D2" s="22" t="inlineStr">
         <is>
           <t>isExitPhone.do</t>
         </is>
       </c>
-      <c r="E2" s="9" t="inlineStr">
+      <c r="E2" s="22" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F2" s="13" t="inlineStr">
+      <c r="F2" s="12" t="inlineStr">
         <is>
           <t>{"phone":"13242045218"}</t>
         </is>
@@ -1708,48 +1709,48 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I2" s="9" t="inlineStr">
+      <c r="I2" s="22" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","isExit":true}</t>
         </is>
       </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="70" r="3" s="9">
-      <c r="A3" s="9" t="n">
+      <c r="J2" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="70" r="3" s="22">
+      <c r="A3" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="22" t="inlineStr">
         <is>
           <t>isExitPhone</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="22" t="inlineStr">
         <is>
           <t>验证不存在的手机号</t>
         </is>
       </c>
-      <c r="D3" s="9" t="inlineStr">
+      <c r="D3" s="22" t="inlineStr">
         <is>
           <t>isExitPhone.do</t>
         </is>
       </c>
-      <c r="E3" s="9" t="inlineStr">
+      <c r="E3" s="22" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F3" s="13" t="inlineStr">
+      <c r="F3" s="12" t="inlineStr">
         <is>
           <t>{"phone":"1324204521899"}</t>
         </is>
       </c>
-      <c r="G3" s="13" t="n"/>
-      <c r="H3" s="13" t="inlineStr">
+      <c r="G3" s="12" t="n"/>
+      <c r="H3" s="12" t="inlineStr">
         <is>
           <t>{
     "msg": "Mobile No. format does not match",
@@ -1757,48 +1758,48 @@
 }</t>
         </is>
       </c>
-      <c r="I3" s="9" t="inlineStr">
+      <c r="I3" s="22" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
         </is>
       </c>
-      <c r="J3" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="70" r="4" s="9">
-      <c r="A4" s="9" t="n">
+      <c r="J3" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="70" r="4" s="22">
+      <c r="A4" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="22" t="inlineStr">
         <is>
           <t>isExitPhone</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="22" t="inlineStr">
         <is>
           <t>验证空手机号</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
+      <c r="D4" s="22" t="inlineStr">
         <is>
           <t>isExitPhone.do</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="E4" s="22" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F4" s="13" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>{"phone":""}</t>
         </is>
       </c>
-      <c r="G4" s="13" t="n"/>
-      <c r="H4" s="13" t="inlineStr">
+      <c r="G4" s="12" t="n"/>
+      <c r="H4" s="12" t="inlineStr">
         <is>
           <t>{
     "msg": "Mobile No. format does not match",
@@ -1806,12 +1807,12 @@
 }</t>
         </is>
       </c>
-      <c r="I4" s="9" t="inlineStr">
+      <c r="I4" s="22" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
         </is>
       </c>
-      <c r="J4" s="9" t="inlineStr">
+      <c r="J4" s="22" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1831,103 +1832,103 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="8.7265625"/>
-    <col customWidth="1" max="2" min="2" style="13" width="13.7265625"/>
-    <col customWidth="1" max="3" min="3" style="13" width="22.54296875"/>
-    <col customWidth="1" max="4" min="4" style="13" width="15.1796875"/>
-    <col customWidth="1" max="5" min="5" style="13" width="8.7265625"/>
-    <col customWidth="1" max="6" min="6" style="13" width="20.36328125"/>
-    <col customWidth="1" max="7" min="7" style="13" width="8.7265625"/>
-    <col customWidth="1" max="8" min="8" style="13" width="25.08984375"/>
-    <col customWidth="1" max="9" min="9" style="13" width="51.6328125"/>
-    <col customWidth="1" max="10" min="10" style="13" width="13.7265625"/>
-    <col customWidth="1" max="11" min="11" style="13" width="8.7265625"/>
-    <col customWidth="1" max="16384" min="12" style="13" width="8.7265625"/>
+    <col customWidth="1" max="1" min="1" style="12" width="12.26953125"/>
+    <col customWidth="1" max="2" min="2" style="12" width="13.7265625"/>
+    <col customWidth="1" max="3" min="3" style="12" width="22.54296875"/>
+    <col customWidth="1" max="4" min="4" style="12" width="15.1796875"/>
+    <col customWidth="1" max="5" min="5" style="12" width="8.7265625"/>
+    <col customWidth="1" max="6" min="6" style="12" width="20.36328125"/>
+    <col customWidth="1" max="7" min="7" style="12" width="8.7265625"/>
+    <col customWidth="1" max="8" min="8" style="12" width="25.08984375"/>
+    <col customWidth="1" max="9" min="9" style="12" width="51.6328125"/>
+    <col customWidth="1" max="10" min="10" style="12" width="13.7265625"/>
+    <col customWidth="1" max="35" min="11" style="12" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="36" style="12" width="8.7265625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="42" r="1" s="10">
-      <c r="A1" s="17" t="inlineStr">
+    <row customHeight="1" ht="42" r="1" s="9">
+      <c r="A1" s="16" t="inlineStr">
         <is>
           <t>CaseId</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Path</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>Method</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Params</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="10" t="inlineStr">
         <is>
           <t>Sql</t>
         </is>
       </c>
-      <c r="H1" s="11" t="inlineStr">
+      <c r="H1" s="10" t="inlineStr">
         <is>
           <t>ExpectedResult</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>ActualResult</t>
         </is>
       </c>
-      <c r="J1" s="17" t="inlineStr">
+      <c r="J1" s="16" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="84" r="2" s="10">
-      <c r="A2" s="13" t="n">
+    <row customHeight="1" ht="84" r="2" s="9">
+      <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="13" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>正常登录</t>
         </is>
       </c>
-      <c r="D2" s="20" t="inlineStr">
+      <c r="D2" s="19" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E2" s="20" t="inlineStr">
+      <c r="E2" s="19" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="20" t="inlineStr">
+      <c r="F2" s="19" t="inlineStr">
         <is>
           <t>{
     "password": "a12345",
@@ -1940,42 +1941,42 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I2" s="13" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000","user":{"uid":98,"name":"qqqqqhhbbbhb","password":"af8f9dffa5d420fbc249141645b962ee","phone":"13242045218","status":"Normal","type":"Ordinary","createTime":"2019-08-27 20:07:46","updateTime":"2019-08-27 20:07:46","isDel":"NO"},"token":"sAuBbwQw6r75INjuSj1kECVjkmObDFxrW_Gcj8_tyOPh7v-Ir5iX0ByMbB9zgAOgoTkwUXv1mGoDkTCqSSFYZA"}</t>
-        </is>
-      </c>
-      <c r="J2" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="70" r="3" s="10">
-      <c r="A3" s="13" t="n">
+      <c r="I2" s="12" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","user":{"uid":98,"name":"with wind","password":"af8f9dffa5d420fbc249141645b962ee","phone":"13242045218","status":"Normal","type":"Ordinary","createTime":"2019-08-27 17:37:46","updateTime":"2019-08-27 17:37:46","isDel":"NO"},"token":"XyAzBq-t3h-Edsjro-YMzjloF91waQhjol3iLMQBN0npD6z7iPM2BLxzGPapzNbByKvZbLN0v5LS3crLUQPD1w"}</t>
+        </is>
+      </c>
+      <c r="J2" s="12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="70" r="3" s="9">
+      <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C3" s="13" t="inlineStr">
+      <c r="C3" s="12" t="inlineStr">
         <is>
           <t>空手机号</t>
         </is>
       </c>
-      <c r="D3" s="20" t="inlineStr">
+      <c r="D3" s="19" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E3" s="20" t="inlineStr">
+      <c r="E3" s="19" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="20" t="inlineStr">
+      <c r="F3" s="19" t="inlineStr">
         <is>
           <t>{
     "password": "a12345",
@@ -1983,47 +1984,47 @@
 }</t>
         </is>
       </c>
-      <c r="H3" s="13" t="inlineStr">
+      <c r="H3" s="12" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. is required","code":"1000"}</t>
         </is>
       </c>
-      <c r="I3" s="13" t="inlineStr">
+      <c r="I3" s="12" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. is required","code":"1000"}</t>
         </is>
       </c>
-      <c r="J3" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="84" r="4" s="10">
-      <c r="A4" s="13" t="n">
+      <c r="J3" s="12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="84" r="4" s="9">
+      <c r="A4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C4" s="13" t="inlineStr">
+      <c r="C4" s="12" t="inlineStr">
         <is>
           <t>错误手机号</t>
         </is>
       </c>
-      <c r="D4" s="20" t="inlineStr">
+      <c r="D4" s="19" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E4" s="20" t="inlineStr">
+      <c r="E4" s="19" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="20" t="inlineStr">
+      <c r="F4" s="19" t="inlineStr">
         <is>
           <t>{
     "password": "a12345",
@@ -2031,7 +2032,7 @@
 }</t>
         </is>
       </c>
-      <c r="H4" s="13" t="inlineStr">
+      <c r="H4" s="12" t="inlineStr">
         <is>
           <t>{
     "msg": "Mobile No. format does not match",
@@ -2039,42 +2040,42 @@
 }</t>
         </is>
       </c>
-      <c r="I4" s="13" t="inlineStr">
+      <c r="I4" s="12" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
         </is>
       </c>
-      <c r="J4" s="13" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="70" r="5" s="10">
-      <c r="A5" s="13" t="n">
+      <c r="J4" s="12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="70" r="5" s="9">
+      <c r="A5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="12" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>空密码</t>
         </is>
       </c>
-      <c r="D5" s="20" t="inlineStr">
+      <c r="D5" s="19" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E5" s="20" t="inlineStr">
+      <c r="E5" s="19" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="20" t="inlineStr">
+      <c r="F5" s="19" t="inlineStr">
         <is>
           <t>{
     "password": "",
@@ -2082,47 +2083,47 @@
 }</t>
         </is>
       </c>
-      <c r="H5" s="9" t="inlineStr">
+      <c r="H5" s="22" t="inlineStr">
         <is>
           <t>{"msg":"Password is required","code":"1000"}</t>
         </is>
       </c>
-      <c r="I5" s="9" t="inlineStr">
+      <c r="I5" s="22" t="inlineStr">
         <is>
           <t>{"msg":"Password is required","code":"1000"}</t>
         </is>
       </c>
-      <c r="J5" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="98" r="6" s="10">
-      <c r="A6" s="13" t="n">
+      <c r="J5" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="98" r="6" s="9">
+      <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="inlineStr">
+      <c r="B6" s="12" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C6" s="13" t="inlineStr">
+      <c r="C6" s="12" t="inlineStr">
         <is>
           <t>错误密码</t>
         </is>
       </c>
-      <c r="D6" s="20" t="inlineStr">
+      <c r="D6" s="19" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E6" s="20" t="inlineStr">
+      <c r="E6" s="19" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="20" t="inlineStr">
+      <c r="F6" s="19" t="inlineStr">
         <is>
           <t>{
     "password": "a1234sd541f5sd4f5",
@@ -2130,47 +2131,47 @@
 }</t>
         </is>
       </c>
-      <c r="H6" s="9" t="inlineStr">
+      <c r="H6" s="22" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. and password do not match","code":"1006"}</t>
         </is>
       </c>
-      <c r="I6" s="9" t="inlineStr">
+      <c r="I6" s="22" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. and password do not match","code":"1006"}</t>
         </is>
       </c>
-      <c r="J6" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="84" r="7" s="10">
-      <c r="A7" s="13" t="n">
+      <c r="J6" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="84" r="7" s="9">
+      <c r="A7" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C7" s="13" t="inlineStr">
+      <c r="C7" s="12" t="inlineStr">
         <is>
           <t>错误手机号/密码</t>
         </is>
       </c>
-      <c r="D7" s="20" t="inlineStr">
+      <c r="D7" s="19" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E7" s="20" t="inlineStr">
+      <c r="E7" s="19" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F7" s="20" t="inlineStr">
+      <c r="F7" s="19" t="inlineStr">
         <is>
           <t>{
     "password": "a123sd3f5445",
@@ -2178,47 +2179,47 @@
 }</t>
         </is>
       </c>
-      <c r="H7" s="9" t="inlineStr">
+      <c r="H7" s="22" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
         </is>
       </c>
-      <c r="I7" s="9" t="inlineStr">
+      <c r="I7" s="22" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
         </is>
       </c>
-      <c r="J7" s="9" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="8" s="10">
-      <c r="A8" s="13" t="n">
+      <c r="J7" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="8" s="9">
+      <c r="A8" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C8" s="13" t="inlineStr">
+      <c r="C8" s="12" t="inlineStr">
         <is>
           <t>空手机号/密码</t>
         </is>
       </c>
-      <c r="D8" s="20" t="inlineStr">
+      <c r="D8" s="19" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E8" s="20" t="inlineStr">
+      <c r="E8" s="19" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F8" s="20" t="inlineStr">
+      <c r="F8" s="19" t="inlineStr">
         <is>
           <t>{
     "password": "",
@@ -2226,17 +2227,17 @@
 }</t>
         </is>
       </c>
-      <c r="H8" s="9" t="inlineStr">
+      <c r="H8" s="22" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. is required","code":"1000"}</t>
         </is>
       </c>
-      <c r="I8" s="9" t="inlineStr">
+      <c r="I8" s="22" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. is required","code":"1000"}</t>
         </is>
       </c>
-      <c r="J8" s="9" t="inlineStr">
+      <c r="J8" s="22" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2254,14 +2255,890 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="9" width="14.453125"/>
+    <col customWidth="1" max="2" min="2" style="9" width="10.90625"/>
+    <col customWidth="1" max="3" min="3" style="9" width="22.26953125"/>
+    <col customWidth="1" max="4" min="4" style="9" width="51.26953125"/>
+    <col customWidth="1" max="5" min="5" style="9" width="11.81640625"/>
+    <col customWidth="1" max="6" min="6" style="9" width="39.54296875"/>
+    <col customWidth="1" max="8" min="8" style="9" width="29.1796875"/>
+    <col customWidth="1" max="9" min="9" style="9" width="28.1796875"/>
+    <col customWidth="1" max="10" min="10" style="9" width="19.1796875"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="42" r="1" s="17">
+      <c r="A1" s="16" t="inlineStr">
+        <is>
+          <t>CaseId</t>
+        </is>
+      </c>
+      <c r="B1" s="16" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="C1" s="16" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D1" s="16" t="inlineStr">
+        <is>
+          <t>Path</t>
+        </is>
+      </c>
+      <c r="E1" s="16" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="F1" s="16" t="inlineStr">
+        <is>
+          <t>Params</t>
+        </is>
+      </c>
+      <c r="G1" s="16" t="inlineStr">
+        <is>
+          <t>Sql</t>
+        </is>
+      </c>
+      <c r="H1" s="16" t="inlineStr">
+        <is>
+          <t>ExpectedResult</t>
+        </is>
+      </c>
+      <c r="I1" s="16" t="inlineStr">
+        <is>
+          <t>ActualResult</t>
+        </is>
+      </c>
+      <c r="J1" s="16" t="inlineStr">
+        <is>
+          <t>TestResult</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="2" s="9">
+      <c r="A2" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C2" s="22" t="inlineStr">
+        <is>
+          <t>公告第一页</t>
+        </is>
+      </c>
+      <c r="D2" s="22" t="inlineStr">
+        <is>
+          <t>notice/getNoticeList.do</t>
+        </is>
+      </c>
+      <c r="E2" s="22" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t>{
+    "pageSize": "10",
+    "pageNum": "1",
+"appCurrentTime":"1877535007"
+}</t>
+        </is>
+      </c>
+      <c r="H2" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I2" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","notice":{"count":12,"pages":2,"data":[{"nid":12,"title":"9还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:11:52","updateTime":"2019-09-25 14:57:58","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":11,"title":"8还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:11:47","updateTime":"2019-09-23 02:12:05","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":10,"title":"7还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:11:43","updateTime":"2019-09-23 02:12:07","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":9,"title":"6还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:48","updateTime":"2019-09-23 02:11:03","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":8,"title":"5还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:44","updateTime":"2019-09-23 02:11:01","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":7,"title":"4还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:39","updateTime":"2019-09-23 02:11:00","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":6,"title":"3还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:32","updateTime":"2019-09-23 02:10:59","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":5,"title":"2还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:29","updateTime":"2019-09-23 02:10:57","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":4,"title":"1还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:25","updateTime":"2019-09-23 02:10:55","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":3,"title":"还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:09:51","updateTime":"2019-09-23 02:10:05","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"}],"currentNum":1,"pageSize":10}}</t>
+        </is>
+      </c>
+      <c r="J2" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="3" s="9">
+      <c r="A3" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C3" s="22" t="inlineStr">
+        <is>
+          <t>公告最后一页</t>
+        </is>
+      </c>
+      <c r="D3" s="22" t="inlineStr">
+        <is>
+          <t>notice/getNoticeList.do</t>
+        </is>
+      </c>
+      <c r="E3" s="22" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F3" s="12" t="inlineStr">
+        <is>
+          <t>{
+    "pageSize": "10",
+    "pageNum": "99"
+}</t>
+        </is>
+      </c>
+      <c r="H3" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I3" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","notice":{"count":12,"pages":2,"data":[{"nid":2,"title":"还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-18 09:37:10","updateTime":"2019-09-18 07:09:38","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":1,"title":"公告标题呀","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-17 16:50:40","updateTime":"2019-09-18 07:09:51","isDel":"NO","content":"曾经年少爱追梦\n一心只想往前飞\n寻遍千山和万水\n一路走来不能回\n蓦然回首情已远\n身不由己在天边\n才明白爱恨情仇\n最痛最伤是后悔\n"}],"currentNum":2,"pageSize":10}}</t>
+        </is>
+      </c>
+      <c r="J3" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="4" s="9">
+      <c r="A4" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C4" s="22" t="inlineStr">
+        <is>
+          <t>公告一页查询全部</t>
+        </is>
+      </c>
+      <c r="D4" s="22" t="inlineStr">
+        <is>
+          <t>notice/getNoticeList.do</t>
+        </is>
+      </c>
+      <c r="E4" s="22" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>{
+    "pageSize": "999",
+    "pageNum": "1",
+"appCurrentTime":"1877535007"
+}</t>
+        </is>
+      </c>
+      <c r="H4" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I4" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","notice":{"count":12,"pages":1,"data":[{"nid":12,"title":"9还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:11:52","updateTime":"2019-09-25 14:57:58","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":11,"title":"8还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:11:47","updateTime":"2019-09-23 02:12:05","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":10,"title":"7还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:11:43","updateTime":"2019-09-23 02:12:07","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":9,"title":"6还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:48","updateTime":"2019-09-23 02:11:03","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":8,"title":"5还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:44","updateTime":"2019-09-23 02:11:01","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":7,"title":"4还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:39","updateTime":"2019-09-23 02:11:00","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":6,"title":"3还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:32","updateTime":"2019-09-23 02:10:59","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":5,"title":"2还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:29","updateTime":"2019-09-23 02:10:57","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":4,"title":"1还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:25","updateTime":"2019-09-23 02:10:55","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":3,"title":"还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:09:51","updateTime":"2019-09-23 02:10:05","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":2,"title":"还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-18 09:37:10","updateTime":"2019-09-18 07:09:38","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":1,"title":"公告标题呀","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-17 16:50:40","updateTime":"2019-09-18 07:09:51","isDel":"NO","content":"曾经年少爱追梦\n一心只想往前飞\n寻遍千山和万水\n一路走来不能回\n蓦然回首情已远\n身不由己在天边\n才明白爱恨情仇\n最痛最伤是后悔\n"}],"currentNum":1,"pageSize":999}}</t>
+        </is>
+      </c>
+      <c r="J4" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="5" s="9">
+      <c r="A5" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C5" s="22" t="inlineStr">
+        <is>
+          <t>中奖通知第一页</t>
+        </is>
+      </c>
+      <c r="D5" s="22" t="inlineStr">
+        <is>
+          <t>winningAnnouncement/getWinningAnnouncementList.do</t>
+        </is>
+      </c>
+      <c r="E5" s="22" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>{
+    "pageSize": "10",
+    "pageNum": "1"
+}</t>
+        </is>
+      </c>
+      <c r="H5" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I5" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","notice":{"count":100,"pages":10,"data":[{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001922","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001730","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":12,"uname":"robot No.12","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001659","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001541","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":6,"uname":"robot No.6","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001513","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":6,"uname":"robot No.6","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001643","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001534","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":7,"uname":"robot No.7","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001777","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":4,"uname":"robot No.4","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001540","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001521","lotteryTime":"2019-09-30 14:00:11","period":556}],"currentNum":1,"pageSize":10}}</t>
+        </is>
+      </c>
+      <c r="J5" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="6" s="9">
+      <c r="A6" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C6" s="22" t="inlineStr">
+        <is>
+          <t>中奖通知最后一页</t>
+        </is>
+      </c>
+      <c r="D6" s="22" t="inlineStr">
+        <is>
+          <t>winningAnnouncement/getWinningAnnouncementList.do</t>
+        </is>
+      </c>
+      <c r="E6" s="22" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>{
+    "pageSize": "10",
+    "pageNum": "99",
+"appCurrentTime":"1877535007"
+}</t>
+        </is>
+      </c>
+      <c r="H6" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I6" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","notice":{"count":100,"pages":10,"data":[{"uid":8,"uname":"robot No.8","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001660","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":111,"uname":"robot No.17","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001953","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":115,"uname":"robot No.21","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001578","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":10,"uname":"robot No.10","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001685","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":93,"uname":"robot No.14","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001887","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":12,"uname":"robot No.12","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001825","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001988","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":8,"uname":"robot No.8","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001816","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001881","lotteryTime":"2019-09-30 13:40:11","period":550},{"uid":114,"uname":"robot No.20","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001825","lotteryTime":"2019-09-30 13:40:11","period":550}],"currentNum":10,"pageSize":10}}</t>
+        </is>
+      </c>
+      <c r="J6" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="7" s="9">
+      <c r="A7" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C7" s="22" t="inlineStr">
+        <is>
+          <t>中奖通知一页查询全部</t>
+        </is>
+      </c>
+      <c r="D7" s="22" t="inlineStr">
+        <is>
+          <t>winningAnnouncement/getWinningAnnouncementList.do</t>
+        </is>
+      </c>
+      <c r="E7" s="22" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>{
+    "pageSize": "999",
+    "pageNum": "1",
+"appCurrentTime":"1877535007"
+}</t>
+        </is>
+      </c>
+      <c r="H7" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I7" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","notice":{"count":100,"pages":1,"data":[{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001922","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001730","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":12,"uname":"robot No.12","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001659","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001541","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":6,"uname":"robot No.6","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001513","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":6,"uname":"robot No.6","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001643","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001534","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":7,"uname":"robot No.7","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001777","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":4,"uname":"robot No.4","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001540","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001521","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":113,"uname":"robot No.19","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001547","lotteryTime":"2019-09-30 13:57:17","period":395},{"uid":95,"uname":"robot No.15","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001689","lotteryTime":"2019-09-30 13:57:17","period":395},{"uid":93,"uname":"robot No.14","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001650","lotteryTime":"2019-09-30 13:57:14","period":395},{"uid":115,"uname":"robot No.21","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001900","lotteryTime":"2019-09-30 13:57:14","period":395},{"uid":3,"uname":"robot No.3","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001751","lotteryTime":"2019-09-30 13:57:11","period":395},{"uid":44,"uname":"robot No.13","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001759","lotteryTime":"2019-09-30 13:57:08","period":395},{"uid":113,"uname":"robot No.19","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001634","lotteryTime":"2019-09-30 13:57:08","period":395},{"uid":1,"uname":"robot No.1","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001559","lotteryTime":"2019-09-30 13:57:08","period":395},{"uid":9,"uname":"robot No.9","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001774","lotteryTime":"2019-09-30 13:57:05","period":395},{"uid":5,"uname":"robot No.5","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001878","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001882","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":7,"uname":"robot No.7","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001503","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":4,"uname":"robot No.4","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001776","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":4,"uname":"robot No.4","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001536","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":6,"uname":"robot No.6","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001716","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":10,"uname":"robot No.10","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001851","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":4,"uname":"robot No.4","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001579","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":111,"uname":"robot No.17","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001706","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":6,"uname":"robot No.6","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001890","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":10,"uname":"robot No.10","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001811","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001756","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":113,"uname":"robot No.19","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001583","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":8,"uname":"robot No.8","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001802","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":113,"uname":"robot No.19","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001678","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":12,"uname":"robot No.12","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001705","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":44,"uname":"robot No.13","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001892","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":4,"uname":"robot No.4","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001823","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":10,"uname":"robot No.10","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001813","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":115,"uname":"robot No.21","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001606","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":8,"uname":"robot No.8","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001516","lotteryTime":"2019-09-30 13:52:47","period":394},{"uid":1,"uname":"robot No.1","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001752","lotteryTime":"2019-09-30 13:52:47","period":394},{"uid":1,"uname":"robot No.1","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001970","lotteryTime":"2019-09-30 13:52:45","period":261},{"uid":93,"uname":"robot No.14","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001811","lotteryTime":"2019-09-30 13:52:44","period":394},{"uid":93,"uname":"robot No.14","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001589","lotteryTime":"2019-09-30 13:52:44","period":394},{"uid":1,"uname":"robot No.1","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001845","lotteryTime":"2019-09-30 13:52:41","period":394},{"uid":9,"uname":"robot No.9","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001682","lotteryTime":"2019-09-30 13:52:38","period":394},{"uid":11,"uname":"robot No.11","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001901","lotteryTime":"2019-09-30 13:52:38","period":394},{"uid":113,"uname":"robot No.19","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001695","lotteryTime":"2019-09-30 13:52:38","period":394},{"uid":95,"uname":"robot No.15","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001563","lotteryTime":"2019-09-30 13:52:35","period":394},{"uid":44,"uname":"robot No.13","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001821","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":11,"uname":"robot No.11","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001535","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":114,"uname":"robot No.20","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001533","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":111,"uname":"robot No.17","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001569","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":111,"uname":"robot No.17","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001959","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":7,"uname":"robot No.7","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001791","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":112,"uname":"robot No.18","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001727","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":115,"uname":"robot No.21","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001641","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":4,"uname":"robot No.4","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001946","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":7,"uname":"robot No.7","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001933","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":113,"uname":"robot No.19","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001705","lotteryTime":"2019-09-30 13:48:17","period":393},{"uid":5,"uname":"robot No.5","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001628","lotteryTime":"2019-09-30 13:48:17","period":393},{"uid":95,"uname":"robot No.15","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001916","lotteryTime":"2019-09-30 13:48:14","period":393},{"uid":7,"uname":"robot No.7","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001504","lotteryTime":"2019-09-30 13:48:14","period":393},{"uid":115,"uname":"robot No.21","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001586","lotteryTime":"2019-09-30 13:48:11","period":393},{"uid":7,"uname":"robot No.7","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001656","lotteryTime":"2019-09-30 13:48:08","period":393},{"uid":95,"uname":"robot No.15","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001639","lotteryTime":"2019-09-30 13:48:08","period":393},{"uid":8,"uname":"robot No.8","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001619","lotteryTime":"2019-09-30 13:48:08","period":393},{"uid":2,"uname":"robot No.2","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001634","lotteryTime":"2019-09-30 13:48:05","period":393},{"uid":110,"uname":"robot No.16","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001785","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":95,"uname":"robot No.15","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001732","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":44,"uname":"robot No.13","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001554","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":8,"uname":"robot No.8","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001688","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":114,"uname":"robot No.20","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001900","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":9,"uname":"robot No.9","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001562","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":1,"uname":"robot No.1","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001543","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":5,"uname":"robot No.5","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001700","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":115,"uname":"robot No.21","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001899","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":110,"uname":"robot No.16","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001881","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":95,"uname":"robot No.15","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001510","lotteryTime":"2019-09-30 13:45:48","period":260},{"uid":10,"uname":"robot No.10","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001598","lotteryTime":"2019-09-30 13:43:47","period":392},{"uid":110,"uname":"robot No.16","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001536","lotteryTime":"2019-09-30 13:43:47","period":392},{"uid":10,"uname":"robot No.10","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001533","lotteryTime":"2019-09-30 13:43:44","period":392},{"uid":5,"uname":"robot No.5","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001916","lotteryTime":"2019-09-30 13:43:44","period":392},{"uid":4,"uname":"robot No.4","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001686","lotteryTime":"2019-09-30 13:43:41","period":392},{"uid":113,"uname":"robot No.19","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001862","lotteryTime":"2019-09-30 13:43:38","period":392},{"uid":12,"uname":"robot No.12","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001578","lotteryTime":"2019-09-30 13:43:38","period":392},{"uid":113,"uname":"robot No.19","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001642","lotteryTime":"2019-09-30 13:43:38","period":392},{"uid":8,"uname":"robot No.8","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001572","lotteryTime":"2019-09-30 13:43:35","period":392},{"uid":6,"uname":"robot No.6","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001976","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":7,"uname":"robot No.7","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001836","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":8,"uname":"robot No.8","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001660","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":111,"uname":"robot No.17","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001953","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":115,"uname":"robot No.21","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001578","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":10,"uname":"robot No.10","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001685","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":93,"uname":"robot No.14","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001887","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":12,"uname":"robot No.12","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001825","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001988","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":8,"uname":"robot No.8","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001816","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001881","lotteryTime":"2019-09-30 13:40:11","period":550},{"uid":114,"uname":"robot No.20","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001825","lotteryTime":"2019-09-30 13:40:11","period":550}],"currentNum":1,"pageSize":999}}</t>
+        </is>
+      </c>
+      <c r="J7" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="8" s="9">
+      <c r="A8" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C8" s="21" t="inlineStr">
+        <is>
+          <t>夺宝商品列表第一页</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="inlineStr">
+        <is>
+          <t>dubo/indexShops.do</t>
+        </is>
+      </c>
+      <c r="E8" s="22" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>{
+    "pageSize": "10",
+    "pageNum": "1",
+"appCurrentTime":"1877535007"
+}</t>
+        </is>
+      </c>
+      <c r="H8" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I8" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","OneDollarShops":{"count":41,"pages":5,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器人","lotteryTime":"2019-09-30 13:59:50","shopId":13,"portionNum":1000,"aid":175,"currenPortion":0,"lotteryType":"22","remainingTime":19},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.10","lotteryTime":"2019-09-30 13:59:42","shopId":12,"portionNum":1000,"aid":164,"currenPortion":1000,"lotteryType":"11","remainingTime":11},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.6","lotteryTime":"2019-09-30 14:01:35","shopId":12,"portionNum":1000,"aid":160,"currenPortion":750,"lotteryType":"11","remainingTime":124},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.2","lotteryTime":"2019-09-30 14:01:38","shopId":12,"portionNum":1000,"aid":156,"currenPortion":750,"lotteryType":"11","remainingTime":127},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.3","lotteryTime":"2019-09-30 14:01:38","shopId":12,"portionNum":1000,"aid":157,"currenPortion":750,"lotteryType":"11","remainingTime":127},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.7","lotteryTime":"2019-09-30 14:01:38","shopId":12,"portionNum":1000,"aid":161,"currenPortion":750,"lotteryType":"11","remainingTime":127},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.4","lotteryTime":"2019-09-30 14:01:41","shopId":12,"portionNum":1000,"aid":158,"currenPortion":725,"lotteryType":"11","remainingTime":130},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.9","lotteryTime":"2019-09-30 14:01:44","shopId":12,"portionNum":1000,"aid":163,"currenPortion":725,"lotteryType":"11","remainingTime":133},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.8","lotteryTime":"2019-09-30 14:01:44","shopId":12,"portionNum":1000,"aid":162,"currenPortion":725,"lotteryType":"11","remainingTime":133},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.5","lotteryTime":"2019-09-30 14:01:47","shopId":12,"portionNum":1000,"aid":159,"currenPortion":700,"lotteryType":"11","remainingTime":136}],"currentNum":1,"pageSize":10,"appCurrentTime":1877535007,"serverCurrentTime":1569832176525}}</t>
+        </is>
+      </c>
+      <c r="J8" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="9" s="9">
+      <c r="A9" s="22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C9" s="21" t="inlineStr">
+        <is>
+          <t>夺宝商品列表最后一页</t>
+        </is>
+      </c>
+      <c r="D9" s="22" t="inlineStr">
+        <is>
+          <t>dubo/indexShops.do</t>
+        </is>
+      </c>
+      <c r="E9" s="22" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>{
+    "pageSize": "10",
+    "pageNum": "99",
+"appCurrentTime":"1877535007"
+}</t>
+        </is>
+      </c>
+      <c r="H9" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I9" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","OneDollarShops":{"count":41,"pages":5,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.7","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":141,"currenPortion":175,"lotteryType":"22","remainingTime":240}],"currentNum":5,"pageSize":10,"appCurrentTime":1877535007,"serverCurrentTime":1569832177211}}</t>
+        </is>
+      </c>
+      <c r="J9" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="10" s="9">
+      <c r="A10" s="22" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C10" s="21" t="inlineStr">
+        <is>
+          <t>夺宝商品列表一页查全部</t>
+        </is>
+      </c>
+      <c r="D10" s="22" t="inlineStr">
+        <is>
+          <t>dubo/indexShops.do</t>
+        </is>
+      </c>
+      <c r="E10" s="22" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="inlineStr">
+        <is>
+          <t>{
+    "pageSize": "999",
+    "pageNum": "1",
+"appCurrentTime":"1877535007"
+}</t>
+        </is>
+      </c>
+      <c r="H10" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I10" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","OneDollarShops":{"count":41,"pages":1,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器人","lotteryTime":"2019-09-30 13:59:50","shopId":13,"portionNum":1000,"aid":175,"currenPortion":0,"lotteryType":"22","remainingTime":18},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.10","lotteryTime":"2019-09-30 13:59:42","shopId":12,"portionNum":1000,"aid":164,"currenPortion":1000,"lotteryType":"11","remainingTime":10},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.6","lotteryTime":"2019-09-30 14:01:35","shopId":12,"portionNum":1000,"aid":160,"currenPortion":750,"lotteryType":"11","remainingTime":123},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.2","lotteryTime":"2019-09-30 14:01:38","shopId":12,"portionNum":1000,"aid":156,"currenPortion":750,"lotteryType":"11","remainingTime":126},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.3","lotteryTime":"2019-09-30 14:01:38","shopId":12,"portionNum":1000,"aid":157,"currenPortion":750,"lotteryType":"11","remainingTime":126},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.7","lotteryTime":"2019-09-30 14:01:38","shopId":12,"portionNum":1000,"aid":161,"currenPortion":750,"lotteryType":"11","remainingTime":126},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.4","lotteryTime":"2019-09-30 14:01:41","shopId":12,"portionNum":1000,"aid":158,"currenPortion":725,"lotteryType":"11","remainingTime":129},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.9","lotteryTime":"2019-09-30 14:01:44","shopId":12,"portionNum":1000,"aid":163,"currenPortion":725,"lotteryType":"11","remainingTime":132},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.8","lotteryTime":"2019-09-30 14:01:44","shopId":12,"portionNum":1000,"aid":162,"currenPortion":725,"lotteryType":"11","remainingTime":132},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.5","lotteryTime":"2019-09-30 14:01:47","shopId":12,"portionNum":1000,"aid":159,"currenPortion":700,"lotteryType":"11","remainingTime":135},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.1","lotteryTime":"2019-09-30 14:01:47","shopId":12,"portionNum":1000,"aid":155,"currenPortion":700,"lotteryType":"11","remainingTime":135},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.9","lotteryTime":"2019-09-30 14:03:11","shopId":13,"portionNum":1000,"aid":153,"currenPortion":0,"lotteryType":"22","remainingTime":219},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.3","lotteryTime":"2019-09-30 14:03:11","shopId":13,"portionNum":1000,"aid":147,"currenPortion":0,"lotteryType":"22","remainingTime":219},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.2","lotteryTime":"2019-09-30 14:03:11","shopId":13,"portionNum":1000,"aid":146,"currenPortion":0,"lotteryType":"22","remainingTime":219},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.10","lotteryTime":"2019-09-30 14:03:14","shopId":13,"portionNum":1000,"aid":154,"currenPortion":0,"lotteryType":"22","remainingTime":222},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.6","lotteryTime":"2019-09-30 14:03:17","shopId":13,"portionNum":1000,"aid":150,"currenPortion":0,"lotteryType":"22","remainingTime":225},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.9","lotteryTime":"2019-09-30 14:03:17","shopId":12,"portionNum":1000,"aid":173,"currenPortion":0,"lotteryType":"11","remainingTime":225},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.4","lotteryTime":"2019-09-30 14:03:20","shopId":13,"portionNum":1000,"aid":148,"currenPortion":0,"lotteryType":"22","remainingTime":228},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.7","lotteryTime":"2019-09-30 14:03:23","shopId":12,"portionNum":1000,"aid":171,"currenPortion":0,"lotteryType":"11","remainingTime":231},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.5","lotteryTime":"2019-09-30 14:03:23","shopId":13,"portionNum":1000,"aid":149,"currenPortion":0,"lotteryType":"22","remainingTime":231},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.7","lotteryTime":"2019-09-30 14:03:23","shopId":13,"portionNum":1000,"aid":151,"currenPortion":0,"lotteryType":"22","remainingTime":231},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.10","lotteryTime":"2019-09-30 14:03:23","shopId":12,"portionNum":1000,"aid":174,"currenPortion":0,"lotteryType":"11","remainingTime":231},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.3","lotteryTime":"2019-09-30 14:03:23","shopId":12,"portionNum":1000,"aid":167,"currenPortion":0,"lotteryType":"11","remainingTime":231},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.5","lotteryTime":"2019-09-30 14:03:23","shopId":12,"portionNum":1000,"aid":169,"currenPortion":0,"lotteryType":"11","remainingTime":231},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.1","lotteryTime":"2019-09-30 14:03:26","shopId":12,"portionNum":1000,"aid":165,"currenPortion":0,"lotteryType":"11","remainingTime":234},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.1","lotteryTime":"2019-09-30 14:03:29","shopId":13,"portionNum":1000,"aid":145,"currenPortion":0,"lotteryType":"22","remainingTime":237},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.2","lotteryTime":"2019-09-30 14:03:29","shopId":12,"portionNum":1000,"aid":166,"currenPortion":0,"lotteryType":"11","remainingTime":237},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.8","lotteryTime":"2019-09-30 14:03:32","shopId":12,"portionNum":1000,"aid":172,"currenPortion":0,"lotteryType":"11","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.10","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":144,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.8","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":142,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.2","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":136,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.4","lotteryTime":"2019-09-30 14:03:32","shopId":12,"portionNum":1000,"aid":168,"currenPortion":0,"lotteryType":"11","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.9","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":143,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.3","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":137,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.1","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":135,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.8","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":152,"currenPortion":0,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.6","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":140,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.5","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":139,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.4","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":138,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.6","lotteryTime":"2019-09-30 14:03:32","shopId":12,"portionNum":1000,"aid":170,"currenPortion":0,"lotteryType":"11","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.7","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":141,"currenPortion":175,"lotteryType":"22","remainingTime":240}],"currentNum":1,"pageSize":999,"appCurrentTime":1877535007,"serverCurrentTime":1569832177896}}</t>
+        </is>
+      </c>
+      <c r="J10" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="11" s="9">
+      <c r="A11" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C11" s="21" t="inlineStr">
+        <is>
+          <t>所有商品列表第一页</t>
+        </is>
+      </c>
+      <c r="D11" s="22" t="inlineStr">
+        <is>
+          <t>shop/getShopList.do</t>
+        </is>
+      </c>
+      <c r="E11" s="22" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F11" s="12" t="inlineStr">
+        <is>
+          <t>{
+    "pageSize": "10",
+    "pageNum": "1",
+"appCurrentTime":"1877535007"
+}</t>
+        </is>
+      </c>
+      <c r="H11" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I11" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","shopMyPages":{"count":49,"pages":5,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 15:15:12","shopName":"筹满开&amp;无机器人","sort":2,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":17,"price":"10.0","lotteryTime":"2019-09-30 13:59:50","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"175"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:10:06","shopName":"定时开&amp;无机器No.10","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":230,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"174"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:10:03","shopName":"定时开&amp;无机器No.9","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":224,"price":"10.0","lotteryTime":"2019-09-30 14:03:17","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"173"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:59","shopName":"定时开&amp;无机器No.8","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":239,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"172"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:55","shopName":"定时开&amp;无机器No.7","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":230,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"171"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:51","shopName":"定时开&amp;无机器No.6","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":239,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"170"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:47","shopName":"定时开&amp;无机器No.5","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":230,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"169"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:42","shopName":"定时开&amp;无机器No.4","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":239,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"168"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:38","shopName":"定时开&amp;无机器No.3","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":230,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"167"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:34","shopName":"定时开&amp;无机器No.2","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":236,"price":"10.0","lotteryTime":"2019-09-30 14:03:29","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"166"}],"currentNum":1,"pageSize":10,"appCurrentTime":1877535007,"serverCurrentTime":1569832178621}}</t>
+        </is>
+      </c>
+      <c r="J11" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="12" s="9">
+      <c r="A12" s="22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C12" s="21" t="inlineStr">
+        <is>
+          <t>所有商品列表最后一页</t>
+        </is>
+      </c>
+      <c r="D12" s="22" t="inlineStr">
+        <is>
+          <t>shop/getShopList.do</t>
+        </is>
+      </c>
+      <c r="E12" s="22" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F12" s="12" t="inlineStr">
+        <is>
+          <t>{
+    "pageSize": "10",
+    "pageNum": "99",
+"appCurrentTime":"1877535007"
+}</t>
+        </is>
+      </c>
+      <c r="H12" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I12" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","shopMyPages":{"count":49,"pages":5,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:09","shopName":"筹满开&amp;机器人No.1","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":238,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"135"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:55:10","price":"100.00","shopName":"iPhone11 No.10","shopId":21,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:56","price":"100.00","shopName":"iPhone11 No.9","shopId":20,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:52","price":"100.00","shopName":"iPhone11 No.8","shopId":19,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:48","price":"100.00","shopName":"iPhone11 No.7","shopId":18,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:35","price":"100.00","shopName":"iPhone11 No.6","shopId":17,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:31","price":"100.00","shopName":"iPhone11 No.5","shopId":16,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:27","price":"100.00","shopName":"iPhone11 No.4","shopId":15,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:23","price":"100.00","shopName":"iPhone11 No.3","shopId":14,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0}],"currentNum":5,"pageSize":10,"appCurrentTime":1877535007,"serverCurrentTime":1569832179371}}</t>
+        </is>
+      </c>
+      <c r="J12" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="13" s="9">
+      <c r="A13" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C13" s="21" t="inlineStr">
+        <is>
+          <t>所有商品列表一页查全部</t>
+        </is>
+      </c>
+      <c r="D13" s="22" t="inlineStr">
+        <is>
+          <t>shop/getShopList.do</t>
+        </is>
+      </c>
+      <c r="E13" s="22" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F13" s="12" t="inlineStr">
+        <is>
+          <t>{
+    "pageSize": "999",
+    "pageNum": "1",
+"appCurrentTime":"1877535007"
+}</t>
+        </is>
+      </c>
+      <c r="H13" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I13" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","shopMyPages":{"count":49,"pages":1,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 15:15:12","shopName":"筹满开&amp;无机器人","sort":2,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":15,"price":"10.0","lotteryTime":"2019-09-30 13:59:50","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"175"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:10:06","shopName":"定时开&amp;无机器No.10","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":228,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"174"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:10:03","shopName":"定时开&amp;无机器No.9","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":222,"price":"10.0","lotteryTime":"2019-09-30 14:03:17","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"173"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:59","shopName":"定时开&amp;无机器No.8","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"172"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:55","shopName":"定时开&amp;无机器No.7","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":228,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"171"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:51","shopName":"定时开&amp;无机器No.6","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"170"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:47","shopName":"定时开&amp;无机器No.5","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":228,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"169"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:42","shopName":"定时开&amp;无机器No.4","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"168"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:38","shopName":"定时开&amp;无机器No.3","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":228,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"167"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:34","shopName":"定时开&amp;无机器No.2","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":234,"price":"10.0","lotteryTime":"2019-09-30 14:03:29","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"166"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:26","shopName":"定时开&amp;无机器No.1","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":231,"price":"10.0","lotteryTime":"2019-09-30 14:03:26","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"165"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:46","shopName":"定时开&amp;机器人No.10","sort":1,"type":0,"currenPortion":1000,"lotteryType":"11","remainingTime":7,"price":"10.0","lotteryTime":"2019-09-30 13:59:42","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"164"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:41","shopName":"定时开&amp;机器人No.9","sort":1,"type":0,"currenPortion":750,"lotteryType":"11","remainingTime":129,"price":"10.0","lotteryTime":"2019-09-30 14:01:44","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"163"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:38","shopName":"定时开&amp;机器人No.8","sort":1,"type":0,"currenPortion":750,"lotteryType":"11","remainingTime":129,"price":"10.0","lotteryTime":"2019-09-30 14:01:44","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"162"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:34","shopName":"定时开&amp;机器人No.7","sort":1,"type":0,"currenPortion":775,"lotteryType":"11","remainingTime":123,"price":"10.0","lotteryTime":"2019-09-30 14:01:38","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"161"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:31","shopName":"定时开&amp;机器人No.6","sort":1,"type":0,"currenPortion":775,"lotteryType":"11","remainingTime":120,"price":"10.0","lotteryTime":"2019-09-30 14:01:35","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"160"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:27","shopName":"定时开&amp;机器人No.5","sort":1,"type":0,"currenPortion":725,"lotteryType":"11","remainingTime":132,"price":"10.0","lotteryTime":"2019-09-30 14:01:47","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"159"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:23","shopName":"定时开&amp;机器人No.4","sort":1,"type":0,"currenPortion":750,"lotteryType":"11","remainingTime":126,"price":"10.0","lotteryTime":"2019-09-30 14:01:41","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"158"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:12","shopName":"定时开&amp;机器人No.3","sort":1,"type":0,"currenPortion":775,"lotteryType":"11","remainingTime":123,"price":"10.0","lotteryTime":"2019-09-30 14:01:38","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"157"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:06","shopName":"定时开&amp;机器人No.2","sort":1,"type":0,"currenPortion":775,"lotteryType":"11","remainingTime":123,"price":"10.0","lotteryTime":"2019-09-30 14:01:38","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"156"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:54:57","shopName":"定时开&amp;机器人No.1","sort":1,"type":0,"currenPortion":725,"lotteryType":"11","remainingTime":132,"price":"10.0","lotteryTime":"2019-09-30 14:01:47","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"155"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:52","shopName":"筹满开&amp;无机器No.10","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":219,"price":"10.0","lotteryTime":"2019-09-30 14:03:14","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"154"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:45","shopName":"筹满开&amp;无机器No.9","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":216,"price":"10.0","lotteryTime":"2019-09-30 14:03:11","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"153"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:39","shopName":"筹满开&amp;无机器No.8","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"152"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:35","shopName":"筹满开&amp;无机器No.7","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":228,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"151"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:31","shopName":"筹满开&amp;无机器No.6","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":222,"price":"10.0","lotteryTime":"2019-09-30 14:03:17","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"150"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:27","shopName":"筹满开&amp;无机器No.5","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":228,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"149"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:23","shopName":"筹满开&amp;无机器No.4","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":225,"price":"10.0","lotteryTime":"2019-09-30 14:03:20","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"148"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:20","shopName":"筹满开&amp;无机器No.3","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":216,"price":"10.0","lotteryTime":"2019-09-30 14:03:11","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"147"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:16","shopName":"筹满开&amp;无机器No.2","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":216,"price":"10.0","lotteryTime":"2019-09-30 14:03:11","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"146"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:07","shopName":"筹满开&amp;无机器No.1","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":234,"price":"10.0","lotteryTime":"2019-09-30 14:03:29","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"145"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:05:09","shopName":"筹满开&amp;机器人No.10","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"144"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:05:05","shopName":"筹满开&amp;机器人No.9","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"143"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:05:01","shopName":"筹满开&amp;机器人No.8","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"142"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:57","shopName":"筹满开&amp;机器人No.7","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"141"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:53","shopName":"筹满开&amp;机器人No.6","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"140"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:49","shopName":"筹满开&amp;机器人No.5","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"139"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:45","shopName":"筹满开&amp;机器人No.4","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"138"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:41","shopName":"筹满开&amp;机器人No.3","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"137"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:36","shopName":"筹满开&amp;机器人No.2","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"136"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:09","shopName":"筹满开&amp;机器人No.1","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"135"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:55:10","price":"100.00","shopName":"iPhone11 No.10","shopId":21,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:56","price":"100.00","shopName":"iPhone11 No.9","shopId":20,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:52","price":"100.00","shopName":"iPhone11 No.8","shopId":19,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:48","price":"100.00","shopName":"iPhone11 No.7","shopId":18,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:35","price":"100.00","shopName":"iPhone11 No.6","shopId":17,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:31","price":"100.00","shopName":"iPhone11 No.5","shopId":16,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:27","price":"100.00","shopName":"iPhone11 No.4","shopId":15,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:23","price":"100.00","shopName":"iPhone11 No.3","shopId":14,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0}],"currentNum":1,"pageSize":999,"appCurrentTime":1877535007,"serverCurrentTime":1569832180090}}</t>
+        </is>
+      </c>
+      <c r="J13" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="9" width="14"/>
+    <col customWidth="1" max="2" min="2" style="9" width="13.1796875"/>
+    <col customWidth="1" max="3" min="3" style="9" width="16.26953125"/>
+    <col customWidth="1" max="4" min="4" style="9" width="30.6328125"/>
+    <col customWidth="1" max="5" min="5" style="9" width="13.7265625"/>
+    <col customWidth="1" max="6" min="6" style="9" width="27"/>
+    <col customWidth="1" max="8" min="8" style="9" width="22.81640625"/>
+    <col customWidth="1" max="9" min="9" style="9" width="31.54296875"/>
+    <col customWidth="1" max="10" min="10" style="9" width="27.6328125"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="42" r="1" s="17">
+      <c r="A1" s="16" t="inlineStr">
+        <is>
+          <t>CaseId</t>
+        </is>
+      </c>
+      <c r="B1" s="16" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="C1" s="16" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D1" s="16" t="inlineStr">
+        <is>
+          <t>Path</t>
+        </is>
+      </c>
+      <c r="E1" s="16" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="F1" s="16" t="inlineStr">
+        <is>
+          <t>Params</t>
+        </is>
+      </c>
+      <c r="G1" s="16" t="inlineStr">
+        <is>
+          <t>Sql</t>
+        </is>
+      </c>
+      <c r="H1" s="16" t="inlineStr">
+        <is>
+          <t>ExpectedResult</t>
+        </is>
+      </c>
+      <c r="I1" s="16" t="inlineStr">
+        <is>
+          <t>ActualResult</t>
+        </is>
+      </c>
+      <c r="J1" s="16" t="inlineStr">
+        <is>
+          <t>TestResult</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="84" r="2" s="12">
+      <c r="A2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>正常登录</t>
+        </is>
+      </c>
+      <c r="D2" s="19" t="inlineStr">
+        <is>
+          <t>loginByPwd.do</t>
+        </is>
+      </c>
+      <c r="E2" s="19" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="19" t="inlineStr">
+        <is>
+          <t>{
+    "password": "a12345",
+    "phone": "13242045218"
+}</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I2" s="12" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","user":{"uid":98,"name":"with wind","password":"af8f9dffa5d420fbc249141645b962ee","phone":"13242045218","status":"Normal","type":"Ordinary","createTime":"2019-08-27 17:37:46","updateTime":"2019-08-27 17:37:46","isDel":"NO"},"token":"P8V-aUJ1QyicXhvZxuznD4lmfazvUN_uj0iNj9b4jgIp92rGgD3AjF0dB8DQSWj1HhU6ZX1uVJYb6poBfzVtvQ"}</t>
+        </is>
+      </c>
+      <c r="J2" s="12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="68" r="3" s="9">
+      <c r="A3" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="inlineStr">
+        <is>
+          <t>首页</t>
+        </is>
+      </c>
+      <c r="C3" s="22" t="inlineStr">
+        <is>
+          <t>首页查询</t>
+        </is>
+      </c>
+      <c r="D3" s="22" t="inlineStr">
+        <is>
+          <t>index/shop.do</t>
+        </is>
+      </c>
+      <c r="E3" s="22" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F3" s="15" t="inlineStr">
+        <is>
+          <t>{"appCurrentTime":"1877535007"
+}</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I3" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","appCurrentTime":1877535007,"code":"0000","shops":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 15:15:12","shopName":"筹满开&amp;无机器人","sort":2,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":14,"price":"10.0","lotteryTime":"2019-09-30 13:59:50","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"175"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:42","shopName":"定时开&amp;无机器No.4","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":236,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"168"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:39","shopName":"筹满开&amp;无机器No.8","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":236,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"152"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:05:09","shopName":"筹满开&amp;机器人No.10","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":236,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"144"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:41","shopName":"筹满开&amp;机器人No.3","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":236,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"137"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:36","shopName":"筹满开&amp;机器人No.2","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":236,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"136"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:55:10","price":"100.00","shopName":"iPhone11 No.10","shopId":21,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:56","price":"100.00","shopName":"iPhone11 No.9","shopId":20,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:52","price":"100.00","shopName":"iPhone11 No.8","shopId":19,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:48","price":"100.00","shopName":"iPhone11 No.7","shopId":18,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0}],"serverCurrentTime":1569832181474}</t>
+        </is>
+      </c>
+      <c r="J3" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="70" r="4" s="9">
+      <c r="A4" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="inlineStr">
+        <is>
+          <t>第一个商品详情</t>
+        </is>
+      </c>
+      <c r="C4" s="22" t="inlineStr">
+        <is>
+          <t>一元商品详情</t>
+        </is>
+      </c>
+      <c r="D4" s="22" t="inlineStr">
+        <is>
+          <t>shop/getDoboShopDetail.do</t>
+        </is>
+      </c>
+      <c r="E4" s="22" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="F4" s="15" t="inlineStr">
+        <is>
+          <t>{
+    "shopId": "111",
+    "aid": "6",
+"appCurrentTime":"1877535007"
+}</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I4" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","doboShop":{"lotteryTime":"2019-09-30 13:59:50","periodList":[{"pid":162782,"period":302,"shopId":175,"current":"YES"},{"pid":162741,"period":301,"shopId":175,"current":"NO"},{"pid":162701,"period":300,"shopId":175,"current":"NO"},{"pid":162650,"period":299,"shopId":175,"current":"NO"},{"pid":162609,"period":298,"shopId":175,"current":"NO"},{"pid":162569,"period":297,"shopId":175,"current":"NO"},{"pid":162518,"period":296,"shopId":175,"current":"NO"},{"pid":162477,"period":295,"shopId":175,"current":"NO"},{"pid":162437,"period":294,"shopId":175,"current":"NO"},{"pid":162386,"period":293,"shopId":175,"current":"NO"},{"pid":162345,"period":292,"shopId":175,"current":"NO"},{"pid":162305,"period":291,"shopId":175,"current":"NO"},{"pid":162254,"period":290,"shopId":175,"current":"NO"},{"pid":162213,"period":289,"shopId":175,"current":"NO"},{"pid":162164,"period":288,"shopId":175,"current":"NO"},{"pid":162122,"period":287,"shopId":175,"current":"NO"},{"pid":162082,"period":286,"shopId":175,"current":"NO"},{"pid":162031,"period":285,"shopId":175,"current":"NO"},{"pid":161990,"period":284,"shopId":175,"current":"NO"},{"pid":161950,"period":283,"shopId":175,"current":"NO"},{"pid":161899,"period":282,"shopId":175,"current":"NO"},{"pid":161858,"period":281,"shopId":175,"current":"NO"},{"pid":161818,"period":280,"shopId":175,"current":"NO"},{"pid":161767,"period":279,"shopId":175,"current":"NO"},{"pid":161726,"period":278,"shopId":175,"current":"NO"},{"pid":161686,"period":277,"shopId":175,"current":"NO"},{"pid":161635,"period":276,"shopId":175,"current":"NO"},{"pid":161594,"period":275,"shopId":175,"current":"NO"},{"pid":161554,"period":274,"shopId":175,"current":"NO"},{"pid":161503,"period":273,"shopId":175,"current":"NO"},{"pid":161462,"period":272,"shopId":175,"current":"NO"},{"pid":161422,"period":271,"shopId":175,"current":"NO"},{"pid":161371,"period":270,"shopId":175,"current":"NO"},{"pid":161331,"period":269,"shopId":175,"current":"NO"},{"pid":161280,"period":268,"shopId":175,"current":"NO"},{"pid":161239,"period":267,"shopId":175,"current":"NO"},{"pid":161199,"period":266,"shopId":175,"current":"NO"},{"pid":161148,"period":265,"shopId":175,"current":"NO"},{"pid":161107,"period":264,"shopId":175,"current":"NO"},{"pid":161067,"period":263,"shopId":175,"current":"NO"},{"pid":161016,"period":262,"shopId":175,"current":"NO"},{"pid":160975,"period":261,"shopId":175,"current":"NO"},{"pid":160935,"period":260,"shopId":175,"current":"NO"},{"pid":160884,"period":259,"shopId":175,"current":"NO"},{"pid":160843,"period":258,"shopId":175,"current":"NO"},{"pid":160793,"period":257,"shopId":175,"current":"NO"},{"pid":160752,"period":256,"shopId":175,"current":"NO"},{"pid":160711,"period":255,"shopId":175,"current":"NO"},{"pid":160661,"period":254,"shopId":175,"current":"NO"},{"pid":160620,"period":253,"shopId":175,"current":"NO"},{"pid":160579,"period":252,"shopId":175,"current":"NO"},{"pid":160529,"period":251,"shopId":175,"current":"NO"},{"pid":160488,"period":250,"shopId":175,"current":"NO"},{"pid":160447,"period":249,"shopId":175,"current":"NO"},{"pid":160397,"period":248,"shopId":175,"current":"NO"},{"pid":160356,"period":247,"shopId":175,"current":"NO"},{"pid":160305,"period":246,"shopId":175,"current":"NO"},{"pid":160265,"period":245,"shopId":175,"current":"NO"},{"pid":160224,"period":244,"shopId":175,"current":"NO"},{"pid":160173,"period":243,"shopId":175,"current":"NO"},{"pid":160133,"period":242,"shopId":175,"current":"NO"},{"pid":160092,"period":241,"shopId":175,"current":"NO"},{"pid":160042,"period":240,"shopId":175,"current":"NO"},{"pid":160001,"period":239,"shopId":175,"current":"NO"},{"pid":159960,"period":238,"shopId":175,"current":"NO"},{"pid":159910,"period":237,"shopId":175,"current":"NO"},{"pid":159869,"period":236,"shopId":175,"current":"NO"},{"pid":159818,"period":235,"shopId":175,"current":"NO"},{"pid":159778,"period":234,"shopId":175,"current":"NO"},{"pid":159737,"period":233,"shopId":175,"current":"NO"},{"pid":159686,"period":232,"shopId":175,"current":"NO"},{"pid":159646,"period":231,"shopId":175,"current":"NO"},{"pid":159605,"period":230,"shopId":175,"current":"NO"},{"pid":159554,"period":229,"shopId":175,"current":"NO"},{"pid":159514,"period":228,"shopId":175,"current":"NO"},{"pid":159473,"period":227,"shopId":175,"current":"NO"},{"pid":159422,"period":226,"shopId":175,"current":"NO"},{"pid":159382,"period":225,"shopId":175,"current":"NO"},{"pid":159331,"period":224,"shopId":175,"current":"NO"},{"pid":159290,"period":223,"shopId":175,"current":"NO"},{"pid":159250,"period":222,"shopId":175,"current":"NO"},{"pid":159199,"period":221,"shopId":175,"current":"NO"},{"pid":159158,"period":220,"shopId":175,"current":"NO"},{"pid":159118,"period":219,"shopId":175,"current":"NO"},{"pid":159067,"period":218,"shopId":175,"current":"NO"},{"pid":159026,"period":217,"shopId":175,"current":"NO"},{"pid":158986,"period":216,"shopId":175,"current":"NO"},{"pid":158935,"period":215,"shopId":175,"current":"NO"},{"pid":158895,"period":214,"shopId":175,"current":"NO"},{"pid":158844,"period":213,"shopId":175,"current":"NO"},{"pid":158803,"period":212,"shopId":175,"current":"NO"},{"pid":158763,"period":211,"shopId":175,"current":"NO"},{"pid":158712,"period":210,"shopId":175,"current":"NO"},{"pid":158671,"period":209,"shopId":175,"current":"NO"},{"pid":158621,"period":208,"shopId":175,"current":"NO"},{"pid":158580,"period":207,"shopId":175,"current":"NO"},{"pid":158539,"period":206,"shopId":175,"current":"NO"},{"pid":158489,"period":205,"shopId":175,"current":"NO"},{"pid":158448,"period":204,"shopId":175,"current":"NO"},{"pid":158407,"period":203,"shopId":175,"current":"NO"}],"isActive":"YES","sid":175,"remainingTime":13}}</t>
+        </is>
+      </c>
+      <c r="J4" s="22" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/test_cases/test_api.xlsx
+++ b/test_cases/test_api.xlsx
@@ -815,8 +815,8 @@
     <col customWidth="1" max="8" min="8" style="14" width="22.08984375"/>
     <col customWidth="1" max="9" min="9" style="14" width="56.81640625"/>
     <col customWidth="1" max="10" min="10" style="14" width="19"/>
-    <col customWidth="1" max="80" min="11" style="12" width="8.7265625"/>
-    <col customWidth="1" max="16384" min="81" style="12" width="8.7265625"/>
+    <col customWidth="1" max="81" min="11" style="12" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="82" style="12" width="8.7265625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="20.4" r="1" s="9">
@@ -1027,8 +1027,8 @@
     <col customWidth="1" max="8" min="8" style="22" width="28.453125"/>
     <col customWidth="1" max="9" min="9" style="22" width="32"/>
     <col customWidth="1" max="10" min="10" style="17" width="20.54296875"/>
-    <col customWidth="1" max="72" min="11" style="22" width="8.7265625"/>
-    <col customWidth="1" max="16384" min="73" style="22" width="8.7265625"/>
+    <col customWidth="1" max="73" min="11" style="22" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="74" style="22" width="8.7265625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="21" r="1" s="9">
@@ -1848,8 +1848,8 @@
     <col customWidth="1" max="8" min="8" style="12" width="25.08984375"/>
     <col customWidth="1" max="9" min="9" style="12" width="51.6328125"/>
     <col customWidth="1" max="10" min="10" style="12" width="13.7265625"/>
-    <col customWidth="1" max="35" min="11" style="12" width="8.7265625"/>
-    <col customWidth="1" max="16384" min="36" style="12" width="8.7265625"/>
+    <col customWidth="1" max="36" min="11" style="12" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="37" style="12" width="8.7265625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="42" r="1" s="9">
@@ -2924,10 +2924,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="I2" s="12" t="inlineStr">
         <is>
-          <t>{"msg":"成功","code":"0000","user":{"uid":98,"name":"with wind","password":"af8f9dffa5d420fbc249141645b962ee","phone":"13242045218","status":"Normal","type":"Ordinary","createTime":"2019-08-27 17:37:46","updateTime":"2019-08-27 17:37:46","isDel":"NO"},"token":"P8V-aUJ1QyicXhvZxuznD4lmfazvUN_uj0iNj9b4jgIp92rGgD3AjF0dB8DQSWj1HhU6ZX1uVJYb6poBfzVtvQ"}</t>
+          <t>{"msg":"成功","code":"0000","user":{"uid":98,"name":"with wind","password":"af8f9dffa5d420fbc249141645b962ee","phone":"13242045218","status":"Normal","type":"Ordinary","createTime":"2019-08-27 17:37:46","updateTime":"2019-08-27 17:37:46","isDel":"NO"},"token":"H5Gcj5sCCi7Rwt8WJhz1H9pW_Gr1lP1ZXqpgQPWyOyS_p32z3Vnf-TIOLDuszHJsIEDtaHxHxmXlFzzdr2jE-g"}</t>
         </is>
       </c>
       <c r="J2" s="12" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="I3" s="22" t="inlineStr">
         <is>
-          <t>{"msg":"成功","appCurrentTime":1877535007,"code":"0000","shops":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 15:15:12","shopName":"筹满开&amp;无机器人","sort":2,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":14,"price":"10.0","lotteryTime":"2019-09-30 13:59:50","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"175"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:42","shopName":"定时开&amp;无机器No.4","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":236,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"168"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:39","shopName":"筹满开&amp;无机器No.8","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":236,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"152"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:05:09","shopName":"筹满开&amp;机器人No.10","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":236,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"144"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:41","shopName":"筹满开&amp;机器人No.3","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":236,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"137"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:36","shopName":"筹满开&amp;机器人No.2","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":236,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"136"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:55:10","price":"100.00","shopName":"iPhone11 No.10","shopId":21,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:56","price":"100.00","shopName":"iPhone11 No.9","shopId":20,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:52","price":"100.00","shopName":"iPhone11 No.8","shopId":19,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:48","price":"100.00","shopName":"iPhone11 No.7","shopId":18,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0}],"serverCurrentTime":1569832181474}</t>
+          <t>{"msg":"成功","appCurrentTime":1877535007,"code":"0000","shops":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 15:15:12","shopName":"筹满开&amp;无机器人","sort":2,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":105,"price":"10.0","lotteryTime":"2019-10-09 07:58:10","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"175"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:20","shopName":"筹满开&amp;无机器No.3","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":264,"price":"10.0","lotteryTime":"2019-10-09 08:00:49","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"147"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:16","shopName":"筹满开&amp;无机器No.2","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":255,"price":"10.0","lotteryTime":"2019-10-09 08:00:40","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"146"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:57","shopName":"筹满开&amp;机器人No.7","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":243,"price":"10.0","lotteryTime":"2019-10-09 08:00:28","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"141"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:49","shopName":"筹满开&amp;机器人No.5","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":243,"price":"10.0","lotteryTime":"2019-10-09 08:00:28","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"139"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:36","shopName":"筹满开&amp;机器人No.2","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":243,"price":"10.0","lotteryTime":"2019-10-09 08:00:28","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"136"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20191009/83476e83-f9a8-4c1b-85fd-7d0c54cf646e.jpg","create_time":"2019-10-09 07:09:40","price":"168.78","shopName":"Braun BT3022 Rechargeable Beard Trimmer","shopId":24,"shopType":"OrdinaryShop","sort":2,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:55:10","price":"100.00","shopName":"iPhone11 No.10","shopId":21,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:56","price":"100.00","shopName":"iPhone11 No.9","shopId":20,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:52","price":"100.00","shopName":"iPhone11 No.8","shopId":19,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0}],"serverCurrentTime":1570587990717}</t>
         </is>
       </c>
       <c r="J3" s="22" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="B4" s="18" t="inlineStr">
         <is>
-          <t>第一个商品详情</t>
+          <t>商品详情</t>
         </is>
       </c>
       <c r="C4" s="22" t="inlineStr">
@@ -3129,12 +3129,63 @@
       </c>
       <c r="I4" s="22" t="inlineStr">
         <is>
-          <t>{"msg":"成功","code":"0000","doboShop":{"lotteryTime":"2019-09-30 13:59:50","periodList":[{"pid":162782,"period":302,"shopId":175,"current":"YES"},{"pid":162741,"period":301,"shopId":175,"current":"NO"},{"pid":162701,"period":300,"shopId":175,"current":"NO"},{"pid":162650,"period":299,"shopId":175,"current":"NO"},{"pid":162609,"period":298,"shopId":175,"current":"NO"},{"pid":162569,"period":297,"shopId":175,"current":"NO"},{"pid":162518,"period":296,"shopId":175,"current":"NO"},{"pid":162477,"period":295,"shopId":175,"current":"NO"},{"pid":162437,"period":294,"shopId":175,"current":"NO"},{"pid":162386,"period":293,"shopId":175,"current":"NO"},{"pid":162345,"period":292,"shopId":175,"current":"NO"},{"pid":162305,"period":291,"shopId":175,"current":"NO"},{"pid":162254,"period":290,"shopId":175,"current":"NO"},{"pid":162213,"period":289,"shopId":175,"current":"NO"},{"pid":162164,"period":288,"shopId":175,"current":"NO"},{"pid":162122,"period":287,"shopId":175,"current":"NO"},{"pid":162082,"period":286,"shopId":175,"current":"NO"},{"pid":162031,"period":285,"shopId":175,"current":"NO"},{"pid":161990,"period":284,"shopId":175,"current":"NO"},{"pid":161950,"period":283,"shopId":175,"current":"NO"},{"pid":161899,"period":282,"shopId":175,"current":"NO"},{"pid":161858,"period":281,"shopId":175,"current":"NO"},{"pid":161818,"period":280,"shopId":175,"current":"NO"},{"pid":161767,"period":279,"shopId":175,"current":"NO"},{"pid":161726,"period":278,"shopId":175,"current":"NO"},{"pid":161686,"period":277,"shopId":175,"current":"NO"},{"pid":161635,"period":276,"shopId":175,"current":"NO"},{"pid":161594,"period":275,"shopId":175,"current":"NO"},{"pid":161554,"period":274,"shopId":175,"current":"NO"},{"pid":161503,"period":273,"shopId":175,"current":"NO"},{"pid":161462,"period":272,"shopId":175,"current":"NO"},{"pid":161422,"period":271,"shopId":175,"current":"NO"},{"pid":161371,"period":270,"shopId":175,"current":"NO"},{"pid":161331,"period":269,"shopId":175,"current":"NO"},{"pid":161280,"period":268,"shopId":175,"current":"NO"},{"pid":161239,"period":267,"shopId":175,"current":"NO"},{"pid":161199,"period":266,"shopId":175,"current":"NO"},{"pid":161148,"period":265,"shopId":175,"current":"NO"},{"pid":161107,"period":264,"shopId":175,"current":"NO"},{"pid":161067,"period":263,"shopId":175,"current":"NO"},{"pid":161016,"period":262,"shopId":175,"current":"NO"},{"pid":160975,"period":261,"shopId":175,"current":"NO"},{"pid":160935,"period":260,"shopId":175,"current":"NO"},{"pid":160884,"period":259,"shopId":175,"current":"NO"},{"pid":160843,"period":258,"shopId":175,"current":"NO"},{"pid":160793,"period":257,"shopId":175,"current":"NO"},{"pid":160752,"period":256,"shopId":175,"current":"NO"},{"pid":160711,"period":255,"shopId":175,"current":"NO"},{"pid":160661,"period":254,"shopId":175,"current":"NO"},{"pid":160620,"period":253,"shopId":175,"current":"NO"},{"pid":160579,"period":252,"shopId":175,"current":"NO"},{"pid":160529,"period":251,"shopId":175,"current":"NO"},{"pid":160488,"period":250,"shopId":175,"current":"NO"},{"pid":160447,"period":249,"shopId":175,"current":"NO"},{"pid":160397,"period":248,"shopId":175,"current":"NO"},{"pid":160356,"period":247,"shopId":175,"current":"NO"},{"pid":160305,"period":246,"shopId":175,"current":"NO"},{"pid":160265,"period":245,"shopId":175,"current":"NO"},{"pid":160224,"period":244,"shopId":175,"current":"NO"},{"pid":160173,"period":243,"shopId":175,"current":"NO"},{"pid":160133,"period":242,"shopId":175,"current":"NO"},{"pid":160092,"period":241,"shopId":175,"current":"NO"},{"pid":160042,"period":240,"shopId":175,"current":"NO"},{"pid":160001,"period":239,"shopId":175,"current":"NO"},{"pid":159960,"period":238,"shopId":175,"current":"NO"},{"pid":159910,"period":237,"shopId":175,"current":"NO"},{"pid":159869,"period":236,"shopId":175,"current":"NO"},{"pid":159818,"period":235,"shopId":175,"current":"NO"},{"pid":159778,"period":234,"shopId":175,"current":"NO"},{"pid":159737,"period":233,"shopId":175,"current":"NO"},{"pid":159686,"period":232,"shopId":175,"current":"NO"},{"pid":159646,"period":231,"shopId":175,"current":"NO"},{"pid":159605,"period":230,"shopId":175,"current":"NO"},{"pid":159554,"period":229,"shopId":175,"current":"NO"},{"pid":159514,"period":228,"shopId":175,"current":"NO"},{"pid":159473,"period":227,"shopId":175,"current":"NO"},{"pid":159422,"period":226,"shopId":175,"current":"NO"},{"pid":159382,"period":225,"shopId":175,"current":"NO"},{"pid":159331,"period":224,"shopId":175,"current":"NO"},{"pid":159290,"period":223,"shopId":175,"current":"NO"},{"pid":159250,"period":222,"shopId":175,"current":"NO"},{"pid":159199,"period":221,"shopId":175,"current":"NO"},{"pid":159158,"period":220,"shopId":175,"current":"NO"},{"pid":159118,"period":219,"shopId":175,"current":"NO"},{"pid":159067,"period":218,"shopId":175,"current":"NO"},{"pid":159026,"period":217,"shopId":175,"current":"NO"},{"pid":158986,"period":216,"shopId":175,"current":"NO"},{"pid":158935,"period":215,"shopId":175,"current":"NO"},{"pid":158895,"period":214,"shopId":175,"current":"NO"},{"pid":158844,"period":213,"shopId":175,"current":"NO"},{"pid":158803,"period":212,"shopId":175,"current":"NO"},{"pid":158763,"period":211,"shopId":175,"current":"NO"},{"pid":158712,"period":210,"shopId":175,"current":"NO"},{"pid":158671,"period":209,"shopId":175,"current":"NO"},{"pid":158621,"period":208,"shopId":175,"current":"NO"},{"pid":158580,"period":207,"shopId":175,"current":"NO"},{"pid":158539,"period":206,"shopId":175,"current":"NO"},{"pid":158489,"period":205,"shopId":175,"current":"NO"},{"pid":158448,"period":204,"shopId":175,"current":"NO"},{"pid":158407,"period":203,"shopId":175,"current":"NO"}],"isActive":"YES","sid":175,"remainingTime":13}}</t>
+          <t>{"msg":"成功","code":"0000","doboShop":{"lotteryTime":"2019-10-09 07:58:10","periodList":[{"pid":285883,"period":3085,"shopId":175,"current":"YES"},{"pid":285832,"period":3084,"shopId":175,"current":"NO"},{"pid":285791,"period":3083,"shopId":175,"current":"NO"},{"pid":285752,"period":3082,"shopId":175,"current":"NO"},{"pid":285701,"period":3081,"shopId":175,"current":"NO"},{"pid":285659,"period":3080,"shopId":175,"current":"NO"},{"pid":285619,"period":3079,"shopId":175,"current":"NO"},{"pid":285569,"period":3078,"shopId":175,"current":"NO"},{"pid":285528,"period":3077,"shopId":175,"current":"NO"},{"pid":285488,"period":3076,"shopId":175,"current":"NO"},{"pid":285436,"period":3075,"shopId":175,"current":"NO"},{"pid":285395,"period":3074,"shopId":175,"current":"NO"},{"pid":285346,"period":3073,"shopId":175,"current":"NO"},{"pid":285304,"period":3072,"shopId":175,"current":"NO"},{"pid":285264,"period":3071,"shopId":175,"current":"NO"},{"pid":285214,"period":3070,"shopId":175,"current":"NO"},{"pid":285173,"period":3069,"shopId":175,"current":"NO"},{"pid":285131,"period":3068,"shopId":175,"current":"NO"},{"pid":285081,"period":3067,"shopId":175,"current":"NO"},{"pid":285040,"period":3066,"shopId":175,"current":"NO"},{"pid":285000,"period":3065,"shopId":175,"current":"NO"},{"pid":284950,"period":3064,"shopId":175,"current":"NO"},{"pid":284908,"period":3063,"shopId":175,"current":"NO"},{"pid":284857,"period":3062,"shopId":175,"current":"NO"},{"pid":284817,"period":3061,"shopId":175,"current":"NO"},{"pid":284776,"period":3060,"shopId":175,"current":"NO"},{"pid":284727,"period":3059,"shopId":175,"current":"NO"},{"pid":284686,"period":3058,"shopId":175,"current":"NO"},{"pid":284645,"period":3057,"shopId":175,"current":"NO"},{"pid":284595,"period":3056,"shopId":175,"current":"NO"},{"pid":284554,"period":3055,"shopId":175,"current":"NO"},{"pid":284513,"period":3054,"shopId":175,"current":"NO"},{"pid":284463,"period":3053,"shopId":175,"current":"NO"},{"pid":284422,"period":3052,"shopId":175,"current":"NO"},{"pid":284381,"period":3051,"shopId":175,"current":"NO"},{"pid":284331,"period":3050,"shopId":175,"current":"NO"},{"pid":284290,"period":3049,"shopId":175,"current":"NO"},{"pid":284249,"period":3048,"shopId":175,"current":"NO"},{"pid":284199,"period":3047,"shopId":175,"current":"NO"},{"pid":284158,"period":3046,"shopId":175,"current":"NO"},{"pid":284107,"period":3045,"shopId":175,"current":"NO"},{"pid":284066,"period":3044,"shopId":175,"current":"NO"},{"pid":284026,"period":3043,"shopId":175,"current":"NO"},{"pid":283976,"period":3042,"shopId":175,"current":"NO"},{"pid":283934,"period":3041,"shopId":175,"current":"NO"},{"pid":283894,"period":3040,"shopId":175,"current":"NO"},{"pid":283842,"period":3039,"shopId":175,"current":"NO"},{"pid":283802,"period":3038,"shopId":175,"current":"NO"},{"pid":283760,"period":3037,"shopId":175,"current":"NO"},{"pid":283711,"period":3036,"shopId":175,"current":"NO"},{"pid":283670,"period":3035,"shopId":175,"current":"NO"},{"pid":283628,"period":3034,"shopId":175,"current":"NO"},{"pid":283578,"period":3033,"shopId":175,"current":"NO"},{"pid":283538,"period":3032,"shopId":175,"current":"NO"},{"pid":283496,"period":3031,"shopId":175,"current":"NO"},{"pid":283446,"period":3030,"shopId":175,"current":"NO"},{"pid":283406,"period":3029,"shopId":175,"current":"NO"},{"pid":283356,"period":3028,"shopId":175,"current":"NO"},{"pid":283314,"period":3027,"shopId":175,"current":"NO"},{"pid":283274,"period":3026,"shopId":175,"current":"NO"},{"pid":283224,"period":3025,"shopId":175,"current":"NO"},{"pid":283184,"period":3024,"shopId":175,"current":"NO"},{"pid":283143,"period":3023,"shopId":175,"current":"NO"},{"pid":283091,"period":3022,"shopId":175,"current":"NO"},{"pid":283050,"period":3021,"shopId":175,"current":"NO"},{"pid":283010,"period":3020,"shopId":175,"current":"NO"},{"pid":282960,"period":3019,"shopId":175,"current":"NO"},{"pid":282918,"period":3018,"shopId":175,"current":"NO"},{"pid":282877,"period":3017,"shopId":175,"current":"NO"},{"pid":282828,"period":3016,"shopId":175,"current":"NO"},{"pid":282786,"period":3015,"shopId":175,"current":"NO"},{"pid":282745,"period":3014,"shopId":175,"current":"NO"},{"pid":282695,"period":3013,"shopId":175,"current":"NO"},{"pid":282654,"period":3012,"shopId":175,"current":"NO"},{"pid":282613,"period":3011,"shopId":175,"current":"NO"},{"pid":282564,"period":3010,"shopId":175,"current":"NO"},{"pid":282523,"period":3009,"shopId":175,"current":"NO"},{"pid":282479,"period":3008,"shopId":175,"current":"NO"},{"pid":282433,"period":3007,"shopId":175,"current":"NO"},{"pid":282391,"period":3006,"shopId":175,"current":"NO"},{"pid":282341,"period":3005,"shopId":175,"current":"NO"},{"pid":282299,"period":3004,"shopId":175,"current":"NO"},{"pid":282259,"period":3003,"shopId":175,"current":"NO"},{"pid":282209,"period":3002,"shopId":175,"current":"NO"},{"pid":282168,"period":3001,"shopId":175,"current":"NO"},{"pid":282126,"period":3000,"shopId":175,"current":"NO"},{"pid":282077,"period":2999,"shopId":175,"current":"NO"},{"pid":282036,"period":2998,"shopId":175,"current":"NO"},{"pid":281995,"period":2997,"shopId":175,"current":"NO"},{"pid":281944,"period":2996,"shopId":175,"current":"NO"},{"pid":281904,"period":2995,"shopId":175,"current":"NO"},{"pid":281863,"period":2994,"shopId":175,"current":"NO"},{"pid":281813,"period":2993,"shopId":175,"current":"NO"},{"pid":281772,"period":2992,"shopId":175,"current":"NO"},{"pid":281721,"period":2991,"shopId":175,"current":"NO"},{"pid":281681,"period":2990,"shopId":175,"current":"NO"},{"pid":281640,"period":2989,"shopId":175,"current":"NO"},{"pid":281589,"period":2988,"shopId":175,"current":"NO"},{"pid":281549,"period":2987,"shopId":175,"current":"NO"},{"pid":281508,"period":2986,"shopId":175,"current":"NO"}],"isActive":"YES","sid":175,"remainingTime":104}}</t>
         </is>
       </c>
       <c r="J4" s="22" t="inlineStr">
         <is>
           <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="55.5" r="5" s="9">
+      <c r="A5" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="inlineStr">
+        <is>
+          <t>下单</t>
+        </is>
+      </c>
+      <c r="C5" s="22" t="inlineStr">
+        <is>
+          <t>一元商品下单</t>
+        </is>
+      </c>
+      <c r="D5" s="22" t="inlineStr">
+        <is>
+          <t>order/createOrder.do</t>
+        </is>
+      </c>
+      <c r="E5" s="22" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" s="15" t="inlineStr">
+        <is>
+          <t>{
+    "orderType": "OneDollarRush",
+    "num": "1",
+    "pid": "285619",
+    "shopId": "121",
+    "aid": "1163"
+}</t>
+        </is>
+      </c>
+      <c r="G5" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I5" s="22" t="inlineStr">
+        <is>
+          <t>{"msg":"Activity has expired and cannot be purchased","code":"1009"}</t>
+        </is>
+      </c>
+      <c r="J5" s="22" t="inlineStr">
+        <is>
+          <t>Failed</t>
         </is>
       </c>
     </row>

--- a/test_cases/test_api.xlsx
+++ b/test_cases/test_api.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="7" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14390" windowWidth="28980" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="8" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14390" windowWidth="28980" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="login1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="login" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="list" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="creatorder_index" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="logout" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -131,7 +132,6 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -171,6 +171,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -488,10 +489,10 @@
     <col customWidth="1" max="8" min="8" style="3" width="42.54296875"/>
     <col customWidth="1" max="9" min="9" style="7" width="26.08984375"/>
     <col customWidth="1" max="10" min="10" style="3" width="19.54296875"/>
-    <col customWidth="1" max="12" min="11" style="22" width="8.90625"/>
+    <col customWidth="1" max="12" min="11" style="21" width="8.90625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="20.4" r="1" s="9">
+    <row customHeight="1" ht="20.4" r="1" s="22">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CaseId</t>
@@ -590,7 +591,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="56" r="3" s="9">
+    <row customHeight="1" ht="56" r="3" s="22">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -639,7 +640,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="56" r="4" s="9">
+    <row customHeight="1" ht="56" r="4" s="22">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -688,7 +689,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="56" r="5" s="9">
+    <row customHeight="1" ht="56" r="5" s="22">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -737,7 +738,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="56" r="6" s="9">
+    <row customHeight="1" ht="56" r="6" s="22">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -805,74 +806,74 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="13" width="12.453125"/>
-    <col customWidth="1" max="2" min="2" style="14" width="12.90625"/>
-    <col customWidth="1" max="3" min="3" style="14" width="12.453125"/>
-    <col customWidth="1" max="4" min="4" style="14" width="11.90625"/>
-    <col customWidth="1" max="5" min="5" style="14" width="8.7265625"/>
-    <col customWidth="1" max="6" min="6" style="14" width="34.36328125"/>
-    <col customWidth="1" max="7" min="7" style="14" width="8.7265625"/>
-    <col customWidth="1" max="8" min="8" style="14" width="22.08984375"/>
-    <col customWidth="1" max="9" min="9" style="14" width="56.81640625"/>
-    <col customWidth="1" max="10" min="10" style="14" width="19"/>
-    <col customWidth="1" max="81" min="11" style="12" width="8.7265625"/>
-    <col customWidth="1" max="16384" min="82" style="12" width="8.7265625"/>
+    <col customWidth="1" max="1" min="1" style="12" width="12.453125"/>
+    <col customWidth="1" max="2" min="2" style="13" width="12.90625"/>
+    <col customWidth="1" max="3" min="3" style="13" width="12.453125"/>
+    <col customWidth="1" max="4" min="4" style="13" width="11.90625"/>
+    <col customWidth="1" max="5" min="5" style="13" width="8.7265625"/>
+    <col customWidth="1" max="6" min="6" style="13" width="34.36328125"/>
+    <col customWidth="1" max="7" min="7" style="13" width="8.7265625"/>
+    <col customWidth="1" max="8" min="8" style="13" width="22.08984375"/>
+    <col customWidth="1" max="9" min="9" style="13" width="56.81640625"/>
+    <col customWidth="1" max="10" min="10" style="13" width="19"/>
+    <col customWidth="1" max="91" min="11" style="11" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="92" style="11" width="8.7265625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="20.4" r="1" s="9">
-      <c r="A1" s="16" t="inlineStr">
+    <row customHeight="1" ht="20.4" r="1" s="22">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>CaseId</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Path</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>Method</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>Params</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>Sql</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>ExpectedResult</t>
         </is>
       </c>
-      <c r="I1" s="10" t="inlineStr">
+      <c r="I1" s="9" t="inlineStr">
         <is>
           <t>ActualResult</t>
         </is>
       </c>
-      <c r="J1" s="10" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
       </c>
-      <c r="K1" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="70" r="2" s="9">
+      <c r="K1" s="10" t="n"/>
+    </row>
+    <row customHeight="1" ht="70" r="2" s="22">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -912,38 +913,38 @@
           <t>{"msg":"成功","code":"0000","user":{"id":10787,"status":"Normal","userType":"Member","headImg":"https://file.lihvip.com/data/upload_file/img/head.jpg","name":"pp_13242045218","phone":"132****5218","tradePasswd":"E10ADC3949BA59ABBE56E057F20F883E","lastLoginTime":"2019-08-05 15:17:04","lastLoginIp":"113.87.182.110","setTradePassword":true},"token":"SjeYs1-CjkbswCzIVBF5evCuc75n0P12GpFtB_7LFDrxFppnhIoAcwgNu8EdBPSrtDlgaAnkZOr-BrIFZrjPRA"}</t>
         </is>
       </c>
-      <c r="J2" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-      <c r="K2" s="15" t="n"/>
-    </row>
-    <row customHeight="1" ht="56" r="3" s="9">
-      <c r="A3" s="13" t="n">
+      <c r="J2" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="K2" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="56" r="3" s="22">
+      <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>提交订单</t>
         </is>
       </c>
-      <c r="C3" s="14" t="inlineStr">
+      <c r="C3" s="13" t="inlineStr">
         <is>
           <t>不使用优惠券</t>
         </is>
       </c>
-      <c r="D3" s="14" t="inlineStr">
+      <c r="D3" s="13" t="inlineStr">
         <is>
           <t>user/submitOrder.do</t>
         </is>
       </c>
-      <c r="E3" s="14" t="inlineStr">
+      <c r="E3" s="13" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F3" s="14" t="inlineStr">
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>{"addressId":"152","goodsId":"264","num":"1","remark":"","periodId":"","orderType":"Presell","spec":"件"}</t>
         </is>
@@ -959,7 +960,7 @@
           <t>{"msg":"成功","code":"0000","order":{"id":19635,"status":"ToPay","orderNumber":"15649919077016261","userId":10787,"goodsId":264,"goodsCoverImg":"https://file.lihvip.com/data/upload_file/img/20190530/1544cac3-f72e-41b9-aaf3-d1f05f2c5585.jpg","goodsName":"VERSACE COLLECTION腰带","num":1,"salePrice":1500.00,"freight":0.00,"shouldPrice":1500.00,"payPrice":1500.00,"receiveRegion":"湖北省 武汉市 江岸区","receiveDetailed":"阳光科创中心A栋","receiveRecipients":"许彦","receivePhone":"13242045218","refundNum":0.00,"isDel":"NO","createTime":"2019-08-05 16:47:24","orderType":"Presell","rate":6.00,"noFirstPayRate":6.00,"cycle":0,"presellEndTime":"2019-08-09 00:00:00","spec":"件"}}</t>
         </is>
       </c>
-      <c r="J3" s="22" t="inlineStr">
+      <c r="J3" s="21" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -985,16 +986,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.90625" defaultRowHeight="14"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="9" width="12.90625"/>
+    <col customWidth="1" max="2" min="2" style="22" width="12.90625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="inlineStr">
+      <c r="A1" s="21" t="inlineStr">
         <is>
           <t>tel</t>
         </is>
       </c>
-      <c r="B1" s="22" t="n">
+      <c r="B1" s="21" t="n">
         <v>15096098903</v>
       </c>
     </row>
@@ -1017,22 +1018,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="18" width="8.7265625"/>
-    <col customWidth="1" max="2" min="2" style="22" width="17.08984375"/>
-    <col customWidth="1" max="3" min="3" style="22" width="20"/>
-    <col customWidth="1" max="4" min="4" style="22" width="36.36328125"/>
-    <col customWidth="1" max="5" min="5" style="22" width="8.7265625"/>
-    <col customWidth="1" max="6" min="6" style="12" width="36.26953125"/>
-    <col customWidth="1" max="7" min="7" style="22" width="8.7265625"/>
-    <col customWidth="1" max="8" min="8" style="22" width="28.453125"/>
-    <col customWidth="1" max="9" min="9" style="22" width="32"/>
-    <col customWidth="1" max="10" min="10" style="17" width="20.54296875"/>
-    <col customWidth="1" max="73" min="11" style="22" width="8.7265625"/>
-    <col customWidth="1" max="16384" min="74" style="22" width="8.7265625"/>
+    <col customWidth="1" max="1" min="1" style="17" width="8.7265625"/>
+    <col customWidth="1" max="2" min="2" style="21" width="17.08984375"/>
+    <col customWidth="1" max="3" min="3" style="21" width="20"/>
+    <col customWidth="1" max="4" min="4" style="21" width="36.36328125"/>
+    <col customWidth="1" max="5" min="5" style="21" width="8.7265625"/>
+    <col customWidth="1" max="6" min="6" style="11" width="36.26953125"/>
+    <col customWidth="1" max="7" min="7" style="21" width="8.7265625"/>
+    <col customWidth="1" max="8" min="8" style="21" width="28.453125"/>
+    <col customWidth="1" max="9" min="9" style="21" width="32"/>
+    <col customWidth="1" max="10" min="10" style="16" width="20.54296875"/>
+    <col customWidth="1" max="83" min="11" style="21" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="84" style="21" width="8.7265625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="21" r="1" s="9">
-      <c r="A1" s="20" t="inlineStr">
+    <row customHeight="1" ht="21" r="1" s="22">
+      <c r="A1" s="19" t="inlineStr">
         <is>
           <t>CaseId</t>
         </is>
@@ -1057,7 +1058,7 @@
           <t>Method</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>Params</t>
         </is>
@@ -1077,37 +1078,37 @@
           <t>ActualResult</t>
         </is>
       </c>
-      <c r="J1" s="16" t="inlineStr">
+      <c r="J1" s="15" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="56" r="2" s="9">
-      <c r="A2" s="18" t="n">
+    <row customHeight="1" ht="56" r="2" s="22">
+      <c r="A2" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="inlineStr">
+      <c r="B2" s="21" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C2" s="22" t="inlineStr">
+      <c r="C2" s="21" t="inlineStr">
         <is>
           <t>后台登录</t>
         </is>
       </c>
-      <c r="D2" s="22" t="inlineStr">
+      <c r="D2" s="21" t="inlineStr">
         <is>
           <t>sys/login</t>
         </is>
       </c>
-      <c r="E2" s="22" t="inlineStr">
+      <c r="E2" s="21" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="19" t="inlineStr">
+      <c r="F2" s="18" t="inlineStr">
         <is>
           <t>{
     "username": "xuyan",
@@ -1125,37 +1126,37 @@
           <t>{"msg":"成功","code":"0000","expire":43200,"token":"8f3c8ffaafc82954a60c4eadf3705882"}</t>
         </is>
       </c>
-      <c r="J2" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="33.5" r="3" s="9">
-      <c r="A3" s="18" t="n">
+      <c r="J2" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="33.5" r="3" s="22">
+      <c r="A3" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="inlineStr">
+      <c r="B3" s="21" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C3" s="22" t="inlineStr">
+      <c r="C3" s="21" t="inlineStr">
         <is>
           <t>分类列表</t>
         </is>
       </c>
-      <c r="D3" s="21" t="inlineStr">
+      <c r="D3" s="20" t="inlineStr">
         <is>
           <t>sys/goodsType/list</t>
         </is>
       </c>
-      <c r="E3" s="21" t="inlineStr">
+      <c r="E3" s="20" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F3" s="19" t="inlineStr">
+      <c r="F3" s="18" t="inlineStr">
         <is>
           <t>{
     "pageNum": "1",
@@ -1168,42 +1169,42 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I3" s="22" t="inlineStr">
+      <c r="I3" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","pageList":{"count":31,"pages":1,"data":[{"id":27,"pid":0,"type":"practicality","key":"652a3127f34e4df7","name":"轻奢优品","isDel":"NO","createTime":"2019-08-09 11:05:25","isDisplay":"YES","orderNum":500,"typeNum":0},{"id":33,"pid":0,"type":"practicality","key":"70b856ad317e4da4","name":"家居优品","isDel":"NO","createTime":"2019-08-09 11:12:44","isDisplay":"YES","orderNum":490,"typeNum":0},{"id":39,"pid":0,"type":"practicality","key":"b8ed0f17b4644daa","name":"数码优品","isDel":"NO","createTime":"2019-08-09 11:21:07","isDisplay":"YES","orderNum":485,"typeNum":0},{"id":10,"pid":0,"type":"practicality","key":"wine_p","name":"居家生活","isDel":"NO","createTime":"2019-08-02 16:09:04","remark":"add_pid","isDisplay":"YES","orderNum":344,"typeNum":0},{"id":11,"pid":0,"type":"practicality","key":"zhubao_p","name":"珠宝首饰","isDel":"NO","createTime":"2019-08-02 16:09:04","remark":"add_pid","isDisplay":"YES","orderNum":222,"typeNum":0},{"id":25,"pid":0,"type":"practicality","key":"a26547413408406b","name":"特殊分类-","isDel":"NO","createTime":"2019-08-07 17:05:35","isDisplay":"YES","orderNum":123,"typeNum":0},{"id":24,"pid":0,"type":"practicality","key":"21708b2691e746c1","name":"玉玺","isDel":"NO","createTime":"2019-08-06 17:26:19","isDisplay":"YES","orderNum":99,"typeNum":0},{"id":40,"pid":39,"type":"practicality","key":"2766f06ee8f643fa","name":"时尚耳机","isDel":"NO","createTime":"2019-08-09 11:21:57","isDisplay":"YES","orderNum":50,"typeNum":2},{"id":34,"pid":33,"type":"practicality","key":"dbedade0afec4984","name":"家纺床品","isDel":"NO","createTime":"2019-08-09 11:13:04","isDisplay":"YES","orderNum":50,"typeNum":1},{"id":28,"pid":27,"type":"practicality","key":"eb772147bd98458b","name":"香水彩妆","isDel":"NO","createTime":"2019-08-09 11:06:47","isDisplay":"YES","orderNum":50,"typeNum":44},{"id":41,"pid":39,"type":"practicality","key":"0aae60c72c394123","name":"无人机","isDel":"NO","createTime":"2019-08-09 11:23:20","isDisplay":"YES","orderNum":45,"typeNum":0},{"id":35,"pid":33,"type":"practicality","key":"ac4bf0bb669d46f8","name":"生活用品","isDel":"NO","createTime":"2019-08-09 11:14:48","isDisplay":"YES","orderNum":45,"typeNum":3},{"id":29,"pid":27,"type":"practicality","key":"3456aef02d2346d3","name":"个护清洁","isDel":"NO","createTime":"2019-08-09 11:07:14","isDisplay":"YES","orderNum":45,"typeNum":0},{"id":42,"pid":39,"type":"practicality","key":"c5d64d3eb0e64bbc","name":"电子个护","isDel":"NO","createTime":"2019-08-09 11:25:00","isDisplay":"YES","orderNum":40,"typeNum":0},{"id":30,"pid":27,"type":"practicality","key":"d5fcbd55012c44cf","name":"鞋帽","isDel":"NO","createTime":"2019-08-09 11:09:38","isDisplay":"YES","orderNum":40,"typeNum":0},{"id":2,"pid":9,"type":"practicality","key":"healthProducts","name":"箱包皮具","isDel":"NO","createTime":"2019-03-06 17:34:51","isDisplay":"YES","orderNum":40,"typeNum":277},{"id":43,"pid":39,"type":"practicality","key":"275f9a9393224fde","name":"智能音箱","isDel":"NO","createTime":"2019-08-09 11:26:10","isDisplay":"YES","orderNum":35,"typeNum":0},{"id":36,"pid":33,"type":"practicality","key":"d41d24514ea4462f","name":"运动健康","isDel":"NO","createTime":"2019-08-09 11:16:01","isDisplay":"YES","orderNum":35,"typeNum":0},{"id":31,"pid":27,"type":"practicality","key":"b1c9d4ab881846eb","name":"皮具箱包","isDel":"NO","createTime":"2019-08-09 11:10:03","isDisplay":"YES","orderNum":35,"typeNum":0},{"id":12,"pid":0,"type":"practicality","key":"14c64e067abe468e_p","name":"女装_","isDel":"NO","createTime":"2019-08-02 16:09:04","remark":"add_pid","isDisplay":"YES","orderNum":33,"typeNum":0},{"id":44,"pid":39,"type":"practicality","key":"644c08f265714d22","name":"创意数码","isDel":"NO","createTime":"2019-08-09 11:28:58","isDisplay":"YES","orderNum":30,"typeNum":0},{"id":37,"pid":33,"type":"practicality","key":"0d5ef62f483443e6","name":"厨房用品","isDel":"NO","createTime":"2019-08-09 11:16:56","isDisplay":"YES","orderNum":30,"typeNum":0},{"id":32,"pid":27,"type":"practicality","key":"fe142b73215a4edd","name":"珠宝首饰2","isDel":"NO","createTime":"2019-08-09 11:10:57","isDisplay":"YES","orderNum":30,"typeNum":0},{"id":38,"pid":33,"type":"practicality","key":"c3d4fe529bf64536","name":"家装摆饰","isDel":"NO","createTime":"2019-08-09 11:19:50","isDisplay":"YES","orderNum":25,"typeNum":0},{"id":9,"pid":0,"type":"practicality","key":"healthProducts_p","name":"服饰鞋包","isDel":"NO","createTime":"2019-08-02 16:09:04","remark":"add_pid","isDisplay":"YES","orderNum":23,"typeNum":0},{"id":4,"pid":11,"type":"practicality","key":"zhubao","name":"珠宝","isDel":"NO","createTime":"2019-04-15 09:25:45","isDisplay":"YES","orderNum":20,"typeNum":227},{"id":3,"pid":10,"type":"practicality","key":"wine","name":"眼镜","isDel":"NO","createTime":"2019-03-06 17:34:51","isDisplay":"YES","orderNum":10,"typeNum":17},{"id":13,"pid":0,"type":"practicality","key":"d58f536d095c45c0_p","name":"手表_","isDel":"NO","createTime":"2019-08-02 16:09:04","remark":"add_pid","isDisplay":"YES","orderNum":2,"typeNum":0},{"id":26,"pid":10,"type":"practicality","key":"aeb9da9913504107","name":"收纳","isDel":"NO","createTime":"2019-08-08 09:50:43","isDisplay":"YES","orderNum":1,"typeNum":0},{"id":8,"pid":13,"type":"practicality","key":"d58f536d095c45c0","name":"手表","isDel":"NO","createTime":"2019-07-22 17:49:51","isDisplay":"YES","orderNum":1,"typeNum":1},{"id":7,"pid":12,"type":"practicality","key":"14c64e067abe468e","name":"女装","isDel":"NO","createTime":"2019-07-11 13:45:54","isDisplay":"YES","orderNum":0,"typeNum":6}],"currentNum":1,"pageSize":1000}}</t>
         </is>
       </c>
-      <c r="J3" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="4" s="9">
-      <c r="A4" s="18" t="n">
+      <c r="J3" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="4" s="22">
+      <c r="A4" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="inlineStr">
+      <c r="B4" s="21" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C4" s="22" t="inlineStr">
+      <c r="C4" s="21" t="inlineStr">
         <is>
           <t>厂商列表</t>
         </is>
       </c>
-      <c r="D4" s="21" t="inlineStr">
+      <c r="D4" s="20" t="inlineStr">
         <is>
           <t>sys/manufacturer/list</t>
         </is>
       </c>
-      <c r="E4" s="22" t="inlineStr">
+      <c r="E4" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F4" s="19" t="inlineStr">
+      <c r="F4" s="18" t="inlineStr">
         <is>
           <t>{
     "pageNum": "1",
@@ -1216,42 +1217,42 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I4" s="22" t="inlineStr">
+      <c r="I4" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","pageList":{"count":8,"pages":1,"data":[{"id":12,"name":"深港通/华悦","type":"factory","isSale":"YES","saleNum":375260.40,"useNum":375260.40,"updateTime":"2019-06-21 09:42:38","createTime":"2019-05-19 14:48:12","isDel":"NO"},{"id":11,"name":"国外","type":"factory","isSale":"NO","saleNum":883028.54,"useNum":883028.54,"createTime":"2019-05-19 14:47:40","isDel":"NO"},{"id":10,"name":"卡地亚","type":"factory","isSale":"NO","saleNum":49400.00,"useNum":49400.00,"createTime":"2019-05-17 19:27:28","isDel":"NO"},{"id":9,"name":"欧米茄","type":"factory","isSale":"NO","saleNum":131735.60,"useNum":131735.60,"createTime":"2019-05-17 19:27:17","isDel":"NO"},{"id":8,"name":"厦门代理商","type":"factory","isSale":"YES","saleNum":291278.00,"useNum":291278.00,"updateTime":"2019-06-21 09:42:33","createTime":"2019-05-17 10:30:54","isDel":"NO"},{"id":7,"name":"兴唯珠宝","type":"factory","isSale":"YES","saleNum":776957.02,"useNum":776957.02,"updateTime":"2019-06-21 09:42:26","createTime":"2019-04-16 19:42:22","isDel":"NO"},{"id":6,"name":"优荟酒窖","type":"factory","isSale":"YES","saleNum":37698.40,"useNum":37698.40,"createTime":"2019-04-16 18:42:39","isDel":"NO"},{"id":5,"name":"燕之屋","type":"commercial","isSale":"YES","saleNum":564.16,"useNum":564.16,"createTime":"2019-04-16 15:51:25","isDel":"NO"}],"currentNum":1,"pageSize":10}}</t>
         </is>
       </c>
-      <c r="J4" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="5" s="9">
-      <c r="A5" s="18" t="n">
+      <c r="J4" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="5" s="22">
+      <c r="A5" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="inlineStr">
+      <c r="B5" s="21" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C5" s="21" t="inlineStr">
+      <c r="C5" s="20" t="inlineStr">
         <is>
           <t>标签列表</t>
         </is>
       </c>
-      <c r="D5" s="21" t="inlineStr">
+      <c r="D5" s="20" t="inlineStr">
         <is>
           <t>sys/goodsLabel/selectAllLabel</t>
         </is>
       </c>
-      <c r="E5" s="21" t="inlineStr">
+      <c r="E5" s="20" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F5" s="19" t="inlineStr">
+      <c r="F5" s="18" t="inlineStr">
         <is>
           <t>{
     "pageNum": "1",
@@ -1264,42 +1265,42 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I5" s="22" t="inlineStr">
+      <c r="I5" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}]}</t>
         </is>
       </c>
-      <c r="J5" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="84" r="6" s="9">
-      <c r="A6" s="18" t="n">
+      <c r="J5" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="84" r="6" s="22">
+      <c r="A6" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="inlineStr">
+      <c r="B6" s="21" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C6" s="21" t="inlineStr">
+      <c r="C6" s="20" t="inlineStr">
         <is>
           <t>周期列表</t>
         </is>
       </c>
-      <c r="D6" s="21" t="inlineStr">
+      <c r="D6" s="20" t="inlineStr">
         <is>
           <t>sys/period/list</t>
         </is>
       </c>
-      <c r="E6" s="21" t="inlineStr">
+      <c r="E6" s="20" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F6" s="19" t="inlineStr">
+      <c r="F6" s="18" t="inlineStr">
         <is>
           <t xml:space="preserve">{
     "pageNum": 1,
@@ -1314,37 +1315,37 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I6" s="22" t="inlineStr">
+      <c r="I6" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","pageList":{"count":3,"pages":1,"data":[{"id":3,"periodKey":"b19dd47fce07","periodName":"180天","periodDay":180,"rate":10.00,"goodsNum":25,"isDel":"NO","createTime":"2019-07-09 19:59:39"},{"id":2,"periodKey":"dd788be8971d","periodName":"90天","periodDay":90,"rate":8.00,"goodsNum":55,"isDel":"NO","createTime":"2019-07-09 19:59:29"},{"id":1,"periodKey":"2dd9e99269db","periodName":"30天","periodDay":30,"rate":6.00,"goodsNum":55,"isDel":"NO","createTime":"2019-07-09 19:59:18"}],"currentNum":1,"pageSize":10}}</t>
         </is>
       </c>
-      <c r="J6" s="22" t="inlineStr">
+      <c r="J6" s="21" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="n">
+      <c r="A7" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="inlineStr">
+      <c r="B7" s="21" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C7" s="22" t="inlineStr">
+      <c r="C7" s="21" t="inlineStr">
         <is>
           <t>新增商品查询分类</t>
         </is>
       </c>
-      <c r="D7" s="22" t="inlineStr">
+      <c r="D7" s="21" t="inlineStr">
         <is>
           <t>sys/goods/getGoodsType</t>
         </is>
       </c>
-      <c r="E7" s="22" t="inlineStr">
+      <c r="E7" s="21" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -1354,37 +1355,37 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I7" s="22" t="inlineStr">
+      <c r="I7" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","practicality":[{"id":27,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/e4e674a9-ff08-4e5f-ad2e-7b00f37ec81e.jpg","key":"652a3127f34e4df7","name":"轻奢优品","orderNum":500,"typeNum":0,"children":[{"id":28,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/b46a94b3-c277-4ca0-b362-1f5feffc29e4.jpg","key":"eb772147bd98458b","name":"香水彩妆","orderNum":50,"typeNum":0},{"id":29,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/ac0e741e-dcc9-4895-b7af-1ca76c21f9ae.png","key":"3456aef02d2346d3","name":"个护清洁","orderNum":45,"typeNum":0},{"id":30,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/ffdb3d3e-91d0-4120-9e80-4c5b00a7c95e.png","key":"d5fcbd55012c44cf","name":"鞋帽","orderNum":40,"typeNum":0},{"id":31,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/c765dcc1-4714-4cfd-bcdc-3920c4a53056.jpg","key":"b1c9d4ab881846eb","name":"皮具箱包","orderNum":35,"typeNum":0},{"id":32,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/634fb37b-f203-4f54-a9b8-ac03bb6ff809.png","key":"fe142b73215a4edd","name":"珠宝首饰2","orderNum":30,"typeNum":0}]},{"id":33,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/d4f6767b-48b4-4708-a55c-9869dbf6fb45.jpg","key":"70b856ad317e4da4","name":"家居优品","orderNum":490,"typeNum":0,"children":[{"id":34,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/670b251a-b8cf-4f44-a858-ed57fc13ec96.jpg","key":"dbedade0afec4984","name":"家纺床品","orderNum":50,"typeNum":0},{"id":35,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/3d668046-6d35-45fd-9a1d-b9859fbcc17d.png","key":"ac4bf0bb669d46f8","name":"生活用品","orderNum":45,"typeNum":0},{"id":36,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/5c38fcc5-3a48-4c17-9d8e-bb8c2b4193a4.jpg","key":"d41d24514ea4462f","name":"运动健康","orderNum":35,"typeNum":0},{"id":37,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/41863f51-5869-4dc3-aed1-3130be725a19.jpg","key":"0d5ef62f483443e6","name":"厨房用品","orderNum":30,"typeNum":0},{"id":38,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/b1f7fe77-cdb8-4ae8-8089-0519a944fa3a.png","key":"c3d4fe529bf64536","name":"家装摆饰","orderNum":25,"typeNum":0}]},{"id":39,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/68e76923-1812-442f-9ed5-11fe5ca0c984.png","key":"b8ed0f17b4644daa","name":"数码优品","orderNum":485,"typeNum":0,"children":[{"id":40,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/fbceb907-3224-4c2b-b62c-880046269419.jpg","key":"2766f06ee8f643fa","name":"时尚耳机","orderNum":50,"typeNum":0},{"id":41,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/979647e0-35a6-4c3d-b62d-1df26d60c9e7.jpg","key":"0aae60c72c394123","name":"无人机","orderNum":45,"typeNum":0},{"id":42,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/e9c8355d-5e90-42f4-8abf-9912f425aeca.jpg","key":"c5d64d3eb0e64bbc","name":"电子个护","orderNum":40,"typeNum":0},{"id":43,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/b2dccc24-55cc-4562-845e-c339af29363c.jpg","key":"275f9a9393224fde","name":"智能音箱","orderNum":35,"typeNum":0},{"id":44,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190809/4da4e8db-bb66-4f85-bfe8-3aad31f60254.jpg","key":"644c08f265714d22","name":"创意数码","orderNum":30,"typeNum":0}]},{"id":10,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190802/59a9e02b-183f-4228-ab76-a003285061e8.png","key":"wine_p","name":"居家生活","orderNum":344,"typeNum":0,"children":[{"id":3,"imgUrl":"","key":"wine","name":"眼镜","orderNum":10,"typeNum":0},{"id":26,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190808/b754db12-256d-4d30-b4b5-27b7445059fc.jpg","key":"aeb9da9913504107","name":"收纳","orderNum":1,"typeNum":0}]},{"id":11,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190802/f3ec1319-ab38-4d5b-bf53-a1af65334f11.jpg","key":"zhubao_p","name":"珠宝首饰","orderNum":222,"typeNum":0,"children":[{"id":4,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190802/6bfba947-1377-4bdf-9f58-218653cef6bd.jpg","key":"zhubao","name":"珠宝","orderNum":20,"typeNum":0}]},{"id":12,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190802/f9b48342-c33f-46e6-af3f-06a496335d0d.jpg","key":"14c64e067abe468e_p","name":"女装_","orderNum":33,"typeNum":0,"children":[{"id":7,"imgUrl":"","key":"14c64e067abe468e","name":"女装","orderNum":0,"typeNum":0}]},{"id":9,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190802/c073d379-8b98-407d-9f62-1c899e88c7ee.png","key":"healthProducts_p","name":"服饰鞋包","orderNum":23,"typeNum":0,"children":[{"id":2,"imgUrl":"","key":"healthProducts","name":"箱包皮具","orderNum":40,"typeNum":0}]},{"id":13,"imgUrl":"https://file.test.lihvip.com/data/upload_file/img/20190802/b722332c-7719-4c24-a858-1c5810ebe4db.jpg","key":"d58f536d095c45c0_p","name":"手表_","orderNum":2,"typeNum":0,"children":[{"id":8,"imgUrl":"","key":"d58f536d095c45c0","name":"手表","orderNum":1,"typeNum":0}]}]}</t>
         </is>
       </c>
-      <c r="J7" s="22" t="inlineStr">
+      <c r="J7" s="21" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="n">
+      <c r="A8" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="inlineStr">
+      <c r="B8" s="21" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C8" s="22" t="inlineStr">
+      <c r="C8" s="21" t="inlineStr">
         <is>
           <t>新增商品查询厂商</t>
         </is>
       </c>
-      <c r="D8" s="22" t="inlineStr">
+      <c r="D8" s="21" t="inlineStr">
         <is>
           <t>sys/manufacturer/getManufactTypeOrName</t>
         </is>
       </c>
-      <c r="E8" s="22" t="inlineStr">
+      <c r="E8" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
@@ -1394,37 +1395,37 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I8" s="22" t="inlineStr">
+      <c r="I8" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","factory":[{"id":12,"name":"深港通/华悦","type":"factory","isSale":"YES","saleNum":375260.40,"useNum":375260.40,"updateTime":"2019-06-21 09:42:38","createTime":"2019-05-19 14:48:12","isDel":"NO"},{"id":11,"name":"国外","type":"factory","isSale":"NO","saleNum":883028.54,"useNum":883028.54,"createTime":"2019-05-19 14:47:40","isDel":"NO"},{"id":10,"name":"卡地亚","type":"factory","isSale":"NO","saleNum":49400.00,"useNum":49400.00,"createTime":"2019-05-17 19:27:28","isDel":"NO"},{"id":9,"name":"欧米茄","type":"factory","isSale":"NO","saleNum":131735.60,"useNum":131735.60,"createTime":"2019-05-17 19:27:17","isDel":"NO"},{"id":8,"name":"厦门代理商","type":"factory","isSale":"YES","saleNum":291278.00,"useNum":291278.00,"updateTime":"2019-06-21 09:42:33","createTime":"2019-05-17 10:30:54","isDel":"NO"},{"id":7,"name":"兴唯珠宝","type":"factory","isSale":"YES","saleNum":776957.02,"useNum":776957.02,"updateTime":"2019-06-21 09:42:26","createTime":"2019-04-16 19:42:22","isDel":"NO"},{"id":6,"name":"优荟酒窖","type":"factory","isSale":"YES","saleNum":37698.40,"useNum":37698.40,"createTime":"2019-04-16 18:42:39","isDel":"NO"}],"commercial":[{"id":5,"name":"燕之屋","type":"commercial","isSale":"YES","saleNum":564.16,"useNum":564.16,"createTime":"2019-04-16 15:51:25","isDel":"NO"}],"code":"0000"}</t>
         </is>
       </c>
-      <c r="J8" s="22" t="inlineStr">
+      <c r="J8" s="21" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="n">
+      <c r="A9" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="inlineStr">
+      <c r="B9" s="21" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C9" s="22" t="inlineStr">
+      <c r="C9" s="21" t="inlineStr">
         <is>
           <t>新增商品查询标签</t>
         </is>
       </c>
-      <c r="D9" s="22" t="inlineStr">
+      <c r="D9" s="21" t="inlineStr">
         <is>
           <t>sys/goodsLabel/selectAllLabel</t>
         </is>
       </c>
-      <c r="E9" s="22" t="inlineStr">
+      <c r="E9" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
@@ -1434,42 +1435,42 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I9" s="22" t="inlineStr">
+      <c r="I9" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}]}</t>
         </is>
       </c>
-      <c r="J9" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="72.5" r="10" s="9">
-      <c r="A10" s="18" t="n">
+      <c r="J9" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="72.5" r="10" s="22">
+      <c r="A10" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="inlineStr">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C10" s="22" t="inlineStr">
+      <c r="C10" s="21" t="inlineStr">
         <is>
           <t>新增商品</t>
         </is>
       </c>
-      <c r="D10" s="22" t="inlineStr">
+      <c r="D10" s="21" t="inlineStr">
         <is>
           <t>sys/goods/save</t>
         </is>
       </c>
-      <c r="E10" s="22" t="inlineStr">
+      <c r="E10" s="21" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F10" s="22" t="inlineStr">
+      <c r="F10" s="21" t="inlineStr">
         <is>
           <t>{"coverImg": "https://file.test.lihvip.com/data/upload_file/img/20190807/46df0f68-7f91-43e1-bcd4-0d30dd9e430b.jpg", "createTime": "", "describe": "&lt;p&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/a5011d25-fe51-47d4-a0f0-51174f01d9d1.jpg\" alt=\"\" width=\"1200\" height=\"362\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/1623c254-e77e-4d22-a776-273e2111fbdc.png\" alt=\"\" width=\"1200\" height=\"2256\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/ce00686f-6305-44af-9da7-df052019dd8a.png\" alt=\"\" width=\"1200\" height=\"1854\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/bb893f0e-db37-447c-8343-f7c618c9eb81.png\" alt=\"\" width=\"1200\" height=\"1110\" /&gt;&lt;/p&gt;", "entrustPrice": 111, "firstFreight": 0, "marketPrice": 1600, "goodsTypeKey": "zhubao", "isPresell": "NO", "isSellWell": "NO", "isShelves": "NO", "manufactId": 12, "name": "toy toy toy", "noFirstFreight": 0, "presellBeginTime": "", "presellEndTime": "", "salePrice": 100, "showImgs": ["https://file.test.lihvip.com/data/upload_file/img/20190807/46df0f68-7f91-43e1-bcd4-0d30dd9e430b.jpg", "https://file.test.lihvip.com/data/upload_file/img/20190807/e21f9046-a27f-44c5-9bf8-76602733eb0a.jpg", "https://file.test.lihvip.com/data/upload_file/img/20190807/e8900198-ff78-4150-b65e-9d9522e87360.jpg", "https://file.test.lihvip.com/data/upload_file/img/20190807/3f4e7549-8263-4f3e-b64b-0e143bcca285.jpg"], "property": "[{\"title\":\"\u5546\u54c1\u578b\u53f7\",\"value\":\"\u5510\u5b8b\u5143\u660e\u6e05\"},{\"title\":\"\u54c1\u724c\",\"value\":\"\u7687\u5bb6\u4e13\u7528\"}]", "isDel": "NO", "goodsLabel": [{"id": 1, "isDisplay": "YES", "labelTag": "1cc4e4fe25ad4ee8", "name": "\u5047\u4e00\u8d54\u5341"}, {"id": 2, "isDisplay": "YES", "labelTag": "f75b1edc17754d97", "name": "\u6b63\u54c1\u4fdd\u969c"}, {"id": 3, "isDisplay": "YES", "labelTag": "82747624b4734081", "name": "\u8d85\u503c\u6298\u6263"}], "specifications": [{"specs": "\u5510"}, {"specs": "\u5b8b"}, {"specs": "\u5143"}, {"specs": "\u660e"}]}</t>
         </is>
@@ -1479,56 +1480,56 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I10" s="22" t="inlineStr">
+      <c r="I10" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","key":665}</t>
         </is>
       </c>
-      <c r="J10" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="72.5" r="11" s="9">
-      <c r="F11" s="22" t="n"/>
+      <c r="J10" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="72.5" r="11" s="22">
+      <c r="F11" s="21" t="n"/>
       <c r="H11" s="4" t="n"/>
-      <c r="I11" s="22" t="inlineStr">
+      <c r="I11" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","pageList":{"count":579,"pages":58,"data":[{"id":664,"isSellWell":"YES","isShelves":"NO","isPresell":"NO","presellBeginTime":"2019-08-05 00:00:00","presellEndTime":"2019-08-31 00:00:00","goodsTypeKey":"2766f06ee8f643fa","name":"手机-0009","stock":100000,"sale":0,"property":"[{\"title\":\"123\",\"value\":\"123\"}]","salePrice":1233.00,"marketPrice":2222.00,"entrustPrice":0.00,"discount":0.00,"discountType":"NoAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.test.lihvip.com/data/upload_file/img/20190813/4a966e1d-989d-415b-9ce7-cf57f4d75c38.png","showImgs":["https://file.test.lihvip.com/data/upload_file/img/20190813/fad35762-7e96-4579-b651-98603418b6c8.png"],"isDel":"NO","createTime":"2019-08-13 17:31:44","describe":"&lt;p&gt;反反复复&lt;/p&gt;","goodsTypeName":"时尚耳机","manufactName":"深港通/华悦","orderWeight":213123,"goodsLabel":[{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"}],"goodsPeriod":"3,2,1","specifications":[{"specs":"d'd'd顶顶顶"}]},{"id":296,"isSellWell":"YES","isShelves":"NO","isPresell":"NO","presellBeginTime":"2019-08-02 00:00:00","presellEndTime":"2019-08-09 00:00:00","goodsTypeKey":"healthProducts","name":"EMPORIO ARMANI钱包","stock":99976,"sale":20,"cycle":30,"property":"[{\"title\":\"商品型号\",\"value\":\"Y4R1656\"},{\"title\":\"品牌\",\"value\":\"EMPORIO ARMANI\"}]","salePrice":1000.00,"marketPrice":1800.00,"entrustPrice":1005.00,"discount":0.00,"discountType":"ReduceAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.lihvip.com/data/upload_file/img/20190603/503b10ba-1a7c-4895-82a0-373385eedf12.jpg","showImgs":["https://file.lihvip.com/data/upload_file/img/20190603/bb63daf1-2fd3-4bbe-84cf-95612c8ee6b5.jpg","https://file.lihvip.com/data/upload_file/img/20190603/b7907af6-7c39-4815-9f18-979ac919768b.jpg","https://file.lihvip.com/data/upload_file/img/20190603/4a755ecf-80d4-4eb9-a6b7-5ea9a9dea322.jpg"],"isDel":"NO","createTime":"2019-06-03 16:47:36","describe":"&lt;p&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/6d153796-2c7e-43d7-afe9-ea4e54ab7923.jpg\" alt=\"\" width=\"810\" height=\"362\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/b9904aeb-31c1-4d79-a3cc-1c38b06b0254.jpg\" alt=\"\" width=\"780\" height=\"875\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/3111e39c-32cd-4f92-9d29-f0294a7bf1a0.jpg\" alt=\"\" width=\"780\" height=\"855\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/da72d970-3224-4974-9a7c-b1a9d5564e84.jpg\" alt=\"\" width=\"780\" height=\"1002\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/08e26e9d-0425-43d3-8e48-b445e65deb3a.jpg\" alt=\"\" width=\"780\" height=\"784\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/c48ca072-0914-4055-9870-b781d390a854.jpg\" alt=\"\" width=\"780\" height=\"1019\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/e75826b9-0344-442c-9bce-f051517ecba2.jpg\" alt=\"\" width=\"780\" height=\"708\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/3dc38333-9431-40a7-9726-0b993056c1a7.jpg\" alt=\"\" width=\"780\" height=\"795\" /&gt;&lt;/p&gt;","goodsTypeName":"箱包皮具","manufactName":"深港通/华悦","orderWeight":22,"goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}],"goodsPeriod":"","specifications":[{"specs":"件"},{"specs":"23"}]},{"id":40,"isSellWell":"YES","isShelves":"NO","isPresell":"NO","presellBeginTime":"2019-08-05 00:00:00","presellEndTime":"2019-08-31 00:00:00","goodsTypeKey":"zhubao","name":"Cartier卡地亚 RONDE SOLO DE CARTIER腕表","stock":996,"sale":0,"cycle":90,"property":"[{\"title\":\"商品型号\",\"value\":\"WSRN0012\"},{\"title\":\"产地\",\"value\":\"法国\"},{\"title\":\"品牌\",\"value\":\"Cartier卡地亚\"}]","salePrice":21275.00,"marketPrice":24700.00,"entrustPrice":21700.50,"discount":3425.00,"discountType":"ReduceAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.lihvip.com/data/upload_file/img/20190517/ddb8a0a6-b368-43ae-951e-1a70d0229735.jpg","showImgs":["https://file.lihvip.com/data/upload_file/img/20190517/3ae427f1-e28a-40f8-99b7-51e1ffa8968b.jpg","https://file.lihvip.com/data/upload_file/img/20190517/b9215f72-6d53-445a-be16-ab3e9554a5e5.jpg"],"isDel":"NO","createTime":"2019-05-17 20:07:31","describe":"&lt;p&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/a32837ef-bb05-4aba-a16b-effa2b9ead14.jpg\" alt=\"\" width=\"810\" height=\"362\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/85402139-0afa-419a-9b43-7d50655bd468.jpg\" alt=\"\" width=\"810\" height=\"1535\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/6ece0b1d-c603-4c44-a8fc-c8821e5149d6.jpg\" alt=\"\" width=\"810\" height=\"1873\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190710/95a6c3cb-c4c5-4142-b170-d34f5bad3894.jpg\" alt=\"\" width=\"810\" height=\"1662\" /&gt;&lt;/p&gt;","goodsTypeName":"珠宝","manufactName":"卡地亚","orderWeight":2,"goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}],"goodsPeriod":"1,2,3","specifications":[{"specs":"件"}]},{"id":457,"isSellWell":"YES","isShelves":"NO","isPresell":"NO","presellBeginTime":"2019-08-02 00:00:00","presellEndTime":"2019-08-09 00:00:00","goodsTypeKey":"healthProducts","name":"范思哲商务休闲皮带","stock":100000,"sale":0,"cycle":30,"property":"[{\"title\":\"商品型号\",\"value\":\"VC1701M2203812\"},{\"title\":\"产地\",\"value\":\"意大利\"},{\"title\":\"品牌\",\"value\":\"VERSACE COLLECTION\"}]","salePrice":1550.00,"marketPrice":2190.00,"entrustPrice":1557.75,"discount":0.00,"discountType":"ReduceAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.lihvip.com/data/upload_file/img/20190624/8c04e6d7-ef67-4e7d-9144-ef0b97576ce4.jpg","showImgs":["https://file.lihvip.com/data/upload_file/img/20190624/7ef1a251-6dff-4583-9185-bbb7e0a7cfde.jpg","https://file.lihvip.com/data/upload_file/img/20190624/30f56926-988d-4739-8932-78ec49f77a2b.jpg","https://file.lihvip.com/data/upload_file/img/20190624/40c4b714-dad6-4097-a102-c65ee5ed42ca.jpg"],"isDel":"NO","createTime":"2019-06-24 15:39:37","describe":"&lt;p&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/4c435262-4d8b-4721-9e9f-95aaa776388d.jpg\" alt=\"\" width=\"810\" height=\"362\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/26ae7b9e-0506-4b1b-bff2-239495eac484.jpg\" alt=\"\" width=\"750\" height=\"491\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/cd15cdad-8b30-4240-abc6-f8728fc93aba.jpg\" alt=\"\" width=\"750\" height=\"427\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/b35b073e-9829-48e9-b7ca-a1e008de78b0.jpg\" alt=\"\" width=\"750\" height=\"854\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/189b0f80-ab20-435c-b11d-d556d0ffa451.jpg\" alt=\"\" width=\"750\" height=\"750\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/a5a247c6-faa0-4009-ac3e-6845f0216636.jpg\" alt=\"\" width=\"750\" height=\"750\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/c4b23765-856a-430e-ace3-76a8da8b8f92.jpg\" alt=\"\" width=\"750\" height=\"750\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/0746d8ea-3fd2-40c9-9b78-6c197d81d3d2.jpg\" alt=\"\" width=\"750\" height=\"750\" /&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.lihvip.com/data/upload_file/img/20190624/5c40f6f4-ef76-4a9f-b0fd-921307b7bb6b.jpg\" alt=\"\" width=\"750\" height=\"750\" /&gt;&lt;/p&gt;","goodsTypeName":"箱包皮具","manufactName":"厦门代理商","orderWeight":1,"goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}],"goodsPeriod":"","specifications":[{"specs":"件"},{"specs":"23"}]},{"id":272,"isSellWell":"YES","isShelves":"NO","isPresell":"NO","presellBeginTime":"2019-08-02 00:00:00","presellEndTime":"2019-08-09 00:00:00","goodsTypeKey":"healthProducts","name":"新秀丽 （ Samsonite ）商务休闲 双肩背包（蓝色）","stock":100000,"sale":0,"cycle":30,"property":"[{\"title\":\"商品编号\",\"value\":\"642*75020\"},{\"title\":\"品牌\",\"value\":\"新秀丽 （ Samsonite ）\"}]","salePrice":488.00,"marketPrice":680.00,"entrustPrice":490.44,"discount":0.00,"discountType":"ReduceAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.lihvip.com/data/upload_file/img/20190530/19b85dcf-96b2-446a-841b-cb5392b95a5b.jpg","showImgs":["https://file.lihvip.com/data/upload_file/img/20190530/961359b3-884c-4147-a9c4-12c9aa726b1f.jpg","https://file.lihvip.com/data/upload_file/img/20190530/951d7dfe-c71c-4a3b-bffa-0e493177a3e4.jpg"],"isDel":"NO","createTime":"2019-05-30 18:13:27","describe":"&lt;p&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/55b9fc6d-4a51-453f-980d-ed4b48d02803.jpg\" alt=\"\" width=\"1200\" height=\"4021\" /&gt;&lt;/p&gt;","goodsTypeName":"箱包皮具","manufactName":"深港通/华悦","orderWeight":1,"goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}],"goodsPeriod":"","specifications":[{"specs":"件"},{"specs":"23"}]},{"id":266,"isSellWell":"YES","isShelves":"NO","isPresell":"YES","presellBeginTime":"2019-08-02 00:00:00","presellEndTime":"2019-08-09 00:00:00","goodsTypeKey":"healthProducts","name":"VERSACE COLLECTION腰带(棕色）","stock":99998,"sale":1,"cycle":30,"property":"[{\"title\":\"商品型号\",\"value\":\"V91192S VM00046  V239 100\"},{\"title\":\"品牌\",\"value\":\"VERSACE COLLECTION\"}]","salePrice":1152.00,"marketPrice":1600.00,"entrustPrice":1157.76,"discount":0.00,"discountType":"ReduceAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.lihvip.com/data/upload_file/img/20190530/090a3048-348e-4d64-a2b7-9cb0f141b47d.jpg","showImgs":["https://file.lihvip.com/data/upload_file/img/20190530/c8667bfc-8474-4db9-8761-ad4bdc5b117c.jpg","https://file.lihvip.com/data/upload_file/img/20190530/b762a847-9725-4b0f-aa3a-fe65c9e11427.jpg","https://file.lihvip.com/data/upload_file/img/20190530/6f449cde-5b17-4e39-bcd8-fea12a147614.jpg","https://file.lihvip.com/data/upload_file/img/20190530/e290f36e-3c15-43d8-be8d-909b3b15561d.jpg"],"isDel":"NO","createTime":"2019-05-30 16:59:26","describe":"&lt;p&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/d1010b5d-5a02-4abd-b626-c3431a0f9ce4.jpg\" alt=\"\" width=\"1200\" height=\"362\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/b39e6c09-5c63-466a-b60d-480f5796072d.jpg\" alt=\"\" width=\"1200\" height=\"850\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/282ef933-d0ac-4865-ad4f-cd3639d97286.png\" alt=\"\" width=\"1200\" height=\"2170\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/4532a0aa-4233-4fac-8b10-2fc75d2b0985.png\" alt=\"\" width=\"1200\" height=\"2782\" /&gt;&lt;/p&gt;","goodsTypeName":"箱包皮具","manufactName":"深港通/华悦","orderWeight":1,"goodsLabel":[],"goodsPeriod":"","specifications":[{"specs":"件"},{"specs":"23"}]},{"id":665,"isSellWell":"NO","isShelves":"NO","isPresell":"NO","goodsTypeKey":"zhubao","name":"toy toy toy","stock":100000,"sale":0,"property":"[{\"title\":\"商品型号\",\"value\":\"唐宋元明清\"},{\"title\":\"品牌\",\"value\":\"皇家专用\"}]","salePrice":100.00,"marketPrice":1600.00,"entrustPrice":0.00,"discount":0.00,"discountType":"NoAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.test.lihvip.com/data/upload_file/img/20190807/46df0f68-7f91-43e1-bcd4-0d30dd9e430b.jpg","showImgs":["https://file.test.lihvip.com/data/upload_file/img/20190807/46df0f68-7f91-43e1-bcd4-0d30dd9e430b.jpg","https://file.test.lihvip.com/data/upload_file/img/20190807/e21f9046-a27f-44c5-9bf8-76602733eb0a.jpg","https://file.test.lihvip.com/data/upload_file/img/20190807/e8900198-ff78-4150-b65e-9d9522e87360.jpg","https://file.test.lihvip.com/data/upload_file/img/20190807/3f4e7549-8263-4f3e-b64b-0e143bcca285.jpg"],"isDel":"NO","createTime":"2019-08-14 09:41:55","describe":"&lt;p&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/a5011d25-fe51-47d4-a0f0-51174f01d9d1.jpg\" alt=\"\" width=\"1200\" height=\"362\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/1623c254-e77e-4d22-a776-273e2111fbdc.png\" alt=\"\" width=\"1200\" height=\"2256\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/ce00686f-6305-44af-9da7-df052019dd8a.png\" alt=\"\" width=\"1200\" height=\"1854\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/bb893f0e-db37-447c-8343-f7c618c9eb81.png\" alt=\"\" width=\"1200\" height=\"1110\" /&gt;&lt;/p&gt;","goodsTypeName":"珠宝","manufactName":"深港通/华悦","orderWeight":0,"goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}],"specifications":[{"specs":"唐"},{"specs":"宋"},{"specs":"元"},{"specs":"明"}]},{"id":663,"isSellWell":"NO","isShelves":"NO","isPresell":"NO","goodsTypeKey":"zhubao","name":"toy toy toy","stock":100000,"sale":0,"property":"[{\"title\":\"商品型号\",\"value\":\"唐宋元明清\"},{\"title\":\"品牌\",\"value\":\"皇家专用\"}]","salePrice":100.00,"marketPrice":1600.00,"entrustPrice":0.00,"discount":0.00,"discountType":"NoAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.test.lihvip.com/data/upload_file/img/20190807/46df0f68-7f91-43e1-bcd4-0d30dd9e430b.jpg","showImgs":["https://file.test.lihvip.com/data/upload_file/img/20190807/46df0f68-7f91-43e1-bcd4-0d30dd9e430b.jpg","https://file.test.lihvip.com/data/upload_file/img/20190807/e21f9046-a27f-44c5-9bf8-76602733eb0a.jpg","https://file.test.lihvip.com/data/upload_file/img/20190807/e8900198-ff78-4150-b65e-9d9522e87360.jpg","https://file.test.lihvip.com/data/upload_file/img/20190807/3f4e7549-8263-4f3e-b64b-0e143bcca285.jpg"],"isDel":"NO","createTime":"2019-08-12 11:20:29","describe":"&lt;p&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/a5011d25-fe51-47d4-a0f0-51174f01d9d1.jpg\" alt=\"\" width=\"1200\" height=\"362\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/1623c254-e77e-4d22-a776-273e2111fbdc.png\" alt=\"\" width=\"1200\" height=\"2256\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/ce00686f-6305-44af-9da7-df052019dd8a.png\" alt=\"\" width=\"1200\" height=\"1854\" /&gt;&lt;img src=\"https://file.lihvip.com/data/upload_file/img/20190530/bb893f0e-db37-447c-8343-f7c618c9eb81.png\" alt=\"\" width=\"1200\" height=\"1110\" /&gt;&lt;/p&gt;","goodsTypeName":"珠宝","manufactName":"深港通/华悦","orderWeight":0,"goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"},{"id":2,"isDisplay":"YES","labelTag":"f75b1edc17754d97","name":"正品保障"},{"id":3,"isDisplay":"YES","labelTag":"82747624b4734081","name":"超值折扣"}],"specifications":[{"specs":"唐"},{"specs":"宋"},{"specs":"元"},{"specs":"明"}]},{"id":662,"isSellWell":"YES","isShelves":"NO","isPresell":"NO","presellBeginTime":"2019-08-02 00:00:00","presellEndTime":"2019-08-09 00:00:00","goodsTypeKey":"eb772147bd98458b","name":"8.12测试商品","stock":100000,"sale":0,"property":"[{\"title\":\"1\",\"value\":\"1\"}]","salePrice":500.00,"marketPrice":5000.00,"entrustPrice":0.00,"discount":0.00,"discountType":"NoAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.test.lihvip.com/data/upload_file/img/20190812/f71d0916-0211-4120-a412-b2f9e8d451fa.png","showImgs":["https://file.test.lihvip.com/data/upload_file/img/20190812/aaea2653-4d18-446a-859b-c79a7fb27ba2.png"],"isDel":"NO","createTime":"2019-08-12 10:57:00","describe":"&lt;p&gt;12121212&lt;/p&gt;","goodsTypeName":"香水彩妆","manufactName":"燕之屋","orderWeight":0,"goodsLabel":[],"specifications":[{"specs":"测试"}]},{"id":661,"isSellWell":"YES","isShelves":"NO","isPresell":"NO","presellBeginTime":"2019-08-02 00:00:00","presellEndTime":"2019-08-09 00:00:00","goodsTypeKey":"ac4bf0bb669d46f8","name":"标题-新品","stock":99990,"sale":0,"property":"[{\"title\":\"对对对\",\"value\":\"嗖嗖嗖\"}]","salePrice":1233.00,"marketPrice":2321.00,"entrustPrice":0.00,"discount":0.00,"discountType":"NoAgio","firstFreight":0.00,"noFirstFreight":0.00,"coverImg":"https://file.test.lihvip.com/data/upload_file/img/20190809/2e251258-97c4-4480-8303-ad4bf073b34e.jpg","showImgs":["https://file.test.lihvip.com/data/upload_file/img/20190809/5f1ca96b-5e8d-4ebf-b395-773521713539.jpg"],"isDel":"NO","createTime":"2019-08-09 16:02:54","describe":"&lt;p&gt;&lt;img style=\"display: block; margin-left: auto; margin-right: auto;\" src=\"https://file.test.lihvip.com/data/upload_file/img/20190809/bd6c9b0f-61f4-4ab6-971e-846c01d1307a.jpg\" alt=\"\" width=\"750\" height=\"4381\" /&gt;&lt;/p&gt;","goodsTypeName":"生活用品","manufactName":"深港通/华悦","orderWeight":0,"goodsLabel":[{"id":1,"isDisplay":"YES","labelTag":"1cc4e4fe25ad4ee8","name":"假一赔十"}],"specifications":[{"specs":"点点滴滴"}]}],"currentNum":1,"pageSize":10}}</t>
         </is>
       </c>
-      <c r="J11" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="12" s="9">
-      <c r="A12" s="18" t="n">
+      <c r="J11" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="12" s="22">
+      <c r="A12" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="22" t="inlineStr">
+      <c r="B12" s="21" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C12" s="22" t="inlineStr">
+      <c r="C12" s="21" t="inlineStr">
         <is>
           <t>商品列表</t>
         </is>
       </c>
-      <c r="D12" s="22" t="inlineStr">
+      <c r="D12" s="21" t="inlineStr">
         <is>
           <t>sys/goods/list</t>
         </is>
       </c>
-      <c r="E12" s="22" t="inlineStr">
+      <c r="E12" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F12" s="19" t="inlineStr">
+      <c r="F12" s="18" t="inlineStr">
         <is>
           <t>{
     "pageNum": "1",
@@ -1541,37 +1542,37 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I12" s="22" t="inlineStr">
+      <c r="I12" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="J12" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="13" s="9">
-      <c r="A13" s="18" t="n">
+      <c r="J12" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="13" s="22">
+      <c r="A13" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="22" t="inlineStr">
+      <c r="B13" s="21" t="inlineStr">
         <is>
           <t>main_process</t>
         </is>
       </c>
-      <c r="C13" s="22" t="inlineStr">
+      <c r="C13" s="21" t="inlineStr">
         <is>
           <t>上架商品</t>
         </is>
       </c>
-      <c r="D13" s="22" t="inlineStr">
+      <c r="D13" s="21" t="inlineStr">
         <is>
           <t>sys/goods/save</t>
         </is>
       </c>
-      <c r="E13" s="22" t="inlineStr">
+      <c r="E13" s="21" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -1581,12 +1582,12 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I13" s="22" t="inlineStr">
+      <c r="I13" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="J13" s="22" t="inlineStr">
+      <c r="J13" s="21" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1612,19 +1613,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="10.6328125"/>
-    <col customWidth="1" max="2" min="2" style="9" width="12.6328125"/>
-    <col customWidth="1" max="3" min="3" style="9" width="17.81640625"/>
-    <col customWidth="1" max="4" min="4" style="9" width="15.36328125"/>
-    <col customWidth="1" max="5" min="5" style="9" width="9.81640625"/>
-    <col customWidth="1" max="6" min="6" style="9" width="27.26953125"/>
-    <col customWidth="1" max="8" min="8" style="9" width="25.453125"/>
-    <col customWidth="1" max="9" min="9" style="9" width="47.08984375"/>
-    <col customWidth="1" max="10" min="10" style="9" width="21.54296875"/>
+    <col customWidth="1" max="1" min="1" style="22" width="10.6328125"/>
+    <col customWidth="1" max="2" min="2" style="22" width="12.6328125"/>
+    <col customWidth="1" max="3" min="3" style="22" width="17.81640625"/>
+    <col customWidth="1" max="4" min="4" style="22" width="15.36328125"/>
+    <col customWidth="1" max="5" min="5" style="22" width="9.81640625"/>
+    <col customWidth="1" max="6" min="6" style="22" width="27.26953125"/>
+    <col customWidth="1" max="8" min="8" style="22" width="25.453125"/>
+    <col customWidth="1" max="9" min="9" style="22" width="47.08984375"/>
+    <col customWidth="1" max="10" min="10" style="22" width="21.54296875"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21" r="1" s="22">
-      <c r="A1" s="20" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="21" r="1" s="21">
+      <c r="A1" s="19" t="inlineStr">
         <is>
           <t>CaseId</t>
         </is>
@@ -1649,7 +1650,7 @@
           <t>Method</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>Params</t>
         </is>
@@ -1669,37 +1670,37 @@
           <t>ActualResult</t>
         </is>
       </c>
-      <c r="J1" s="16" t="inlineStr">
+      <c r="J1" s="15" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="n">
+      <c r="A2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="inlineStr">
+      <c r="B2" s="21" t="inlineStr">
         <is>
           <t>isExitPhone</t>
         </is>
       </c>
-      <c r="C2" s="22" t="inlineStr">
+      <c r="C2" s="21" t="inlineStr">
         <is>
           <t>验证存在的手机号</t>
         </is>
       </c>
-      <c r="D2" s="22" t="inlineStr">
+      <c r="D2" s="21" t="inlineStr">
         <is>
           <t>isExitPhone.do</t>
         </is>
       </c>
-      <c r="E2" s="22" t="inlineStr">
+      <c r="E2" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F2" s="12" t="inlineStr">
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>{"phone":"13242045218"}</t>
         </is>
@@ -1709,48 +1710,48 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I2" s="22" t="inlineStr">
+      <c r="I2" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","isExit":true}</t>
         </is>
       </c>
-      <c r="J2" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="70" r="3" s="22">
-      <c r="A3" s="22" t="n">
+      <c r="J2" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="70" r="3" s="21">
+      <c r="A3" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="inlineStr">
+      <c r="B3" s="21" t="inlineStr">
         <is>
           <t>isExitPhone</t>
         </is>
       </c>
-      <c r="C3" s="22" t="inlineStr">
+      <c r="C3" s="21" t="inlineStr">
         <is>
           <t>验证不存在的手机号</t>
         </is>
       </c>
-      <c r="D3" s="22" t="inlineStr">
+      <c r="D3" s="21" t="inlineStr">
         <is>
           <t>isExitPhone.do</t>
         </is>
       </c>
-      <c r="E3" s="22" t="inlineStr">
+      <c r="E3" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F3" s="12" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>{"phone":"1324204521899"}</t>
         </is>
       </c>
-      <c r="G3" s="12" t="n"/>
-      <c r="H3" s="12" t="inlineStr">
+      <c r="G3" s="11" t="n"/>
+      <c r="H3" s="11" t="inlineStr">
         <is>
           <t>{
     "msg": "Mobile No. format does not match",
@@ -1758,48 +1759,48 @@
 }</t>
         </is>
       </c>
-      <c r="I3" s="22" t="inlineStr">
+      <c r="I3" s="21" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
         </is>
       </c>
-      <c r="J3" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="70" r="4" s="22">
-      <c r="A4" s="22" t="n">
+      <c r="J3" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="70" r="4" s="21">
+      <c r="A4" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="inlineStr">
+      <c r="B4" s="21" t="inlineStr">
         <is>
           <t>isExitPhone</t>
         </is>
       </c>
-      <c r="C4" s="22" t="inlineStr">
+      <c r="C4" s="21" t="inlineStr">
         <is>
           <t>验证空手机号</t>
         </is>
       </c>
-      <c r="D4" s="22" t="inlineStr">
+      <c r="D4" s="21" t="inlineStr">
         <is>
           <t>isExitPhone.do</t>
         </is>
       </c>
-      <c r="E4" s="22" t="inlineStr">
+      <c r="E4" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F4" s="12" t="inlineStr">
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>{"phone":""}</t>
         </is>
       </c>
-      <c r="G4" s="12" t="n"/>
-      <c r="H4" s="12" t="inlineStr">
+      <c r="G4" s="11" t="n"/>
+      <c r="H4" s="11" t="inlineStr">
         <is>
           <t>{
     "msg": "Mobile No. format does not match",
@@ -1807,12 +1808,12 @@
 }</t>
         </is>
       </c>
-      <c r="I4" s="22" t="inlineStr">
+      <c r="I4" s="21" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
         </is>
       </c>
-      <c r="J4" s="22" t="inlineStr">
+      <c r="J4" s="21" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1833,102 +1834,102 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="12" width="12.26953125"/>
-    <col customWidth="1" max="2" min="2" style="12" width="13.7265625"/>
-    <col customWidth="1" max="3" min="3" style="12" width="22.54296875"/>
-    <col customWidth="1" max="4" min="4" style="12" width="15.1796875"/>
-    <col customWidth="1" max="5" min="5" style="12" width="8.7265625"/>
-    <col customWidth="1" max="6" min="6" style="12" width="20.36328125"/>
-    <col customWidth="1" max="7" min="7" style="12" width="8.7265625"/>
-    <col customWidth="1" max="8" min="8" style="12" width="25.08984375"/>
-    <col customWidth="1" max="9" min="9" style="12" width="51.6328125"/>
-    <col customWidth="1" max="10" min="10" style="12" width="13.7265625"/>
-    <col customWidth="1" max="36" min="11" style="12" width="8.7265625"/>
-    <col customWidth="1" max="16384" min="37" style="12" width="8.7265625"/>
+    <col customWidth="1" max="1" min="1" style="11" width="12.26953125"/>
+    <col customWidth="1" max="2" min="2" style="11" width="13.7265625"/>
+    <col customWidth="1" max="3" min="3" style="11" width="22.54296875"/>
+    <col customWidth="1" max="4" min="4" style="11" width="15.1796875"/>
+    <col customWidth="1" max="5" min="5" style="11" width="8.7265625"/>
+    <col customWidth="1" max="6" min="6" style="11" width="20.36328125"/>
+    <col customWidth="1" max="7" min="7" style="11" width="8.7265625"/>
+    <col customWidth="1" max="8" min="8" style="11" width="25.08984375"/>
+    <col customWidth="1" max="9" min="9" style="11" width="51.6328125"/>
+    <col customWidth="1" max="10" min="10" style="11" width="13.7265625"/>
+    <col customWidth="1" max="46" min="11" style="11" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="47" style="11" width="8.7265625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="42" r="1" s="9">
-      <c r="A1" s="16" t="inlineStr">
+    <row customHeight="1" ht="42" r="1" s="22">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>CaseId</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>Path</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>Method</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>Params</t>
         </is>
       </c>
-      <c r="G1" s="10" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>Sql</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>ExpectedResult</t>
         </is>
       </c>
-      <c r="I1" s="10" t="inlineStr">
+      <c r="I1" s="9" t="inlineStr">
         <is>
           <t>ActualResult</t>
         </is>
       </c>
-      <c r="J1" s="16" t="inlineStr">
+      <c r="J1" s="15" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="84" r="2" s="9">
-      <c r="A2" s="12" t="n">
+    <row customHeight="1" ht="84" r="2" s="22">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>正常登录</t>
         </is>
       </c>
-      <c r="D2" s="19" t="inlineStr">
+      <c r="D2" s="18" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E2" s="19" t="inlineStr">
+      <c r="E2" s="18" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="19" t="inlineStr">
+      <c r="F2" s="18" t="inlineStr">
         <is>
           <t>{
     "password": "a12345",
@@ -1941,42 +1942,42 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I2" s="12" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000","user":{"uid":98,"name":"with wind","password":"af8f9dffa5d420fbc249141645b962ee","phone":"13242045218","status":"Normal","type":"Ordinary","createTime":"2019-08-27 17:37:46","updateTime":"2019-08-27 17:37:46","isDel":"NO"},"token":"XyAzBq-t3h-Edsjro-YMzjloF91waQhjol3iLMQBN0npD6z7iPM2BLxzGPapzNbByKvZbLN0v5LS3crLUQPD1w"}</t>
-        </is>
-      </c>
-      <c r="J2" s="12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="70" r="3" s="9">
-      <c r="A3" s="12" t="n">
+      <c r="I2" s="11" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","user":{"uid":98,"name":"with wind","password":"af8f9dffa5d420fbc249141645b962ee","phone":"13242045218","status":"Normal","type":"Ordinary","createTime":"2019-08-27 17:37:46","updateTime":"2019-08-27 17:37:46","isDel":"NO"},"token":"Uob2t_5CrT7DdpBbnGzR9lv7lsB7RgoDFjojTK6Ai4hsFjVRktK3iHM723ZxeaFIs594PdIoqXZyw1x7fv3XSA"}</t>
+        </is>
+      </c>
+      <c r="J2" s="11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="70" r="3" s="22">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>空手机号</t>
         </is>
       </c>
-      <c r="D3" s="19" t="inlineStr">
+      <c r="D3" s="18" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E3" s="19" t="inlineStr">
+      <c r="E3" s="18" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F3" s="19" t="inlineStr">
+      <c r="F3" s="18" t="inlineStr">
         <is>
           <t>{
     "password": "a12345",
@@ -1984,47 +1985,43 @@
 }</t>
         </is>
       </c>
-      <c r="H3" s="12" t="inlineStr">
+      <c r="H3" s="11" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. is required","code":"1000"}</t>
         </is>
       </c>
-      <c r="I3" s="12" t="inlineStr">
-        <is>
-          <t>{"msg":"Mobile No. is required","code":"1000"}</t>
-        </is>
-      </c>
-      <c r="J3" s="12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="84" r="4" s="9">
-      <c r="A4" s="12" t="n">
+      <c r="I3" s="21" t="inlineStr"/>
+      <c r="J3" s="11" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="84" r="4" s="22">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>错误手机号</t>
         </is>
       </c>
-      <c r="D4" s="19" t="inlineStr">
+      <c r="D4" s="18" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E4" s="19" t="inlineStr">
+      <c r="E4" s="18" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="19" t="inlineStr">
+      <c r="F4" s="18" t="inlineStr">
         <is>
           <t>{
     "password": "a12345",
@@ -2032,7 +2029,7 @@
 }</t>
         </is>
       </c>
-      <c r="H4" s="12" t="inlineStr">
+      <c r="H4" s="11" t="inlineStr">
         <is>
           <t>{
     "msg": "Mobile No. format does not match",
@@ -2040,42 +2037,42 @@
 }</t>
         </is>
       </c>
-      <c r="I4" s="12" t="inlineStr">
+      <c r="I4" s="11" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
         </is>
       </c>
-      <c r="J4" s="12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="70" r="5" s="9">
-      <c r="A5" s="12" t="n">
+      <c r="J4" s="11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="70" r="5" s="22">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>空密码</t>
         </is>
       </c>
-      <c r="D5" s="19" t="inlineStr">
+      <c r="D5" s="18" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E5" s="19" t="inlineStr">
+      <c r="E5" s="18" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="19" t="inlineStr">
+      <c r="F5" s="18" t="inlineStr">
         <is>
           <t>{
     "password": "",
@@ -2083,47 +2080,47 @@
 }</t>
         </is>
       </c>
-      <c r="H5" s="22" t="inlineStr">
+      <c r="H5" s="21" t="inlineStr">
         <is>
           <t>{"msg":"Password is required","code":"1000"}</t>
         </is>
       </c>
-      <c r="I5" s="22" t="inlineStr">
+      <c r="I5" s="21" t="inlineStr">
         <is>
           <t>{"msg":"Password is required","code":"1000"}</t>
         </is>
       </c>
-      <c r="J5" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="98" r="6" s="9">
-      <c r="A6" s="12" t="n">
+      <c r="J5" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="98" r="6" s="22">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>错误密码</t>
         </is>
       </c>
-      <c r="D6" s="19" t="inlineStr">
+      <c r="D6" s="18" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E6" s="19" t="inlineStr">
+      <c r="E6" s="18" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="19" t="inlineStr">
+      <c r="F6" s="18" t="inlineStr">
         <is>
           <t>{
     "password": "a1234sd541f5sd4f5",
@@ -2131,47 +2128,47 @@
 }</t>
         </is>
       </c>
-      <c r="H6" s="22" t="inlineStr">
+      <c r="H6" s="21" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. and password do not match","code":"1006"}</t>
         </is>
       </c>
-      <c r="I6" s="22" t="inlineStr">
+      <c r="I6" s="21" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. and password do not match","code":"1006"}</t>
         </is>
       </c>
-      <c r="J6" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="84" r="7" s="9">
-      <c r="A7" s="12" t="n">
+      <c r="J6" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="84" r="7" s="22">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C7" s="12" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>错误手机号/密码</t>
         </is>
       </c>
-      <c r="D7" s="19" t="inlineStr">
+      <c r="D7" s="18" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E7" s="19" t="inlineStr">
+      <c r="E7" s="18" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F7" s="19" t="inlineStr">
+      <c r="F7" s="18" t="inlineStr">
         <is>
           <t>{
     "password": "a123sd3f5445",
@@ -2179,47 +2176,47 @@
 }</t>
         </is>
       </c>
-      <c r="H7" s="22" t="inlineStr">
+      <c r="H7" s="21" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
         </is>
       </c>
-      <c r="I7" s="22" t="inlineStr">
+      <c r="I7" s="21" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. format does not match","code":"1000"}</t>
         </is>
       </c>
-      <c r="J7" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="8" s="9">
-      <c r="A8" s="12" t="n">
+      <c r="J7" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="8" s="22">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C8" s="12" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>空手机号/密码</t>
         </is>
       </c>
-      <c r="D8" s="19" t="inlineStr">
+      <c r="D8" s="18" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E8" s="19" t="inlineStr">
+      <c r="E8" s="18" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F8" s="19" t="inlineStr">
+      <c r="F8" s="18" t="inlineStr">
         <is>
           <t>{
     "password": "",
@@ -2227,17 +2224,17 @@
 }</t>
         </is>
       </c>
-      <c r="H8" s="22" t="inlineStr">
+      <c r="H8" s="21" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. is required","code":"1000"}</t>
         </is>
       </c>
-      <c r="I8" s="22" t="inlineStr">
+      <c r="I8" s="21" t="inlineStr">
         <is>
           <t>{"msg":"Mobile No. is required","code":"1000"}</t>
         </is>
       </c>
-      <c r="J8" s="22" t="inlineStr">
+      <c r="J8" s="21" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2263,94 +2260,94 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="14.453125"/>
-    <col customWidth="1" max="2" min="2" style="9" width="10.90625"/>
-    <col customWidth="1" max="3" min="3" style="9" width="22.26953125"/>
-    <col customWidth="1" max="4" min="4" style="9" width="51.26953125"/>
-    <col customWidth="1" max="5" min="5" style="9" width="11.81640625"/>
-    <col customWidth="1" max="6" min="6" style="9" width="39.54296875"/>
-    <col customWidth="1" max="8" min="8" style="9" width="29.1796875"/>
-    <col customWidth="1" max="9" min="9" style="9" width="28.1796875"/>
-    <col customWidth="1" max="10" min="10" style="9" width="19.1796875"/>
+    <col customWidth="1" max="1" min="1" style="22" width="14.453125"/>
+    <col customWidth="1" max="2" min="2" style="22" width="10.90625"/>
+    <col customWidth="1" max="3" min="3" style="22" width="22.26953125"/>
+    <col customWidth="1" max="4" min="4" style="22" width="51.26953125"/>
+    <col customWidth="1" max="5" min="5" style="22" width="11.81640625"/>
+    <col customWidth="1" max="6" min="6" style="22" width="39.54296875"/>
+    <col customWidth="1" max="8" min="8" style="22" width="29.1796875"/>
+    <col customWidth="1" max="9" min="9" style="22" width="28.1796875"/>
+    <col customWidth="1" max="10" min="10" style="22" width="19.1796875"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="42" r="1" s="17">
-      <c r="A1" s="16" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="42" r="1" s="16">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>CaseId</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="D1" s="16" t="inlineStr">
+      <c r="D1" s="15" t="inlineStr">
         <is>
           <t>Path</t>
         </is>
       </c>
-      <c r="E1" s="16" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>Method</t>
         </is>
       </c>
-      <c r="F1" s="16" t="inlineStr">
+      <c r="F1" s="15" t="inlineStr">
         <is>
           <t>Params</t>
         </is>
       </c>
-      <c r="G1" s="16" t="inlineStr">
+      <c r="G1" s="15" t="inlineStr">
         <is>
           <t>Sql</t>
         </is>
       </c>
-      <c r="H1" s="16" t="inlineStr">
+      <c r="H1" s="15" t="inlineStr">
         <is>
           <t>ExpectedResult</t>
         </is>
       </c>
-      <c r="I1" s="16" t="inlineStr">
+      <c r="I1" s="15" t="inlineStr">
         <is>
           <t>ActualResult</t>
         </is>
       </c>
-      <c r="J1" s="16" t="inlineStr">
+      <c r="J1" s="15" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="56" r="2" s="9">
-      <c r="A2" s="22" t="n">
+    <row customHeight="1" ht="56" r="2" s="22">
+      <c r="A2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="inlineStr">
+      <c r="B2" s="21" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="C2" s="22" t="inlineStr">
+      <c r="C2" s="21" t="inlineStr">
         <is>
           <t>公告第一页</t>
         </is>
       </c>
-      <c r="D2" s="22" t="inlineStr">
+      <c r="D2" s="21" t="inlineStr">
         <is>
           <t>notice/getNoticeList.do</t>
         </is>
       </c>
-      <c r="E2" s="22" t="inlineStr">
+      <c r="E2" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F2" s="12" t="inlineStr">
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>{
     "pageSize": "10",
@@ -2359,47 +2356,47 @@
 }</t>
         </is>
       </c>
-      <c r="H2" s="22" t="inlineStr">
+      <c r="H2" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I2" s="22" t="inlineStr">
+      <c r="I2" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","notice":{"count":12,"pages":2,"data":[{"nid":12,"title":"9还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:11:52","updateTime":"2019-09-25 14:57:58","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":11,"title":"8还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:11:47","updateTime":"2019-09-23 02:12:05","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":10,"title":"7还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:11:43","updateTime":"2019-09-23 02:12:07","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":9,"title":"6还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:48","updateTime":"2019-09-23 02:11:03","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":8,"title":"5还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:44","updateTime":"2019-09-23 02:11:01","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":7,"title":"4还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:39","updateTime":"2019-09-23 02:11:00","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":6,"title":"3还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:32","updateTime":"2019-09-23 02:10:59","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":5,"title":"2还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:29","updateTime":"2019-09-23 02:10:57","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":4,"title":"1还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:25","updateTime":"2019-09-23 02:10:55","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":3,"title":"还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:09:51","updateTime":"2019-09-23 02:10:05","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"}],"currentNum":1,"pageSize":10}}</t>
         </is>
       </c>
-      <c r="J2" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="3" s="9">
-      <c r="A3" s="22" t="n">
+      <c r="J2" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="3" s="22">
+      <c r="A3" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="inlineStr">
+      <c r="B3" s="21" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="C3" s="22" t="inlineStr">
+      <c r="C3" s="21" t="inlineStr">
         <is>
           <t>公告最后一页</t>
         </is>
       </c>
-      <c r="D3" s="22" t="inlineStr">
+      <c r="D3" s="21" t="inlineStr">
         <is>
           <t>notice/getNoticeList.do</t>
         </is>
       </c>
-      <c r="E3" s="22" t="inlineStr">
+      <c r="E3" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F3" s="12" t="inlineStr">
+      <c r="F3" s="11" t="inlineStr">
         <is>
           <t>{
     "pageSize": "10",
@@ -2407,47 +2404,47 @@
 }</t>
         </is>
       </c>
-      <c r="H3" s="22" t="inlineStr">
+      <c r="H3" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I3" s="22" t="inlineStr">
+      <c r="I3" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","notice":{"count":12,"pages":2,"data":[{"nid":2,"title":"还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-18 09:37:10","updateTime":"2019-09-18 07:09:38","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":1,"title":"公告标题呀","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-17 16:50:40","updateTime":"2019-09-18 07:09:51","isDel":"NO","content":"曾经年少爱追梦\n一心只想往前飞\n寻遍千山和万水\n一路走来不能回\n蓦然回首情已远\n身不由己在天边\n才明白爱恨情仇\n最痛最伤是后悔\n"}],"currentNum":2,"pageSize":10}}</t>
         </is>
       </c>
-      <c r="J3" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="4" s="9">
-      <c r="A4" s="22" t="n">
+      <c r="J3" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="4" s="22">
+      <c r="A4" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="inlineStr">
+      <c r="B4" s="21" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="C4" s="22" t="inlineStr">
+      <c r="C4" s="21" t="inlineStr">
         <is>
           <t>公告一页查询全部</t>
         </is>
       </c>
-      <c r="D4" s="22" t="inlineStr">
+      <c r="D4" s="21" t="inlineStr">
         <is>
           <t>notice/getNoticeList.do</t>
         </is>
       </c>
-      <c r="E4" s="22" t="inlineStr">
+      <c r="E4" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F4" s="12" t="inlineStr">
+      <c r="F4" s="11" t="inlineStr">
         <is>
           <t>{
     "pageSize": "999",
@@ -2456,47 +2453,47 @@
 }</t>
         </is>
       </c>
-      <c r="H4" s="22" t="inlineStr">
+      <c r="H4" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I4" s="22" t="inlineStr">
+      <c r="I4" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000","notice":{"count":12,"pages":1,"data":[{"nid":12,"title":"9还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:11:52","updateTime":"2019-09-25 14:57:58","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":11,"title":"8还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:11:47","updateTime":"2019-09-23 02:12:05","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":10,"title":"7还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:11:43","updateTime":"2019-09-23 02:12:07","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":9,"title":"6还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:48","updateTime":"2019-09-23 02:11:03","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":8,"title":"5还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:44","updateTime":"2019-09-23 02:11:01","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":7,"title":"4还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:39","updateTime":"2019-09-23 02:11:00","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":6,"title":"3还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:32","updateTime":"2019-09-23 02:10:59","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":5,"title":"2还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:29","updateTime":"2019-09-23 02:10:57","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":4,"title":"1还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:10:25","updateTime":"2019-09-23 02:10:55","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":3,"title":"还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-23 14:09:51","updateTime":"2019-09-23 02:10:05","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":2,"title":"还是一条公告","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-18 09:37:10","updateTime":"2019-09-18 07:09:38","isDel":"NO","content":"曾在我背包小小夹层里的那个人\n变成我许多年来纪念爱情的标本"},{"nid":1,"title":"公告标题呀","imp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/62a14c5c-8856-4f28-b3c4-b07d5828bcd6.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/3b74f092-fac3-4bc6-a55e-09dce9236537.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/4d2d1199-1517-4cf2-83fb-5bc5152912a9.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/c150020a-70b1-4c6e-9d77-04be36bb2665.jpg,http://file.test.lihuitreasure.com/data/upload_file/img/20190925/20335dfb-b55c-457a-9d3e-2acab56c5f01.jpg","status":"UpperShelf","createTime":"2019-09-17 16:50:40","updateTime":"2019-09-18 07:09:51","isDel":"NO","content":"曾经年少爱追梦\n一心只想往前飞\n寻遍千山和万水\n一路走来不能回\n蓦然回首情已远\n身不由己在天边\n才明白爱恨情仇\n最痛最伤是后悔\n"}],"currentNum":1,"pageSize":999}}</t>
         </is>
       </c>
-      <c r="J4" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="5" s="9">
-      <c r="A5" s="22" t="n">
+      <c r="J4" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="5" s="22">
+      <c r="A5" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="inlineStr">
+      <c r="B5" s="21" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="C5" s="22" t="inlineStr">
+      <c r="C5" s="21" t="inlineStr">
         <is>
           <t>中奖通知第一页</t>
         </is>
       </c>
-      <c r="D5" s="22" t="inlineStr">
+      <c r="D5" s="21" t="inlineStr">
         <is>
           <t>winningAnnouncement/getWinningAnnouncementList.do</t>
         </is>
       </c>
-      <c r="E5" s="22" t="inlineStr">
+      <c r="E5" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F5" s="12" t="inlineStr">
+      <c r="F5" s="11" t="inlineStr">
         <is>
           <t>{
     "pageSize": "10",
@@ -2504,47 +2501,47 @@
 }</t>
         </is>
       </c>
-      <c r="H5" s="22" t="inlineStr">
+      <c r="H5" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I5" s="22" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000","notice":{"count":100,"pages":10,"data":[{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001922","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001730","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":12,"uname":"robot No.12","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001659","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001541","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":6,"uname":"robot No.6","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001513","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":6,"uname":"robot No.6","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001643","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001534","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":7,"uname":"robot No.7","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001777","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":4,"uname":"robot No.4","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001540","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001521","lotteryTime":"2019-09-30 14:00:11","period":556}],"currentNum":1,"pageSize":10}}</t>
-        </is>
-      </c>
-      <c r="J5" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="6" s="9">
-      <c r="A6" s="22" t="n">
+      <c r="I5" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","notice":{"count":100,"pages":10,"data":[{"wid":13212,"uid":4,"uname":"robot No.4","shopId":155,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001898","createTime":"2019-10-10 07:59:40","updateTime":"2019-10-10 07:59:40","isDel":"NO","lotteryTime":"2019-10-10 07:59:37","period":3497},{"wid":13211,"uid":112,"uname":"robot No.18","shopId":157,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001691","createTime":"2019-10-10 07:59:40","updateTime":"2019-10-10 07:59:40","isDel":"NO","lotteryTime":"2019-10-10 07:59:37","period":3497},{"wid":13210,"uid":4,"uname":"robot No.4","shopId":156,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001922","createTime":"2019-10-10 07:59:22","updateTime":"2019-10-10 07:59:22","isDel":"NO","lotteryTime":"2019-10-10 07:59:19","period":3497},{"wid":13209,"uid":6,"uname":"robot No.6","shopId":159,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001693","createTime":"2019-10-10 07:59:22","updateTime":"2019-10-10 07:59:22","isDel":"NO","lotteryTime":"2019-10-10 07:59:19","period":3497},{"wid":13208,"uid":95,"uname":"robot No.15","shopId":137,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001757","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768},{"wid":13207,"uid":93,"uname":"robot No.14","shopId":136,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001985","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768},{"wid":13206,"uid":11,"uname":"robot No.11","shopId":144,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001822","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768},{"wid":13205,"uid":110,"uname":"robot No.16","shopId":162,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001894","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 07:59:13","period":3497},{"wid":13204,"uid":7,"uname":"robot No.7","shopId":135,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001611","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768},{"wid":13203,"uid":5,"uname":"robot No.5","shopId":140,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001698","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768}],"currentNum":1,"pageSize":10}}</t>
+        </is>
+      </c>
+      <c r="J5" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="6" s="22">
+      <c r="A6" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="inlineStr">
+      <c r="B6" s="21" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="C6" s="22" t="inlineStr">
+      <c r="C6" s="21" t="inlineStr">
         <is>
           <t>中奖通知最后一页</t>
         </is>
       </c>
-      <c r="D6" s="22" t="inlineStr">
+      <c r="D6" s="21" t="inlineStr">
         <is>
           <t>winningAnnouncement/getWinningAnnouncementList.do</t>
         </is>
       </c>
-      <c r="E6" s="22" t="inlineStr">
+      <c r="E6" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F6" s="12" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>{
     "pageSize": "10",
@@ -2553,47 +2550,47 @@
 }</t>
         </is>
       </c>
-      <c r="H6" s="22" t="inlineStr">
+      <c r="H6" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I6" s="22" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000","notice":{"count":100,"pages":10,"data":[{"uid":8,"uname":"robot No.8","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001660","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":111,"uname":"robot No.17","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001953","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":115,"uname":"robot No.21","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001578","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":10,"uname":"robot No.10","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001685","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":93,"uname":"robot No.14","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001887","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":12,"uname":"robot No.12","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001825","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001988","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":8,"uname":"robot No.8","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001816","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001881","lotteryTime":"2019-09-30 13:40:11","period":550},{"uid":114,"uname":"robot No.20","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001825","lotteryTime":"2019-09-30 13:40:11","period":550}],"currentNum":10,"pageSize":10}}</t>
-        </is>
-      </c>
-      <c r="J6" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="7" s="9">
-      <c r="A7" s="22" t="n">
+      <c r="I6" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","notice":{"count":100,"pages":10,"data":[{"wid":13122,"uid":3,"uname":"robot No.3","shopId":136,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001527","createTime":"2019-10-10 07:42:37","updateTime":"2019-10-10 07:42:37","isDel":"NO","lotteryTime":"2019-10-10 07:43:46","period":4763},{"wid":13121,"uid":44,"uname":"robot No.13","shopId":138,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001777","createTime":"2019-10-10 07:42:37","updateTime":"2019-10-10 07:42:37","isDel":"NO","lotteryTime":"2019-10-10 07:43:46","period":4763},{"wid":13120,"uid":44,"uname":"robot No.13","shopId":135,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001807","createTime":"2019-10-10 07:42:37","updateTime":"2019-10-10 07:42:37","isDel":"NO","lotteryTime":"2019-10-10 07:43:46","period":4763},{"wid":13119,"uid":115,"uname":"robot No.21","shopId":144,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001715","createTime":"2019-10-10 07:42:37","updateTime":"2019-10-10 07:42:37","isDel":"NO","lotteryTime":"2019-10-10 07:43:46","period":4763},{"wid":13118,"uid":3,"uname":"robot No.3","shopId":142,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001909","createTime":"2019-10-10 07:42:37","updateTime":"2019-10-10 07:42:37","isDel":"NO","lotteryTime":"2019-10-10 07:43:46","period":4763},{"wid":13117,"uid":95,"uname":"robot No.15","shopId":143,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001709","createTime":"2019-10-10 07:42:37","updateTime":"2019-10-10 07:42:37","isDel":"NO","lotteryTime":"2019-10-10 07:43:46","period":4763},{"wid":13116,"uid":5,"uname":"robot No.5","shopId":137,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001617","createTime":"2019-10-10 07:42:37","updateTime":"2019-10-10 07:42:37","isDel":"NO","lotteryTime":"2019-10-10 07:43:46","period":4763},{"wid":13115,"uid":93,"uname":"robot No.14","shopId":141,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001607","createTime":"2019-10-10 07:42:37","updateTime":"2019-10-10 07:42:37","isDel":"NO","lotteryTime":"2019-10-10 07:43:46","period":4763},{"wid":13114,"uid":12,"uname":"robot No.12","shopId":140,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001556","createTime":"2019-10-10 07:42:37","updateTime":"2019-10-10 07:42:37","isDel":"NO","lotteryTime":"2019-10-10 07:43:46","period":4763},{"wid":13113,"uid":11,"uname":"robot No.11","shopId":157,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001597","createTime":"2019-10-10 07:41:28","updateTime":"2019-10-10 07:41:28","isDel":"NO","lotteryTime":"2019-10-10 07:41:25","period":3493}],"currentNum":10,"pageSize":10}}</t>
+        </is>
+      </c>
+      <c r="J6" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="7" s="22">
+      <c r="A7" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="inlineStr">
+      <c r="B7" s="21" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="C7" s="22" t="inlineStr">
+      <c r="C7" s="21" t="inlineStr">
         <is>
           <t>中奖通知一页查询全部</t>
         </is>
       </c>
-      <c r="D7" s="22" t="inlineStr">
+      <c r="D7" s="21" t="inlineStr">
         <is>
           <t>winningAnnouncement/getWinningAnnouncementList.do</t>
         </is>
       </c>
-      <c r="E7" s="22" t="inlineStr">
+      <c r="E7" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F7" s="12" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>{
     "pageSize": "999",
@@ -2602,47 +2599,47 @@
 }</t>
         </is>
       </c>
-      <c r="H7" s="22" t="inlineStr">
+      <c r="H7" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I7" s="22" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000","notice":{"count":100,"pages":1,"data":[{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001922","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001730","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":12,"uname":"robot No.12","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001659","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001541","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":6,"uname":"robot No.6","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001513","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":6,"uname":"robot No.6","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001643","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001534","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":7,"uname":"robot No.7","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001777","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":4,"uname":"robot No.4","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001540","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001521","lotteryTime":"2019-09-30 14:00:11","period":556},{"uid":113,"uname":"robot No.19","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001547","lotteryTime":"2019-09-30 13:57:17","period":395},{"uid":95,"uname":"robot No.15","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001689","lotteryTime":"2019-09-30 13:57:17","period":395},{"uid":93,"uname":"robot No.14","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001650","lotteryTime":"2019-09-30 13:57:14","period":395},{"uid":115,"uname":"robot No.21","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001900","lotteryTime":"2019-09-30 13:57:14","period":395},{"uid":3,"uname":"robot No.3","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001751","lotteryTime":"2019-09-30 13:57:11","period":395},{"uid":44,"uname":"robot No.13","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001759","lotteryTime":"2019-09-30 13:57:08","period":395},{"uid":113,"uname":"robot No.19","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001634","lotteryTime":"2019-09-30 13:57:08","period":395},{"uid":1,"uname":"robot No.1","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001559","lotteryTime":"2019-09-30 13:57:08","period":395},{"uid":9,"uname":"robot No.9","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001774","lotteryTime":"2019-09-30 13:57:05","period":395},{"uid":5,"uname":"robot No.5","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001878","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001882","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":7,"uname":"robot No.7","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001503","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":4,"uname":"robot No.4","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001776","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":4,"uname":"robot No.4","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001536","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":6,"uname":"robot No.6","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001716","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":10,"uname":"robot No.10","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001851","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":4,"uname":"robot No.4","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001579","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":111,"uname":"robot No.17","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001706","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":6,"uname":"robot No.6","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001890","lotteryTime":"2019-09-30 13:56:50","period":555},{"uid":10,"uname":"robot No.10","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001811","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":3,"uname":"robot No.3","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001756","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":113,"uname":"robot No.19","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001583","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":8,"uname":"robot No.8","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001802","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":113,"uname":"robot No.19","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001678","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":12,"uname":"robot No.12","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001705","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":44,"uname":"robot No.13","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001892","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":4,"uname":"robot No.4","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001823","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":10,"uname":"robot No.10","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001813","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":115,"uname":"robot No.21","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001606","lotteryTime":"2019-09-30 13:53:32","period":554},{"uid":8,"uname":"robot No.8","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001516","lotteryTime":"2019-09-30 13:52:47","period":394},{"uid":1,"uname":"robot No.1","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001752","lotteryTime":"2019-09-30 13:52:47","period":394},{"uid":1,"uname":"robot No.1","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001970","lotteryTime":"2019-09-30 13:52:45","period":261},{"uid":93,"uname":"robot No.14","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001811","lotteryTime":"2019-09-30 13:52:44","period":394},{"uid":93,"uname":"robot No.14","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001589","lotteryTime":"2019-09-30 13:52:44","period":394},{"uid":1,"uname":"robot No.1","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001845","lotteryTime":"2019-09-30 13:52:41","period":394},{"uid":9,"uname":"robot No.9","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001682","lotteryTime":"2019-09-30 13:52:38","period":394},{"uid":11,"uname":"robot No.11","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001901","lotteryTime":"2019-09-30 13:52:38","period":394},{"uid":113,"uname":"robot No.19","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001695","lotteryTime":"2019-09-30 13:52:38","period":394},{"uid":95,"uname":"robot No.15","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001563","lotteryTime":"2019-09-30 13:52:35","period":394},{"uid":44,"uname":"robot No.13","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001821","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":11,"uname":"robot No.11","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001535","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":114,"uname":"robot No.20","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001533","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":111,"uname":"robot No.17","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001569","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":111,"uname":"robot No.17","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001959","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":7,"uname":"robot No.7","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001791","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":112,"uname":"robot No.18","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001727","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":115,"uname":"robot No.21","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001641","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":4,"uname":"robot No.4","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001946","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":7,"uname":"robot No.7","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001933","lotteryTime":"2019-09-30 13:50:11","period":553},{"uid":113,"uname":"robot No.19","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001705","lotteryTime":"2019-09-30 13:48:17","period":393},{"uid":5,"uname":"robot No.5","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001628","lotteryTime":"2019-09-30 13:48:17","period":393},{"uid":95,"uname":"robot No.15","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001916","lotteryTime":"2019-09-30 13:48:14","period":393},{"uid":7,"uname":"robot No.7","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001504","lotteryTime":"2019-09-30 13:48:14","period":393},{"uid":115,"uname":"robot No.21","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001586","lotteryTime":"2019-09-30 13:48:11","period":393},{"uid":7,"uname":"robot No.7","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001656","lotteryTime":"2019-09-30 13:48:08","period":393},{"uid":95,"uname":"robot No.15","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001639","lotteryTime":"2019-09-30 13:48:08","period":393},{"uid":8,"uname":"robot No.8","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001619","lotteryTime":"2019-09-30 13:48:08","period":393},{"uid":2,"uname":"robot No.2","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001634","lotteryTime":"2019-09-30 13:48:05","period":393},{"uid":110,"uname":"robot No.16","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001785","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":95,"uname":"robot No.15","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001732","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":44,"uname":"robot No.13","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001554","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":8,"uname":"robot No.8","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001688","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":114,"uname":"robot No.20","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001900","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":9,"uname":"robot No.9","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001562","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":1,"uname":"robot No.1","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001543","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":5,"uname":"robot No.5","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001700","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":115,"uname":"robot No.21","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001899","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":110,"uname":"robot No.16","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001881","lotteryTime":"2019-09-30 13:46:50","period":552},{"uid":95,"uname":"robot No.15","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001510","lotteryTime":"2019-09-30 13:45:48","period":260},{"uid":10,"uname":"robot No.10","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001598","lotteryTime":"2019-09-30 13:43:47","period":392},{"uid":110,"uname":"robot No.16","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001536","lotteryTime":"2019-09-30 13:43:47","period":392},{"uid":10,"uname":"robot No.10","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001533","lotteryTime":"2019-09-30 13:43:44","period":392},{"uid":5,"uname":"robot No.5","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001916","lotteryTime":"2019-09-30 13:43:44","period":392},{"uid":4,"uname":"robot No.4","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001686","lotteryTime":"2019-09-30 13:43:41","period":392},{"uid":113,"uname":"robot No.19","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001862","lotteryTime":"2019-09-30 13:43:38","period":392},{"uid":12,"uname":"robot No.12","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001578","lotteryTime":"2019-09-30 13:43:38","period":392},{"uid":113,"uname":"robot No.19","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001642","lotteryTime":"2019-09-30 13:43:38","period":392},{"uid":8,"uname":"robot No.8","shopId":12,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001572","lotteryTime":"2019-09-30 13:43:35","period":392},{"uid":6,"uname":"robot No.6","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001976","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":7,"uname":"robot No.7","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001836","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":8,"uname":"robot No.8","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001660","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":111,"uname":"robot No.17","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001953","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":115,"uname":"robot No.21","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001578","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":10,"uname":"robot No.10","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001685","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":93,"uname":"robot No.14","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001887","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":12,"uname":"robot No.12","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001825","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001988","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":8,"uname":"robot No.8","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001816","lotteryTime":"2019-09-30 13:43:32","period":551},{"uid":2,"uname":"robot No.2","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001881","lotteryTime":"2019-09-30 13:40:11","period":550},{"uid":114,"uname":"robot No.20","shopId":13,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001825","lotteryTime":"2019-09-30 13:40:11","period":550}],"currentNum":1,"pageSize":999}}</t>
-        </is>
-      </c>
-      <c r="J7" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="8" s="9">
-      <c r="A8" s="22" t="n">
+      <c r="I7" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","notice":{"count":100,"pages":1,"data":[{"wid":13212,"uid":4,"uname":"robot No.4","shopId":155,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001898","createTime":"2019-10-10 07:59:40","updateTime":"2019-10-10 07:59:40","isDel":"NO","lotteryTime":"2019-10-10 07:59:37","period":3497},{"wid":13211,"uid":112,"uname":"robot No.18","shopId":157,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001691","createTime":"2019-10-10 07:59:40","updateTime":"2019-10-10 07:59:40","isDel":"NO","lotteryTime":"2019-10-10 07:59:37","period":3497},{"wid":13210,"uid":4,"uname":"robot No.4","shopId":156,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001922","createTime":"2019-10-10 07:59:22","updateTime":"2019-10-10 07:59:22","isDel":"NO","lotteryTime":"2019-10-10 07:59:19","period":3497},{"wid":13209,"uid":6,"uname":"robot No.6","shopId":159,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001693","createTime":"2019-10-10 07:59:22","updateTime":"2019-10-10 07:59:22","isDel":"NO","lotteryTime":"2019-10-10 07:59:19","period":3497},{"wid":13208,"uid":95,"uname":"robot No.15","shopId":137,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001757","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768},{"wid":13207,"uid":93,"uname":"robot No.14","shopId":136,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001985","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768},{"wid":13206,"uid":11,"uname":"robot No.11","shopId":144,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001822","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768},{"wid":13205,"uid":110,"uname":"robot No.16","shopId":162,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001894","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 07:59:13","period":3497},{"wid":13204,"uid":7,"uname":"robot No.7","shopId":135,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001611","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768},{"wid":13203,"uid":5,"uname":"robot No.5","shopId":140,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001698","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768},{"wid":13202,"uid":113,"uname":"robot No.19","shopId":143,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001717","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768},{"wid":13201,"uid":114,"uname":"robot No.20","shopId":142,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001975","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768},{"wid":13200,"uid":110,"uname":"robot No.16","shopId":139,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001979","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768},{"wid":13199,"uid":6,"uname":"robot No.6","shopId":141,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001538","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768},{"wid":13198,"uid":9,"uname":"robot No.9","shopId":138,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001690","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 08:00:28","period":4768},{"wid":13197,"uid":5,"uname":"robot No.5","shopId":163,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001684","createTime":"2019-10-10 07:59:16","updateTime":"2019-10-10 07:59:16","isDel":"NO","lotteryTime":"2019-10-10 07:59:13","period":3497},{"wid":13196,"uid":10,"uname":"robot No.10","shopId":161,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001503","createTime":"2019-10-10 07:59:13","updateTime":"2019-10-10 07:59:13","isDel":"NO","lotteryTime":"2019-10-10 07:59:10","period":3497},{"wid":13195,"uid":112,"uname":"robot No.18","shopId":160,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001508","createTime":"2019-10-10 07:59:13","updateTime":"2019-10-10 07:59:13","isDel":"NO","lotteryTime":"2019-10-10 07:59:10","period":3497},{"wid":13194,"uid":111,"uname":"robot No.17","shopId":164,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001991","createTime":"2019-10-10 07:59:10","updateTime":"2019-10-10 07:59:10","isDel":"NO","lotteryTime":"2019-10-10 07:59:08","period":2282},{"wid":13193,"uid":10,"uname":"robot No.10","shopId":158,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001650","createTime":"2019-10-10 07:58:58","updateTime":"2019-10-10 07:58:58","isDel":"NO","lotteryTime":"2019-10-10 07:58:55","period":3497},{"wid":13192,"uid":114,"uname":"robot No.20","shopId":136,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001841","createTime":"2019-10-10 07:55:58","updateTime":"2019-10-10 07:55:58","isDel":"NO","lotteryTime":"2019-10-10 07:57:07","period":4767},{"wid":13191,"uid":9,"uname":"robot No.9","shopId":137,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001895","createTime":"2019-10-10 07:55:58","updateTime":"2019-10-10 07:55:58","isDel":"NO","lotteryTime":"2019-10-10 07:57:07","period":4767},{"wid":13190,"uid":5,"uname":"robot No.5","shopId":138,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001809","createTime":"2019-10-10 07:55:58","updateTime":"2019-10-10 07:55:58","isDel":"NO","lotteryTime":"2019-10-10 07:57:07","period":4767},{"wid":13189,"uid":93,"uname":"robot No.14","shopId":141,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001909","createTime":"2019-10-10 07:55:58","updateTime":"2019-10-10 07:55:58","isDel":"NO","lotteryTime":"2019-10-10 07:57:07","period":4767},{"wid":13188,"uid":2,"uname":"robot No.2","shopId":135,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001819","createTime":"2019-10-10 07:55:58","updateTime":"2019-10-10 07:55:58","isDel":"NO","lotteryTime":"2019-10-10 07:57:07","period":4767},{"wid":13187,"uid":6,"uname":"robot No.6","shopId":139,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001802","createTime":"2019-10-10 07:55:58","updateTime":"2019-10-10 07:55:58","isDel":"NO","lotteryTime":"2019-10-10 07:57:07","period":4767},{"wid":13186,"uid":12,"uname":"robot No.12","shopId":140,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001942","createTime":"2019-10-10 07:55:58","updateTime":"2019-10-10 07:55:58","isDel":"NO","lotteryTime":"2019-10-10 07:57:07","period":4767},{"wid":13185,"uid":9,"uname":"robot No.9","shopId":144,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001551","createTime":"2019-10-10 07:55:58","updateTime":"2019-10-10 07:55:58","isDel":"NO","lotteryTime":"2019-10-10 07:57:07","period":4767},{"wid":13184,"uid":9,"uname":"robot No.9","shopId":142,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001687","createTime":"2019-10-10 07:55:58","updateTime":"2019-10-10 07:55:58","isDel":"NO","lotteryTime":"2019-10-10 07:57:08","period":4767},{"wid":13183,"uid":2,"uname":"robot No.2","shopId":143,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001875","createTime":"2019-10-10 07:55:58","updateTime":"2019-10-10 07:55:58","isDel":"NO","lotteryTime":"2019-10-10 07:57:07","period":4767},{"wid":13182,"uid":110,"uname":"robot No.16","shopId":157,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001526","createTime":"2019-10-10 07:55:07","updateTime":"2019-10-10 07:55:07","isDel":"NO","lotteryTime":"2019-10-10 07:55:04","period":3496},{"wid":13181,"uid":2,"uname":"robot No.2","shopId":155,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001971","createTime":"2019-10-10 07:55:07","updateTime":"2019-10-10 07:55:07","isDel":"NO","lotteryTime":"2019-10-10 07:55:04","period":3496},{"wid":13180,"uid":3,"uname":"robot No.3","shopId":159,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001714","createTime":"2019-10-10 07:54:49","updateTime":"2019-10-10 07:54:49","isDel":"NO","lotteryTime":"2019-10-10 07:54:46","period":3496},{"wid":13179,"uid":44,"uname":"robot No.13","shopId":156,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001627","createTime":"2019-10-10 07:54:49","updateTime":"2019-10-10 07:54:49","isDel":"NO","lotteryTime":"2019-10-10 07:54:46","period":3496},{"wid":13178,"uid":2,"uname":"robot No.2","shopId":162,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001994","createTime":"2019-10-10 07:54:43","updateTime":"2019-10-10 07:54:43","isDel":"NO","lotteryTime":"2019-10-10 07:54:40","period":3496},{"wid":13177,"uid":8,"uname":"robot No.8","shopId":163,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001903","createTime":"2019-10-10 07:54:43","updateTime":"2019-10-10 07:54:43","isDel":"NO","lotteryTime":"2019-10-10 07:54:40","period":3496},{"wid":13176,"uid":114,"uname":"robot No.20","shopId":160,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001608","createTime":"2019-10-10 07:54:40","updateTime":"2019-10-10 07:54:40","isDel":"NO","lotteryTime":"2019-10-10 07:54:37","period":3496},{"wid":13175,"uid":1,"uname":"robot No.1","shopId":161,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001805","createTime":"2019-10-10 07:54:40","updateTime":"2019-10-10 07:54:40","isDel":"NO","lotteryTime":"2019-10-10 07:54:37","period":3496},{"wid":13174,"uid":95,"uname":"robot No.15","shopId":158,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001974","createTime":"2019-10-10 07:54:25","updateTime":"2019-10-10 07:54:25","isDel":"NO","lotteryTime":"2019-10-10 07:54:22","period":3496},{"wid":13173,"uid":11,"uname":"robot No.11","shopId":142,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001879","createTime":"2019-10-10 07:52:37","updateTime":"2019-10-10 07:52:37","isDel":"NO","lotteryTime":"2019-10-10 07:53:46","period":4766},{"wid":13172,"uid":93,"uname":"robot No.14","shopId":135,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001861","createTime":"2019-10-10 07:52:37","updateTime":"2019-10-10 07:52:37","isDel":"NO","lotteryTime":"2019-10-10 07:53:46","period":4766},{"wid":13171,"uid":2,"uname":"robot No.2","shopId":144,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001889","createTime":"2019-10-10 07:52:37","updateTime":"2019-10-10 07:52:37","isDel":"NO","lotteryTime":"2019-10-10 07:53:46","period":4766},{"wid":13170,"uid":12,"uname":"robot No.12","shopId":137,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001627","createTime":"2019-10-10 07:52:37","updateTime":"2019-10-10 07:52:37","isDel":"NO","lotteryTime":"2019-10-10 07:53:46","period":4766},{"wid":13169,"uid":5,"uname":"robot No.5","shopId":139,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001986","createTime":"2019-10-10 07:52:37","updateTime":"2019-10-10 07:52:37","isDel":"NO","lotteryTime":"2019-10-10 07:53:46","period":4766},{"wid":13168,"uid":111,"uname":"robot No.17","shopId":140,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001950","createTime":"2019-10-10 07:52:37","updateTime":"2019-10-10 07:52:37","isDel":"NO","lotteryTime":"2019-10-10 07:53:46","period":4766},{"wid":13167,"uid":4,"uname":"robot No.4","shopId":141,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001707","createTime":"2019-10-10 07:52:37","updateTime":"2019-10-10 07:52:37","isDel":"NO","lotteryTime":"2019-10-10 07:53:46","period":4766},{"wid":13166,"uid":114,"uname":"robot No.20","shopId":138,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001763","createTime":"2019-10-10 07:52:37","updateTime":"2019-10-10 07:52:37","isDel":"NO","lotteryTime":"2019-10-10 07:53:46","period":4766},{"wid":13165,"uid":114,"uname":"robot No.20","shopId":136,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001709","createTime":"2019-10-10 07:52:37","updateTime":"2019-10-10 07:52:37","isDel":"NO","lotteryTime":"2019-10-10 07:53:46","period":4766},{"wid":13164,"uid":95,"uname":"robot No.15","shopId":143,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001773","createTime":"2019-10-10 07:52:37","updateTime":"2019-10-10 07:52:37","isDel":"NO","lotteryTime":"2019-10-10 07:53:46","period":4766},{"wid":13163,"uid":9,"uname":"robot No.9","shopId":164,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001848","createTime":"2019-10-10 07:52:13","updateTime":"2019-10-10 07:52:13","isDel":"NO","lotteryTime":"2019-10-10 07:52:11","period":2281},{"wid":13162,"uid":93,"uname":"robot No.14","shopId":155,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001681","createTime":"2019-10-10 07:50:34","updateTime":"2019-10-10 07:50:34","isDel":"NO","lotteryTime":"2019-10-10 07:50:31","period":3495},{"wid":13161,"uid":8,"uname":"robot No.8","shopId":157,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001922","createTime":"2019-10-10 07:50:34","updateTime":"2019-10-10 07:50:34","isDel":"NO","lotteryTime":"2019-10-10 07:50:31","period":3495},{"wid":13160,"uid":4,"uname":"robot No.4","shopId":156,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001903","createTime":"2019-10-10 07:50:16","updateTime":"2019-10-10 07:50:16","isDel":"NO","lotteryTime":"2019-10-10 07:50:13","period":3495},{"wid":13159,"uid":11,"uname":"robot No.11","shopId":159,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001758","createTime":"2019-10-10 07:50:16","updateTime":"2019-10-10 07:50:16","isDel":"NO","lotteryTime":"2019-10-10 07:50:13","period":3495},{"wid":13158,"uid":93,"uname":"robot No.14","shopId":163,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001973","createTime":"2019-10-10 07:50:10","updateTime":"2019-10-10 07:50:10","isDel":"NO","lotteryTime":"2019-10-10 07:50:07","period":3495},{"wid":13157,"uid":11,"uname":"robot No.11","shopId":162,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001931","createTime":"2019-10-10 07:50:10","updateTime":"2019-10-10 07:50:10","isDel":"NO","lotteryTime":"2019-10-10 07:50:07","period":3495},{"wid":13156,"uid":112,"uname":"robot No.18","shopId":160,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001835","createTime":"2019-10-10 07:50:07","updateTime":"2019-10-10 07:50:07","isDel":"NO","lotteryTime":"2019-10-10 07:50:04","period":3495},{"wid":13155,"uid":111,"uname":"robot No.17","shopId":161,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001843","createTime":"2019-10-10 07:50:07","updateTime":"2019-10-10 07:50:07","isDel":"NO","lotteryTime":"2019-10-10 07:50:04","period":3495},{"wid":13154,"uid":4,"uname":"robot No.4","shopId":158,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001796","createTime":"2019-10-10 07:49:52","updateTime":"2019-10-10 07:49:52","isDel":"NO","lotteryTime":"2019-10-10 07:49:49","period":3495},{"wid":13153,"uid":1,"uname":"robot No.1","shopId":142,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001680","createTime":"2019-10-10 07:49:16","updateTime":"2019-10-10 07:49:16","isDel":"NO","lotteryTime":"2019-10-10 07:50:28","period":4765},{"wid":13152,"uid":112,"uname":"robot No.18","shopId":140,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001896","createTime":"2019-10-10 07:49:16","updateTime":"2019-10-10 07:49:16","isDel":"NO","lotteryTime":"2019-10-10 07:50:28","period":4765},{"wid":13151,"uid":114,"uname":"robot No.20","shopId":141,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001502","createTime":"2019-10-10 07:49:16","updateTime":"2019-10-10 07:49:16","isDel":"NO","lotteryTime":"2019-10-10 07:50:28","period":4765},{"wid":13150,"uid":44,"uname":"robot No.13","shopId":139,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001670","createTime":"2019-10-10 07:49:16","updateTime":"2019-10-10 07:49:16","isDel":"NO","lotteryTime":"2019-10-10 07:50:28","period":4765},{"wid":13149,"uid":2,"uname":"robot No.2","shopId":138,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001539","createTime":"2019-10-10 07:49:16","updateTime":"2019-10-10 07:49:16","isDel":"NO","lotteryTime":"2019-10-10 07:50:28","period":4765},{"wid":13148,"uid":2,"uname":"robot No.2","shopId":136,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001944","createTime":"2019-10-10 07:49:16","updateTime":"2019-10-10 07:49:16","isDel":"NO","lotteryTime":"2019-10-10 07:50:28","period":4765},{"wid":13147,"uid":114,"uname":"robot No.20","shopId":137,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001834","createTime":"2019-10-10 07:49:16","updateTime":"2019-10-10 07:49:16","isDel":"NO","lotteryTime":"2019-10-10 07:50:28","period":4765},{"wid":13146,"uid":7,"uname":"robot No.7","shopId":135,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001626","createTime":"2019-10-10 07:49:16","updateTime":"2019-10-10 07:49:16","isDel":"NO","lotteryTime":"2019-10-10 07:50:28","period":4765},{"wid":13145,"uid":115,"uname":"robot No.21","shopId":143,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001802","createTime":"2019-10-10 07:49:16","updateTime":"2019-10-10 07:49:16","isDel":"NO","lotteryTime":"2019-10-10 07:50:28","period":4765},{"wid":13144,"uid":93,"uname":"robot No.14","shopId":144,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001784","createTime":"2019-10-10 07:49:16","updateTime":"2019-10-10 07:49:16","isDel":"NO","lotteryTime":"2019-10-10 07:50:28","period":4765},{"wid":13143,"uid":44,"uname":"robot No.13","shopId":157,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001860","createTime":"2019-10-10 07:46:01","updateTime":"2019-10-10 07:46:01","isDel":"NO","lotteryTime":"2019-10-10 07:45:58","period":3494},{"wid":13142,"uid":111,"uname":"robot No.17","shopId":155,"shopName":"iPhone11 No.1","shopProperty":"[{\"title\":\"产地\",\"value\":\"中华人民共和国中国\"},{\"title\":\"网络\",\"value\":\"全世界地区全网通6G\"},{\"title\":\"内存\",\"value\":\"气势恢宏1个T\"},{\"title\":\"CPU\",\"value\":\"如假包换32核*8\"}]","periodCode":"100001650","createTime":"2019-10-10 07:46:01","updateTime":"2019-10-10 07:46:01","isDel":"NO","lotteryTime":"2019-10-10 07:45:58","period":3494},{"wid":13141,"uid":112,"uname":"robot No.18","shopId":143,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001614","createTime":"2019-10-10 07:45:58","updateTime":"2019-10-10 07:45:58","isDel":"NO","lotteryTime":"2019-10-10 07:47:07","period":4764},{"wid":13140,"uid":110,"uname":"robot No.16","shopId":141,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001995","createTime":"2019-10-10 07:45:58","updateTime":"2019-10-10 07:45:58","isDel":"NO","lotteryTime":"2019-10-10 07:47:07","period":4764},{"wid":13139,"uid":8,"uname":"robot No.8","shopId":137,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001581","createTime":"2019-10-10 07:45:58","updateTime":"2019-10-10 07:45:58","isDel":"NO","lotteryTime":"2019-10-10 07:47:07","period":4764},{"wid":13138,"uid":3,"uname":"robot No.3","shopId":135,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001883","createTime":"2019-10-10 07:45:58","updateTime":"2019-10-10 07:45:58","isDel":"NO","lotteryTime":"2019-10-10 07:47:07","period":4764},{"wid":13137,"uid":4,"uname":"robot No.4","shopId":144,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001666","createTime":"2019-10-10 07:45:58","updateTime":"2019-10-10 07:45:58","isDel":"NO","lotteryTime":"2019-10-10 07:47:07","period":4764},{"wid":13136,"uid":9,"uname":"robot No.9","shopId":142,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001831","createTime":"2019-10-10 07:45:58","updateTime":"2019-10-10 07:45:58","isDel":"NO","lotteryTime":"2019-10-10 07:47:07","period":4764},{"wid":13135,"uid":10,"uname":"robot No.10","shopId":139,"shopName":"iPhone11 No.2","shopProperty":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","periodCode":"100001756","createTime":"2019</t>
+        </is>
+      </c>
+      <c r="J7" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="8" s="22">
+      <c r="A8" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="inlineStr">
+      <c r="B8" s="21" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="C8" s="21" t="inlineStr">
+      <c r="C8" s="20" t="inlineStr">
         <is>
           <t>夺宝商品列表第一页</t>
         </is>
       </c>
-      <c r="D8" s="21" t="inlineStr">
+      <c r="D8" s="20" t="inlineStr">
         <is>
           <t>dubo/indexShops.do</t>
         </is>
       </c>
-      <c r="E8" s="22" t="inlineStr">
+      <c r="E8" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F8" s="12" t="inlineStr">
+      <c r="F8" s="11" t="inlineStr">
         <is>
           <t>{
     "pageSize": "10",
@@ -2651,47 +2648,47 @@
 }</t>
         </is>
       </c>
-      <c r="H8" s="22" t="inlineStr">
+      <c r="H8" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I8" s="22" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000","OneDollarShops":{"count":41,"pages":5,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器人","lotteryTime":"2019-09-30 13:59:50","shopId":13,"portionNum":1000,"aid":175,"currenPortion":0,"lotteryType":"22","remainingTime":19},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.10","lotteryTime":"2019-09-30 13:59:42","shopId":12,"portionNum":1000,"aid":164,"currenPortion":1000,"lotteryType":"11","remainingTime":11},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.6","lotteryTime":"2019-09-30 14:01:35","shopId":12,"portionNum":1000,"aid":160,"currenPortion":750,"lotteryType":"11","remainingTime":124},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.2","lotteryTime":"2019-09-30 14:01:38","shopId":12,"portionNum":1000,"aid":156,"currenPortion":750,"lotteryType":"11","remainingTime":127},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.3","lotteryTime":"2019-09-30 14:01:38","shopId":12,"portionNum":1000,"aid":157,"currenPortion":750,"lotteryType":"11","remainingTime":127},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.7","lotteryTime":"2019-09-30 14:01:38","shopId":12,"portionNum":1000,"aid":161,"currenPortion":750,"lotteryType":"11","remainingTime":127},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.4","lotteryTime":"2019-09-30 14:01:41","shopId":12,"portionNum":1000,"aid":158,"currenPortion":725,"lotteryType":"11","remainingTime":130},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.9","lotteryTime":"2019-09-30 14:01:44","shopId":12,"portionNum":1000,"aid":163,"currenPortion":725,"lotteryType":"11","remainingTime":133},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.8","lotteryTime":"2019-09-30 14:01:44","shopId":12,"portionNum":1000,"aid":162,"currenPortion":725,"lotteryType":"11","remainingTime":133},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.5","lotteryTime":"2019-09-30 14:01:47","shopId":12,"portionNum":1000,"aid":159,"currenPortion":700,"lotteryType":"11","remainingTime":136}],"currentNum":1,"pageSize":10,"appCurrentTime":1877535007,"serverCurrentTime":1569832176525}}</t>
-        </is>
-      </c>
-      <c r="J8" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="9" s="9">
-      <c r="A9" s="22" t="n">
+      <c r="I8" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","OneDollarShops":{"count":42,"pages":5,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器人","lotteryTime":"2019-10-10 08:02:40","shopId":13,"portionNum":1000,"aid":175,"currenPortion":0,"lotteryType":"22","remainingTime":177},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.1","lotteryTime":"2019-10-10 08:04:10","shopId":12,"portionNum":1000,"aid":155,"currenPortion":50,"lotteryType":"11","remainingTime":267},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.3","lotteryTime":"2019-10-10 08:04:10","shopId":12,"portionNum":1000,"aid":157,"currenPortion":50,"lotteryType":"11","remainingTime":267},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20191009/b18a79ca-def5-49d0-91a0-bbd11793651d.jpg","price":"10.0","shopName":"晓东-Under Armour Mens Threadborne","lotteryTime":"2019-10-10 09:04:28","shopId":23,"portionNum":1000,"aid":176,"currenPortion":0,"lotteryType":"22","remainingTime":3885},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.2","lotteryTime":"2019-10-10 08:03:52","shopId":12,"portionNum":1000,"aid":156,"currenPortion":125,"lotteryType":"11","remainingTime":249},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.5","lotteryTime":"2019-10-10 08:03:52","shopId":12,"portionNum":1000,"aid":159,"currenPortion":125,"lotteryType":"11","remainingTime":249},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.3","lotteryTime":"2019-10-10 08:03:47","shopId":13,"portionNum":1000,"aid":137,"currenPortion":150,"lotteryType":"22","remainingTime":244},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.5","lotteryTime":"2019-10-10 08:03:46","shopId":13,"portionNum":1000,"aid":139,"currenPortion":150,"lotteryType":"22","remainingTime":243},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.2","lotteryTime":"2019-10-10 08:03:46","shopId":13,"portionNum":1000,"aid":136,"currenPortion":150,"lotteryType":"22","remainingTime":243},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.6","lotteryTime":"2019-10-10 08:03:46","shopId":13,"portionNum":1000,"aid":140,"currenPortion":150,"lotteryType":"22","remainingTime":243}],"currentNum":1,"pageSize":10,"appCurrentTime":1877535007,"serverCurrentTime":1570674588088}}</t>
+        </is>
+      </c>
+      <c r="J8" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="9" s="22">
+      <c r="A9" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="inlineStr">
+      <c r="B9" s="21" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="C9" s="21" t="inlineStr">
+      <c r="C9" s="20" t="inlineStr">
         <is>
           <t>夺宝商品列表最后一页</t>
         </is>
       </c>
-      <c r="D9" s="22" t="inlineStr">
+      <c r="D9" s="21" t="inlineStr">
         <is>
           <t>dubo/indexShops.do</t>
         </is>
       </c>
-      <c r="E9" s="22" t="inlineStr">
+      <c r="E9" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F9" s="12" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>{
     "pageSize": "10",
@@ -2700,47 +2697,47 @@
 }</t>
         </is>
       </c>
-      <c r="H9" s="22" t="inlineStr">
+      <c r="H9" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I9" s="22" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000","OneDollarShops":{"count":41,"pages":5,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.7","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":141,"currenPortion":175,"lotteryType":"22","remainingTime":240}],"currentNum":5,"pageSize":10,"appCurrentTime":1877535007,"serverCurrentTime":1569832177211}}</t>
-        </is>
-      </c>
-      <c r="J9" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="10" s="9">
-      <c r="A10" s="22" t="n">
+      <c r="I9" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","OneDollarShops":{"count":42,"pages":5,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.3","lotteryTime":"2019-10-10 08:00:49","shopId":13,"portionNum":1000,"aid":147,"currenPortion":0,"lotteryType":"22","remainingTime":65},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.2","lotteryTime":"2019-10-10 08:00:13","shopId":13,"portionNum":1000,"aid":146,"currenPortion":0,"lotteryType":"22","remainingTime":29}],"currentNum":5,"pageSize":10,"appCurrentTime":1877535007,"serverCurrentTime":1570674589266}}</t>
+        </is>
+      </c>
+      <c r="J9" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="10" s="22">
+      <c r="A10" s="21" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="inlineStr">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="C10" s="21" t="inlineStr">
+      <c r="C10" s="20" t="inlineStr">
         <is>
           <t>夺宝商品列表一页查全部</t>
         </is>
       </c>
-      <c r="D10" s="22" t="inlineStr">
+      <c r="D10" s="21" t="inlineStr">
         <is>
           <t>dubo/indexShops.do</t>
         </is>
       </c>
-      <c r="E10" s="22" t="inlineStr">
+      <c r="E10" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F10" s="12" t="inlineStr">
+      <c r="F10" s="11" t="inlineStr">
         <is>
           <t>{
     "pageSize": "999",
@@ -2749,47 +2746,47 @@
 }</t>
         </is>
       </c>
-      <c r="H10" s="22" t="inlineStr">
+      <c r="H10" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I10" s="22" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000","OneDollarShops":{"count":41,"pages":1,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器人","lotteryTime":"2019-09-30 13:59:50","shopId":13,"portionNum":1000,"aid":175,"currenPortion":0,"lotteryType":"22","remainingTime":18},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.10","lotteryTime":"2019-09-30 13:59:42","shopId":12,"portionNum":1000,"aid":164,"currenPortion":1000,"lotteryType":"11","remainingTime":10},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.6","lotteryTime":"2019-09-30 14:01:35","shopId":12,"portionNum":1000,"aid":160,"currenPortion":750,"lotteryType":"11","remainingTime":123},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.2","lotteryTime":"2019-09-30 14:01:38","shopId":12,"portionNum":1000,"aid":156,"currenPortion":750,"lotteryType":"11","remainingTime":126},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.3","lotteryTime":"2019-09-30 14:01:38","shopId":12,"portionNum":1000,"aid":157,"currenPortion":750,"lotteryType":"11","remainingTime":126},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.7","lotteryTime":"2019-09-30 14:01:38","shopId":12,"portionNum":1000,"aid":161,"currenPortion":750,"lotteryType":"11","remainingTime":126},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.4","lotteryTime":"2019-09-30 14:01:41","shopId":12,"portionNum":1000,"aid":158,"currenPortion":725,"lotteryType":"11","remainingTime":129},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.9","lotteryTime":"2019-09-30 14:01:44","shopId":12,"portionNum":1000,"aid":163,"currenPortion":725,"lotteryType":"11","remainingTime":132},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.8","lotteryTime":"2019-09-30 14:01:44","shopId":12,"portionNum":1000,"aid":162,"currenPortion":725,"lotteryType":"11","remainingTime":132},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.5","lotteryTime":"2019-09-30 14:01:47","shopId":12,"portionNum":1000,"aid":159,"currenPortion":700,"lotteryType":"11","remainingTime":135},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.1","lotteryTime":"2019-09-30 14:01:47","shopId":12,"portionNum":1000,"aid":155,"currenPortion":700,"lotteryType":"11","remainingTime":135},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.9","lotteryTime":"2019-09-30 14:03:11","shopId":13,"portionNum":1000,"aid":153,"currenPortion":0,"lotteryType":"22","remainingTime":219},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.3","lotteryTime":"2019-09-30 14:03:11","shopId":13,"portionNum":1000,"aid":147,"currenPortion":0,"lotteryType":"22","remainingTime":219},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.2","lotteryTime":"2019-09-30 14:03:11","shopId":13,"portionNum":1000,"aid":146,"currenPortion":0,"lotteryType":"22","remainingTime":219},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.10","lotteryTime":"2019-09-30 14:03:14","shopId":13,"portionNum":1000,"aid":154,"currenPortion":0,"lotteryType":"22","remainingTime":222},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.6","lotteryTime":"2019-09-30 14:03:17","shopId":13,"portionNum":1000,"aid":150,"currenPortion":0,"lotteryType":"22","remainingTime":225},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.9","lotteryTime":"2019-09-30 14:03:17","shopId":12,"portionNum":1000,"aid":173,"currenPortion":0,"lotteryType":"11","remainingTime":225},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.4","lotteryTime":"2019-09-30 14:03:20","shopId":13,"portionNum":1000,"aid":148,"currenPortion":0,"lotteryType":"22","remainingTime":228},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.7","lotteryTime":"2019-09-30 14:03:23","shopId":12,"portionNum":1000,"aid":171,"currenPortion":0,"lotteryType":"11","remainingTime":231},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.5","lotteryTime":"2019-09-30 14:03:23","shopId":13,"portionNum":1000,"aid":149,"currenPortion":0,"lotteryType":"22","remainingTime":231},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.7","lotteryTime":"2019-09-30 14:03:23","shopId":13,"portionNum":1000,"aid":151,"currenPortion":0,"lotteryType":"22","remainingTime":231},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.10","lotteryTime":"2019-09-30 14:03:23","shopId":12,"portionNum":1000,"aid":174,"currenPortion":0,"lotteryType":"11","remainingTime":231},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.3","lotteryTime":"2019-09-30 14:03:23","shopId":12,"portionNum":1000,"aid":167,"currenPortion":0,"lotteryType":"11","remainingTime":231},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.5","lotteryTime":"2019-09-30 14:03:23","shopId":12,"portionNum":1000,"aid":169,"currenPortion":0,"lotteryType":"11","remainingTime":231},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.1","lotteryTime":"2019-09-30 14:03:26","shopId":12,"portionNum":1000,"aid":165,"currenPortion":0,"lotteryType":"11","remainingTime":234},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.1","lotteryTime":"2019-09-30 14:03:29","shopId":13,"portionNum":1000,"aid":145,"currenPortion":0,"lotteryType":"22","remainingTime":237},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.2","lotteryTime":"2019-09-30 14:03:29","shopId":12,"portionNum":1000,"aid":166,"currenPortion":0,"lotteryType":"11","remainingTime":237},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.8","lotteryTime":"2019-09-30 14:03:32","shopId":12,"portionNum":1000,"aid":172,"currenPortion":0,"lotteryType":"11","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.10","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":144,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.8","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":142,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.2","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":136,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.4","lotteryTime":"2019-09-30 14:03:32","shopId":12,"portionNum":1000,"aid":168,"currenPortion":0,"lotteryType":"11","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.9","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":143,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.3","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":137,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.1","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":135,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.8","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":152,"currenPortion":0,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.6","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":140,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.5","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":139,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.4","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":138,"currenPortion":175,"lotteryType":"22","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.6","lotteryTime":"2019-09-30 14:03:32","shopId":12,"portionNum":1000,"aid":170,"currenPortion":0,"lotteryType":"11","remainingTime":240},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.7","lotteryTime":"2019-09-30 14:03:32","shopId":13,"portionNum":1000,"aid":141,"currenPortion":175,"lotteryType":"22","remainingTime":240}],"currentNum":1,"pageSize":999,"appCurrentTime":1877535007,"serverCurrentTime":1569832177896}}</t>
-        </is>
-      </c>
-      <c r="J10" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="11" s="9">
-      <c r="A11" s="22" t="n">
+      <c r="I10" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","OneDollarShops":{"count":42,"pages":1,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器人","lotteryTime":"2019-10-10 08:02:40","shopId":13,"portionNum":1000,"aid":175,"currenPortion":0,"lotteryType":"22","remainingTime":175},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.1","lotteryTime":"2019-10-10 08:04:10","shopId":12,"portionNum":1000,"aid":155,"currenPortion":75,"lotteryType":"11","remainingTime":265},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.3","lotteryTime":"2019-10-10 08:04:10","shopId":12,"portionNum":1000,"aid":157,"currenPortion":75,"lotteryType":"11","remainingTime":265},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20191009/b18a79ca-def5-49d0-91a0-bbd11793651d.jpg","price":"10.0","shopName":"晓东-Under Armour Mens Threadborne","lotteryTime":"2019-10-10 09:04:28","shopId":23,"portionNum":1000,"aid":176,"currenPortion":0,"lotteryType":"22","remainingTime":3883},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.2","lotteryTime":"2019-10-10 08:03:52","shopId":12,"portionNum":1000,"aid":156,"currenPortion":150,"lotteryType":"11","remainingTime":247},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.5","lotteryTime":"2019-10-10 08:03:52","shopId":12,"portionNum":1000,"aid":159,"currenPortion":150,"lotteryType":"11","remainingTime":247},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.3","lotteryTime":"2019-10-10 08:03:47","shopId":13,"portionNum":1000,"aid":137,"currenPortion":175,"lotteryType":"22","remainingTime":242},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.5","lotteryTime":"2019-10-10 08:03:46","shopId":13,"portionNum":1000,"aid":139,"currenPortion":175,"lotteryType":"22","remainingTime":241},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.2","lotteryTime":"2019-10-10 08:03:46","shopId":13,"portionNum":1000,"aid":136,"currenPortion":175,"lotteryType":"22","remainingTime":241},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.6","lotteryTime":"2019-10-10 08:03:46","shopId":13,"portionNum":1000,"aid":140,"currenPortion":175,"lotteryType":"22","remainingTime":241},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.7","lotteryTime":"2019-10-10 08:03:46","shopId":13,"portionNum":1000,"aid":141,"currenPortion":175,"lotteryType":"22","remainingTime":241},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.10","lotteryTime":"2019-10-10 08:03:46","shopId":13,"portionNum":1000,"aid":144,"currenPortion":175,"lotteryType":"22","remainingTime":241},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.9","lotteryTime":"2019-10-10 08:03:46","shopId":13,"portionNum":1000,"aid":143,"currenPortion":175,"lotteryType":"22","remainingTime":241},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.4","lotteryTime":"2019-10-10 08:03:46","shopId":13,"portionNum":1000,"aid":138,"currenPortion":175,"lotteryType":"22","remainingTime":241},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.8","lotteryTime":"2019-10-10 08:03:46","shopId":12,"portionNum":1000,"aid":162,"currenPortion":175,"lotteryType":"11","remainingTime":241},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.8","lotteryTime":"2019-10-10 08:03:46","shopId":13,"portionNum":1000,"aid":142,"currenPortion":175,"lotteryType":"22","remainingTime":241},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.9","lotteryTime":"2019-10-10 08:03:46","shopId":12,"portionNum":1000,"aid":163,"currenPortion":175,"lotteryType":"11","remainingTime":241},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;机器人No.1","lotteryTime":"2019-10-10 08:03:46","shopId":13,"portionNum":1000,"aid":135,"currenPortion":175,"lotteryType":"22","remainingTime":241},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.7","lotteryTime":"2019-10-10 08:03:43","shopId":12,"portionNum":1000,"aid":161,"currenPortion":200,"lotteryType":"11","remainingTime":238},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.6","lotteryTime":"2019-10-10 08:03:43","shopId":12,"portionNum":1000,"aid":160,"currenPortion":200,"lotteryType":"11","remainingTime":238},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.10","lotteryTime":"2019-10-10 08:06:05","shopId":12,"portionNum":1000,"aid":164,"currenPortion":225,"lotteryType":"11","remainingTime":380},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;机器人No.4","lotteryTime":"2019-10-10 08:03:28","shopId":12,"portionNum":1000,"aid":158,"currenPortion":275,"lotteryType":"11","remainingTime":223},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.10","lotteryTime":"2019-10-10 08:03:01","shopId":13,"portionNum":1000,"aid":154,"currenPortion":0,"lotteryType":"22","remainingTime":196},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.3","lotteryTime":"2019-10-10 08:02:58","shopId":12,"portionNum":1000,"aid":167,"currenPortion":0,"lotteryType":"11","remainingTime":193},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.6","lotteryTime":"2019-10-10 08:02:55","shopId":12,"portionNum":1000,"aid":170,"currenPortion":0,"lotteryType":"11","remainingTime":190},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.8","lotteryTime":"2019-10-10 08:02:49","shopId":13,"portionNum":1000,"aid":152,"currenPortion":0,"lotteryType":"22","remainingTime":184},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.6","lotteryTime":"2019-10-10 08:02:46","shopId":13,"portionNum":1000,"aid":150,"currenPortion":0,"lotteryType":"22","remainingTime":181},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.1","lotteryTime":"2019-10-10 08:02:46","shopId":13,"portionNum":1000,"aid":145,"currenPortion":0,"lotteryType":"22","remainingTime":181},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.9","lotteryTime":"2019-10-10 08:02:37","shopId":13,"portionNum":1000,"aid":153,"currenPortion":0,"lotteryType":"22","remainingTime":172},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.7","lotteryTime":"2019-10-10 08:02:34","shopId":13,"portionNum":1000,"aid":151,"currenPortion":0,"lotteryType":"22","remainingTime":169},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.4","lotteryTime":"2019-10-10 08:02:34","shopId":12,"portionNum":1000,"aid":168,"currenPortion":0,"lotteryType":"11","remainingTime":169},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.1","lotteryTime":"2019-10-10 08:02:16","shopId":12,"portionNum":1000,"aid":165,"currenPortion":0,"lotteryType":"11","remainingTime":151},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.2","lotteryTime":"2019-10-10 08:02:07","shopId":12,"portionNum":1000,"aid":166,"currenPortion":0,"lotteryType":"11","remainingTime":142},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.8","lotteryTime":"2019-10-10 08:02:04","shopId":12,"portionNum":1000,"aid":172,"currenPortion":0,"lotteryType":"11","remainingTime":139},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.9","lotteryTime":"2019-10-10 08:02:04","shopId":12,"portionNum":1000,"aid":173,"currenPortion":0,"lotteryType":"11","remainingTime":139},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.5","lotteryTime":"2019-10-10 08:02:04","shopId":13,"portionNum":1000,"aid":149,"currenPortion":0,"lotteryType":"22","remainingTime":139},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.5","lotteryTime":"2019-10-10 08:01:55","shopId":12,"portionNum":1000,"aid":169,"currenPortion":0,"lotteryType":"11","remainingTime":130},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.4","lotteryTime":"2019-10-10 08:01:49","shopId":13,"portionNum":1000,"aid":148,"currenPortion":0,"lotteryType":"22","remainingTime":124},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.10","lotteryTime":"2019-10-10 08:01:49","shopId":12,"portionNum":1000,"aid":174,"currenPortion":0,"lotteryType":"11","remainingTime":124},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"定时开&amp;无机器No.7","lotteryTime":"2019-10-10 08:01:40","shopId":12,"portionNum":1000,"aid":171,"currenPortion":0,"lotteryType":"11","remainingTime":115},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.3","lotteryTime":"2019-10-10 08:00:49","shopId":13,"portionNum":1000,"aid":147,"currenPortion":0,"lotteryType":"22","remainingTime":64},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","price":"10.0","shopName":"筹满开&amp;无机器No.2","lotteryTime":"2019-10-10 08:00:13","shopId":13,"portionNum":1000,"aid":146,"currenPortion":0,"lotteryType":"22","remainingTime":28}],"currentNum":1,"pageSize":999,"appCurrentTime":1877535007,"serverCurrentTime":1570674590430}}</t>
+        </is>
+      </c>
+      <c r="J10" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="11" s="22">
+      <c r="A11" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="inlineStr">
+      <c r="B11" s="21" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="C11" s="21" t="inlineStr">
+      <c r="C11" s="20" t="inlineStr">
         <is>
           <t>所有商品列表第一页</t>
         </is>
       </c>
-      <c r="D11" s="22" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr">
         <is>
           <t>shop/getShopList.do</t>
         </is>
       </c>
-      <c r="E11" s="22" t="inlineStr">
+      <c r="E11" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F11" s="12" t="inlineStr">
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <t>{
     "pageSize": "10",
@@ -2798,47 +2795,47 @@
 }</t>
         </is>
       </c>
-      <c r="H11" s="22" t="inlineStr">
+      <c r="H11" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I11" s="22" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000","shopMyPages":{"count":49,"pages":5,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 15:15:12","shopName":"筹满开&amp;无机器人","sort":2,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":17,"price":"10.0","lotteryTime":"2019-09-30 13:59:50","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"175"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:10:06","shopName":"定时开&amp;无机器No.10","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":230,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"174"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:10:03","shopName":"定时开&amp;无机器No.9","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":224,"price":"10.0","lotteryTime":"2019-09-30 14:03:17","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"173"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:59","shopName":"定时开&amp;无机器No.8","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":239,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"172"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:55","shopName":"定时开&amp;无机器No.7","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":230,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"171"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:51","shopName":"定时开&amp;无机器No.6","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":239,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"170"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:47","shopName":"定时开&amp;无机器No.5","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":230,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"169"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:42","shopName":"定时开&amp;无机器No.4","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":239,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"168"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:38","shopName":"定时开&amp;无机器No.3","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":230,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"167"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:34","shopName":"定时开&amp;无机器No.2","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":236,"price":"10.0","lotteryTime":"2019-09-30 14:03:29","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"166"}],"currentNum":1,"pageSize":10,"appCurrentTime":1877535007,"serverCurrentTime":1569832178621}}</t>
-        </is>
-      </c>
-      <c r="J11" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="12" s="9">
-      <c r="A12" s="22" t="n">
+      <c r="I11" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","shopMyPages":{"count":51,"pages":6,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 15:15:12","shopName":"筹满开&amp;无机器人","sort":2,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":174,"price":"10.0","lotteryTime":"2019-10-10 08:02:40","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"175"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20191009/b18a79ca-def5-49d0-91a0-bbd11793651d.jpg","create_time":"2019-10-09 07:14:52","shopName":"晓东-Under Armour Mens Threadborne","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":3882,"price":"10.0","lotteryTime":"2019-10-10 09:04:28","shopId":23,"shopType":"OneDollarRush","portionNum":1000,"aid":"176"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:10:06","shopName":"定时开&amp;无机器No.10","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":123,"price":"10.0","lotteryTime":"2019-10-10 08:01:49","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"174"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:10:03","shopName":"定时开&amp;无机器No.9","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":138,"price":"10.0","lotteryTime":"2019-10-10 08:02:04","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"173"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:59","shopName":"定时开&amp;无机器No.8","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":138,"price":"10.0","lotteryTime":"2019-10-10 08:02:04","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"172"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:55","shopName":"定时开&amp;无机器No.7","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":114,"price":"10.0","lotteryTime":"2019-10-10 08:01:40","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"171"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:51","shopName":"定时开&amp;无机器No.6","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":189,"price":"10.0","lotteryTime":"2019-10-10 08:02:55","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"170"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:47","shopName":"定时开&amp;无机器No.5","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":129,"price":"10.0","lotteryTime":"2019-10-10 08:01:55","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"169"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:42","shopName":"定时开&amp;无机器No.4","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":168,"price":"10.0","lotteryTime":"2019-10-10 08:02:34","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"168"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:38","shopName":"定时开&amp;无机器No.3","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":192,"price":"10.0","lotteryTime":"2019-10-10 08:02:58","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"167"}],"currentNum":1,"pageSize":10,"appCurrentTime":1877535007,"serverCurrentTime":1570674591599}}</t>
+        </is>
+      </c>
+      <c r="J11" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="12" s="22">
+      <c r="A12" s="21" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="inlineStr">
+      <c r="B12" s="21" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="C12" s="21" t="inlineStr">
+      <c r="C12" s="20" t="inlineStr">
         <is>
           <t>所有商品列表最后一页</t>
         </is>
       </c>
-      <c r="D12" s="22" t="inlineStr">
+      <c r="D12" s="21" t="inlineStr">
         <is>
           <t>shop/getShopList.do</t>
         </is>
       </c>
-      <c r="E12" s="22" t="inlineStr">
+      <c r="E12" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F12" s="12" t="inlineStr">
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>{
     "pageSize": "10",
@@ -2847,47 +2844,47 @@
 }</t>
         </is>
       </c>
-      <c r="H12" s="22" t="inlineStr">
+      <c r="H12" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I12" s="22" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000","shopMyPages":{"count":49,"pages":5,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:09","shopName":"筹满开&amp;机器人No.1","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":238,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"135"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:55:10","price":"100.00","shopName":"iPhone11 No.10","shopId":21,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:56","price":"100.00","shopName":"iPhone11 No.9","shopId":20,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:52","price":"100.00","shopName":"iPhone11 No.8","shopId":19,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:48","price":"100.00","shopName":"iPhone11 No.7","shopId":18,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:35","price":"100.00","shopName":"iPhone11 No.6","shopId":17,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:31","price":"100.00","shopName":"iPhone11 No.5","shopId":16,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:27","price":"100.00","shopName":"iPhone11 No.4","shopId":15,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:23","price":"100.00","shopName":"iPhone11 No.3","shopId":14,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0}],"currentNum":5,"pageSize":10,"appCurrentTime":1877535007,"serverCurrentTime":1569832179371}}</t>
-        </is>
-      </c>
-      <c r="J12" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="56" r="13" s="9">
-      <c r="A13" s="22" t="n">
+      <c r="I12" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","shopMyPages":{"count":51,"pages":6,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:23","price":"100.00","shopName":"iPhone11 No.3","shopId":14,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0}],"currentNum":6,"pageSize":10,"appCurrentTime":1877535007,"serverCurrentTime":1570674592784}}</t>
+        </is>
+      </c>
+      <c r="J12" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="13" s="22">
+      <c r="A13" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="inlineStr">
+      <c r="B13" s="21" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="C13" s="21" t="inlineStr">
+      <c r="C13" s="20" t="inlineStr">
         <is>
           <t>所有商品列表一页查全部</t>
         </is>
       </c>
-      <c r="D13" s="22" t="inlineStr">
+      <c r="D13" s="21" t="inlineStr">
         <is>
           <t>shop/getShopList.do</t>
         </is>
       </c>
-      <c r="E13" s="22" t="inlineStr">
+      <c r="E13" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F13" s="12" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>{
     "pageSize": "999",
@@ -2896,17 +2893,17 @@
 }</t>
         </is>
       </c>
-      <c r="H13" s="22" t="inlineStr">
+      <c r="H13" s="21" t="inlineStr">
         <is>
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I13" s="22" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000","shopMyPages":{"count":49,"pages":1,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 15:15:12","shopName":"筹满开&amp;无机器人","sort":2,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":15,"price":"10.0","lotteryTime":"2019-09-30 13:59:50","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"175"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:10:06","shopName":"定时开&amp;无机器No.10","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":228,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"174"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:10:03","shopName":"定时开&amp;无机器No.9","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":222,"price":"10.0","lotteryTime":"2019-09-30 14:03:17","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"173"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:59","shopName":"定时开&amp;无机器No.8","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"172"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:55","shopName":"定时开&amp;无机器No.7","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":228,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"171"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:51","shopName":"定时开&amp;无机器No.6","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"170"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:47","shopName":"定时开&amp;无机器No.5","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":228,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"169"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:42","shopName":"定时开&amp;无机器No.4","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"168"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:38","shopName":"定时开&amp;无机器No.3","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":228,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"167"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:34","shopName":"定时开&amp;无机器No.2","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":234,"price":"10.0","lotteryTime":"2019-09-30 14:03:29","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"166"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:26","shopName":"定时开&amp;无机器No.1","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":231,"price":"10.0","lotteryTime":"2019-09-30 14:03:26","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"165"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:46","shopName":"定时开&amp;机器人No.10","sort":1,"type":0,"currenPortion":1000,"lotteryType":"11","remainingTime":7,"price":"10.0","lotteryTime":"2019-09-30 13:59:42","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"164"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:41","shopName":"定时开&amp;机器人No.9","sort":1,"type":0,"currenPortion":750,"lotteryType":"11","remainingTime":129,"price":"10.0","lotteryTime":"2019-09-30 14:01:44","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"163"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:38","shopName":"定时开&amp;机器人No.8","sort":1,"type":0,"currenPortion":750,"lotteryType":"11","remainingTime":129,"price":"10.0","lotteryTime":"2019-09-30 14:01:44","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"162"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:34","shopName":"定时开&amp;机器人No.7","sort":1,"type":0,"currenPortion":775,"lotteryType":"11","remainingTime":123,"price":"10.0","lotteryTime":"2019-09-30 14:01:38","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"161"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:31","shopName":"定时开&amp;机器人No.6","sort":1,"type":0,"currenPortion":775,"lotteryType":"11","remainingTime":120,"price":"10.0","lotteryTime":"2019-09-30 14:01:35","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"160"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:27","shopName":"定时开&amp;机器人No.5","sort":1,"type":0,"currenPortion":725,"lotteryType":"11","remainingTime":132,"price":"10.0","lotteryTime":"2019-09-30 14:01:47","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"159"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:23","shopName":"定时开&amp;机器人No.4","sort":1,"type":0,"currenPortion":750,"lotteryType":"11","remainingTime":126,"price":"10.0","lotteryTime":"2019-09-30 14:01:41","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"158"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:12","shopName":"定时开&amp;机器人No.3","sort":1,"type":0,"currenPortion":775,"lotteryType":"11","remainingTime":123,"price":"10.0","lotteryTime":"2019-09-30 14:01:38","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"157"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:06","shopName":"定时开&amp;机器人No.2","sort":1,"type":0,"currenPortion":775,"lotteryType":"11","remainingTime":123,"price":"10.0","lotteryTime":"2019-09-30 14:01:38","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"156"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:54:57","shopName":"定时开&amp;机器人No.1","sort":1,"type":0,"currenPortion":725,"lotteryType":"11","remainingTime":132,"price":"10.0","lotteryTime":"2019-09-30 14:01:47","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"155"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:52","shopName":"筹满开&amp;无机器No.10","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":219,"price":"10.0","lotteryTime":"2019-09-30 14:03:14","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"154"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:45","shopName":"筹满开&amp;无机器No.9","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":216,"price":"10.0","lotteryTime":"2019-09-30 14:03:11","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"153"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:39","shopName":"筹满开&amp;无机器No.8","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"152"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:35","shopName":"筹满开&amp;无机器No.7","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":228,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"151"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:31","shopName":"筹满开&amp;无机器No.6","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":222,"price":"10.0","lotteryTime":"2019-09-30 14:03:17","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"150"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:27","shopName":"筹满开&amp;无机器No.5","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":228,"price":"10.0","lotteryTime":"2019-09-30 14:03:23","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"149"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:23","shopName":"筹满开&amp;无机器No.4","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":225,"price":"10.0","lotteryTime":"2019-09-30 14:03:20","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"148"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:20","shopName":"筹满开&amp;无机器No.3","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":216,"price":"10.0","lotteryTime":"2019-09-30 14:03:11","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"147"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:16","shopName":"筹满开&amp;无机器No.2","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":216,"price":"10.0","lotteryTime":"2019-09-30 14:03:11","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"146"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:07","shopName":"筹满开&amp;无机器No.1","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":234,"price":"10.0","lotteryTime":"2019-09-30 14:03:29","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"145"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:05:09","shopName":"筹满开&amp;机器人No.10","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"144"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:05:05","shopName":"筹满开&amp;机器人No.9","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"143"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:05:01","shopName":"筹满开&amp;机器人No.8","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"142"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:57","shopName":"筹满开&amp;机器人No.7","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"141"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:53","shopName":"筹满开&amp;机器人No.6","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"140"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:49","shopName":"筹满开&amp;机器人No.5","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"139"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:45","shopName":"筹满开&amp;机器人No.4","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"138"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:41","shopName":"筹满开&amp;机器人No.3","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"137"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:36","shopName":"筹满开&amp;机器人No.2","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"136"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:09","shopName":"筹满开&amp;机器人No.1","sort":1,"type":0,"currenPortion":200,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-09-30 14:03:32","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"135"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:55:10","price":"100.00","shopName":"iPhone11 No.10","shopId":21,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:56","price":"100.00","shopName":"iPhone11 No.9","shopId":20,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:52","price":"100.00","shopName":"iPhone11 No.8","shopId":19,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:48","price":"100.00","shopName":"iPhone11 No.7","shopId":18,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:35","price":"100.00","shopName":"iPhone11 No.6","shopId":17,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:31","price":"100.00","shopName":"iPhone11 No.5","shopId":16,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:27","price":"100.00","shopName":"iPhone11 No.4","shopId":15,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:23","price":"100.00","shopName":"iPhone11 No.3","shopId":14,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0}],"currentNum":1,"pageSize":999,"appCurrentTime":1877535007,"serverCurrentTime":1569832180090}}</t>
-        </is>
-      </c>
-      <c r="J13" s="22" t="inlineStr">
+      <c r="I13" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","shopMyPages":{"count":51,"pages":1,"data":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 15:15:12","shopName":"筹满开&amp;无机器人","sort":2,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":171,"price":"10.0","lotteryTime":"2019-10-10 08:02:40","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"175"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20191009/b18a79ca-def5-49d0-91a0-bbd11793651d.jpg","create_time":"2019-10-09 07:14:52","shopName":"晓东-Under Armour Mens Threadborne","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":3879,"price":"10.0","lotteryTime":"2019-10-10 09:04:28","shopId":23,"shopType":"OneDollarRush","portionNum":1000,"aid":"176"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:10:06","shopName":"定时开&amp;无机器No.10","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":120,"price":"10.0","lotteryTime":"2019-10-10 08:01:49","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"174"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:10:03","shopName":"定时开&amp;无机器No.9","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":135,"price":"10.0","lotteryTime":"2019-10-10 08:02:04","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"173"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:59","shopName":"定时开&amp;无机器No.8","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":135,"price":"10.0","lotteryTime":"2019-10-10 08:02:04","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"172"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:55","shopName":"定时开&amp;无机器No.7","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":111,"price":"10.0","lotteryTime":"2019-10-10 08:01:40","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"171"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:51","shopName":"定时开&amp;无机器No.6","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":186,"price":"10.0","lotteryTime":"2019-10-10 08:02:55","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"170"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:47","shopName":"定时开&amp;无机器No.5","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":126,"price":"10.0","lotteryTime":"2019-10-10 08:01:55","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"169"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:42","shopName":"定时开&amp;无机器No.4","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":165,"price":"10.0","lotteryTime":"2019-10-10 08:02:34","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"168"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:38","shopName":"定时开&amp;无机器No.3","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":189,"price":"10.0","lotteryTime":"2019-10-10 08:02:58","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"167"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:34","shopName":"定时开&amp;无机器No.2","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":138,"price":"10.0","lotteryTime":"2019-10-10 08:02:07","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"166"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 09:09:26","shopName":"定时开&amp;无机器No.1","sort":1,"type":0,"currenPortion":0,"lotteryType":"11","remainingTime":147,"price":"10.0","lotteryTime":"2019-10-10 08:02:16","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"165"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:46","shopName":"定时开&amp;机器人No.10","sort":1,"type":0,"currenPortion":225,"lotteryType":"11","remainingTime":376,"price":"10.0","lotteryTime":"2019-10-10 08:06:05","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"164"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:41","shopName":"定时开&amp;机器人No.9","sort":1,"type":0,"currenPortion":175,"lotteryType":"11","remainingTime":237,"price":"10.0","lotteryTime":"2019-10-10 08:03:46","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"163"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:38","shopName":"定时开&amp;机器人No.8","sort":1,"type":0,"currenPortion":175,"lotteryType":"11","remainingTime":237,"price":"10.0","lotteryTime":"2019-10-10 08:03:46","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"162"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:34","shopName":"定时开&amp;机器人No.7","sort":1,"type":0,"currenPortion":200,"lotteryType":"11","remainingTime":234,"price":"10.0","lotteryTime":"2019-10-10 08:03:43","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"161"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:31","shopName":"定时开&amp;机器人No.6","sort":1,"type":0,"currenPortion":200,"lotteryType":"11","remainingTime":234,"price":"10.0","lotteryTime":"2019-10-10 08:03:43","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"160"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:27","shopName":"定时开&amp;机器人No.5","sort":1,"type":0,"currenPortion":150,"lotteryType":"11","remainingTime":243,"price":"10.0","lotteryTime":"2019-10-10 08:03:52","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"159"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:23","shopName":"定时开&amp;机器人No.4","sort":1,"type":0,"currenPortion":275,"lotteryType":"11","remainingTime":219,"price":"10.0","lotteryTime":"2019-10-10 08:03:28","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"158"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:12","shopName":"定时开&amp;机器人No.3","sort":1,"type":0,"currenPortion":75,"lotteryType":"11","remainingTime":261,"price":"10.0","lotteryTime":"2019-10-10 08:04:10","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"157"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:06","shopName":"定时开&amp;机器人No.2","sort":1,"type":0,"currenPortion":150,"lotteryType":"11","remainingTime":243,"price":"10.0","lotteryTime":"2019-10-10 08:03:52","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"156"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:54:57","shopName":"定时开&amp;机器人No.1","sort":1,"type":0,"currenPortion":75,"lotteryType":"11","remainingTime":261,"price":"10.0","lotteryTime":"2019-10-10 08:04:10","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"155"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:52","shopName":"筹满开&amp;无机器No.10","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":192,"price":"10.0","lotteryTime":"2019-10-10 08:03:01","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"154"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:45","shopName":"筹满开&amp;无机器No.9","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":168,"price":"10.0","lotteryTime":"2019-10-10 08:02:37","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"153"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:39","shopName":"筹满开&amp;无机器No.8","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":180,"price":"10.0","lotteryTime":"2019-10-10 08:02:49","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"152"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:35","shopName":"筹满开&amp;无机器No.7","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":165,"price":"10.0","lotteryTime":"2019-10-10 08:02:34","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"151"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:31","shopName":"筹满开&amp;无机器No.6","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":177,"price":"10.0","lotteryTime":"2019-10-10 08:02:46","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"150"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:27","shopName":"筹满开&amp;无机器No.5","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":135,"price":"10.0","lotteryTime":"2019-10-10 08:02:04","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"149"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:23","shopName":"筹满开&amp;无机器No.4","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":120,"price":"10.0","lotteryTime":"2019-10-10 08:01:49","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"148"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:20","shopName":"筹满开&amp;无机器No.3","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":60,"price":"10.0","lotteryTime":"2019-10-10 08:00:49","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"147"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:16","shopName":"筹满开&amp;无机器No.2","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":24,"price":"10.0","lotteryTime":"2019-10-10 08:00:13","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"146"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:07","shopName":"筹满开&amp;无机器No.1","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":177,"price":"10.0","lotteryTime":"2019-10-10 08:02:46","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"145"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:05:09","shopName":"筹满开&amp;机器人No.10","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-10-10 08:03:46","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"144"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:05:05","shopName":"筹满开&amp;机器人No.9","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-10-10 08:03:46","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"143"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:05:01","shopName":"筹满开&amp;机器人No.8","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-10-10 08:03:46","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"142"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:57","shopName":"筹满开&amp;机器人No.7","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-10-10 08:03:46","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"141"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:53","shopName":"筹满开&amp;机器人No.6","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-10-10 08:03:46","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"140"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:49","shopName":"筹满开&amp;机器人No.5","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-10-10 08:03:46","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"139"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:45","shopName":"筹满开&amp;机器人No.4","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-10-10 08:03:46","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"138"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:41","shopName":"筹满开&amp;机器人No.3","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":238,"price":"10.0","lotteryTime":"2019-10-10 08:03:47","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"137"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:36","shopName":"筹满开&amp;机器人No.2","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-10-10 08:03:46","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"136"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:09","shopName":"筹满开&amp;机器人No.1","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":237,"price":"10.0","lotteryTime":"2019-10-10 08:03:46","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"135"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20191009/83476e83-f9a8-4c1b-85fd-7d0c54cf646e.jpg","create_time":"2019-10-09 07:09:40","price":"168.78","shopName":"Braun BT3022 Rechargeable Beard Trimmer","shopId":24,"shopType":"OrdinaryShop","sort":2,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:55:10","price":"100.00","shopName":"iPhone11 No.10","shopId":21,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:56","price":"100.00","shopName":"iPhone11 No.9","shopId":20,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:52","price":"100.00","shopName":"iPhone11 No.8","shopId":19,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:48","price":"100.00","shopName":"iPhone11 No.7","shopId":18,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:35","price":"100.00","shopName":"iPhone11 No.6","shopId":17,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:31","price":"100.00","shopName":"iPhone11 No.5","shopId":16,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:27","price":"100.00","shopName":"iPhone11 No.4","shopId":15,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:23","price":"100.00","shopName":"iPhone11 No.3","shopId":14,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0}],"currentNum":1,"pageSize":999,"appCurrentTime":1877535007,"serverCurrentTime":1570674594032}}</t>
+        </is>
+      </c>
+      <c r="J13" s="21" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -2924,102 +2921,102 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="9" width="14"/>
-    <col customWidth="1" max="2" min="2" style="9" width="13.1796875"/>
-    <col customWidth="1" max="3" min="3" style="9" width="16.26953125"/>
-    <col customWidth="1" max="4" min="4" style="9" width="30.6328125"/>
-    <col customWidth="1" max="5" min="5" style="9" width="13.7265625"/>
-    <col customWidth="1" max="6" min="6" style="9" width="27"/>
-    <col customWidth="1" max="8" min="8" style="9" width="22.81640625"/>
-    <col customWidth="1" max="9" min="9" style="9" width="31.54296875"/>
-    <col customWidth="1" max="10" min="10" style="9" width="27.6328125"/>
+    <col customWidth="1" max="1" min="1" style="22" width="14"/>
+    <col customWidth="1" max="2" min="2" style="22" width="13.1796875"/>
+    <col customWidth="1" max="3" min="3" style="22" width="16.26953125"/>
+    <col customWidth="1" max="4" min="4" style="22" width="30.6328125"/>
+    <col customWidth="1" max="5" min="5" style="22" width="13.7265625"/>
+    <col customWidth="1" max="6" min="6" style="22" width="27"/>
+    <col customWidth="1" max="8" min="8" style="22" width="22.81640625"/>
+    <col customWidth="1" max="9" min="9" style="22" width="31.54296875"/>
+    <col customWidth="1" max="10" min="10" style="22" width="27.6328125"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="42" r="1" s="17">
-      <c r="A1" s="16" t="inlineStr">
+    <row customFormat="1" customHeight="1" ht="42" r="1" s="16">
+      <c r="A1" s="15" t="inlineStr">
         <is>
           <t>CaseId</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="15" t="inlineStr">
         <is>
           <t>Module</t>
         </is>
       </c>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="15" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="D1" s="16" t="inlineStr">
+      <c r="D1" s="15" t="inlineStr">
         <is>
           <t>Path</t>
         </is>
       </c>
-      <c r="E1" s="16" t="inlineStr">
+      <c r="E1" s="15" t="inlineStr">
         <is>
           <t>Method</t>
         </is>
       </c>
-      <c r="F1" s="16" t="inlineStr">
+      <c r="F1" s="15" t="inlineStr">
         <is>
           <t>Params</t>
         </is>
       </c>
-      <c r="G1" s="16" t="inlineStr">
+      <c r="G1" s="15" t="inlineStr">
         <is>
           <t>Sql</t>
         </is>
       </c>
-      <c r="H1" s="16" t="inlineStr">
+      <c r="H1" s="15" t="inlineStr">
         <is>
           <t>ExpectedResult</t>
         </is>
       </c>
-      <c r="I1" s="16" t="inlineStr">
+      <c r="I1" s="15" t="inlineStr">
         <is>
           <t>ActualResult</t>
         </is>
       </c>
-      <c r="J1" s="16" t="inlineStr">
+      <c r="J1" s="15" t="inlineStr">
         <is>
           <t>TestResult</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="84" r="2" s="12">
-      <c r="A2" s="12" t="n">
+    <row customFormat="1" customHeight="1" ht="84" r="2" s="11">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>正常登录</t>
         </is>
       </c>
-      <c r="D2" s="19" t="inlineStr">
+      <c r="D2" s="18" t="inlineStr">
         <is>
           <t>loginByPwd.do</t>
         </is>
       </c>
-      <c r="E2" s="19" t="inlineStr">
+      <c r="E2" s="18" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="19" t="inlineStr">
+      <c r="F2" s="18" t="inlineStr">
         <is>
           <t>{
     "password": "a12345",
@@ -3032,42 +3029,42 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I2" s="12" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000","user":{"uid":98,"name":"with wind","password":"af8f9dffa5d420fbc249141645b962ee","phone":"13242045218","status":"Normal","type":"Ordinary","createTime":"2019-08-27 17:37:46","updateTime":"2019-08-27 17:37:46","isDel":"NO"},"token":"H5Gcj5sCCi7Rwt8WJhz1H9pW_Gr1lP1ZXqpgQPWyOyS_p32z3Vnf-TIOLDuszHJsIEDtaHxHxmXlFzzdr2jE-g"}</t>
-        </is>
-      </c>
-      <c r="J2" s="12" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="68" r="3" s="9">
-      <c r="A3" s="22" t="n">
+      <c r="I2" s="11" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","user":{"uid":98,"name":"with wind","password":"af8f9dffa5d420fbc249141645b962ee","phone":"13242045218","status":"Normal","type":"Ordinary","createTime":"2019-08-27 17:37:46","updateTime":"2019-08-27 17:37:46","isDel":"NO"},"token":"USNQ3BT77XLU0tc8iFibqA8m901sk3xLFvQa-rMgc91bcW0S4SS34TsJH-2zAWBzt84Ck4O27mtYgMTVo6wrjQ"}</t>
+        </is>
+      </c>
+      <c r="J2" s="11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="68" r="3" s="22">
+      <c r="A3" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="inlineStr">
+      <c r="B3" s="21" t="inlineStr">
         <is>
           <t>首页</t>
         </is>
       </c>
-      <c r="C3" s="22" t="inlineStr">
+      <c r="C3" s="21" t="inlineStr">
         <is>
           <t>首页查询</t>
         </is>
       </c>
-      <c r="D3" s="22" t="inlineStr">
+      <c r="D3" s="21" t="inlineStr">
         <is>
           <t>index/shop.do</t>
         </is>
       </c>
-      <c r="E3" s="22" t="inlineStr">
+      <c r="E3" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F3" s="15" t="inlineStr">
+      <c r="F3" s="14" t="inlineStr">
         <is>
           <t>{"appCurrentTime":"1877535007"
 }</t>
@@ -3078,42 +3075,42 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I3" s="22" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","appCurrentTime":1877535007,"code":"0000","shops":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 15:15:12","shopName":"筹满开&amp;无机器人","sort":2,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":105,"price":"10.0","lotteryTime":"2019-10-09 07:58:10","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"175"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:20","shopName":"筹满开&amp;无机器No.3","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":264,"price":"10.0","lotteryTime":"2019-10-09 08:00:49","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"147"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:16:16","shopName":"筹满开&amp;无机器No.2","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":255,"price":"10.0","lotteryTime":"2019-10-09 08:00:40","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"146"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:57","shopName":"筹满开&amp;机器人No.7","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":243,"price":"10.0","lotteryTime":"2019-10-09 08:00:28","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"141"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:49","shopName":"筹满开&amp;机器人No.5","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":243,"price":"10.0","lotteryTime":"2019-10-09 08:00:28","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"139"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:04:36","shopName":"筹满开&amp;机器人No.2","sort":1,"type":0,"currenPortion":175,"lotteryType":"22","remainingTime":243,"price":"10.0","lotteryTime":"2019-10-09 08:00:28","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"136"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20191009/83476e83-f9a8-4c1b-85fd-7d0c54cf646e.jpg","create_time":"2019-10-09 07:09:40","price":"168.78","shopName":"Braun BT3022 Rechargeable Beard Trimmer","shopId":24,"shopType":"OrdinaryShop","sort":2,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:55:10","price":"100.00","shopName":"iPhone11 No.10","shopId":21,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:56","price":"100.00","shopName":"iPhone11 No.9","shopId":20,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:52","price":"100.00","shopName":"iPhone11 No.8","shopId":19,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0}],"serverCurrentTime":1570587990717}</t>
-        </is>
-      </c>
-      <c r="J3" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="70" r="4" s="9">
-      <c r="A4" s="22" t="n">
+      <c r="I3" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","appCurrentTime":1877535007,"code":"0000","shops":[{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 15:15:12","shopName":"筹满开&amp;无机器人","sort":2,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":169,"price":"10.0","lotteryTime":"2019-10-10 08:02:40","shopId":13,"shopType":"OneDollarRush","portionNum":1000,"aid":"175"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20191009/b18a79ca-def5-49d0-91a0-bbd11793651d.jpg","create_time":"2019-10-09 07:14:52","shopName":"晓东-Under Armour Mens Threadborne","sort":1,"type":0,"currenPortion":0,"lotteryType":"22","remainingTime":3877,"price":"10.0","lotteryTime":"2019-10-10 09:04:28","shopId":23,"shopType":"OneDollarRush","portionNum":1000,"aid":"176"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:27","shopName":"定时开&amp;机器人No.5","sort":1,"type":0,"currenPortion":175,"lotteryType":"11","remainingTime":241,"price":"10.0","lotteryTime":"2019-10-10 08:03:52","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"159"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:12","shopName":"定时开&amp;机器人No.3","sort":1,"type":0,"currenPortion":100,"lotteryType":"11","remainingTime":259,"price":"10.0","lotteryTime":"2019-10-10 08:04:10","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"157"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:55:06","shopName":"定时开&amp;机器人No.2","sort":1,"type":0,"currenPortion":175,"lotteryType":"11","remainingTime":241,"price":"10.0","lotteryTime":"2019-10-10 08:03:52","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"156"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-29 07:54:57","shopName":"定时开&amp;机器人No.1","sort":1,"type":0,"currenPortion":100,"lotteryType":"11","remainingTime":259,"price":"10.0","lotteryTime":"2019-10-10 08:04:10","shopId":12,"shopType":"OneDollarRush","portionNum":1000,"aid":"155"},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20191009/83476e83-f9a8-4c1b-85fd-7d0c54cf646e.jpg","create_time":"2019-10-09 07:09:40","price":"168.78","shopName":"Braun BT3022 Rechargeable Beard Trimmer","shopId":24,"shopType":"OrdinaryShop","sort":2,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:55:10","price":"100.00","shopName":"iPhone11 No.10","shopId":21,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:56","price":"100.00","shopName":"iPhone11 No.9","shopId":20,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0},{"shopImp":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","create_time":"2019-09-25 15:54:52","price":"100.00","shopName":"iPhone11 No.8","shopId":19,"shopType":"OrdinaryShop","sort":1,"type":1,"aid":"","remainingTime":0}],"serverCurrentTime":1570674596251}</t>
+        </is>
+      </c>
+      <c r="J3" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="70" r="4" s="22">
+      <c r="A4" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="inlineStr">
+      <c r="B4" s="21" t="inlineStr">
         <is>
           <t>商品详情</t>
         </is>
       </c>
-      <c r="C4" s="22" t="inlineStr">
+      <c r="C4" s="21" t="inlineStr">
         <is>
           <t>一元商品详情</t>
         </is>
       </c>
-      <c r="D4" s="22" t="inlineStr">
+      <c r="D4" s="21" t="inlineStr">
         <is>
           <t>shop/getDoboShopDetail.do</t>
         </is>
       </c>
-      <c r="E4" s="22" t="inlineStr">
+      <c r="E4" s="21" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F4" s="15" t="inlineStr">
+      <c r="F4" s="14" t="inlineStr">
         <is>
           <t>{
     "shopId": "111",
@@ -3127,42 +3124,42 @@
           <t>{"msg":"成功","code":"0000"}</t>
         </is>
       </c>
-      <c r="I4" s="22" t="inlineStr">
-        <is>
-          <t>{"msg":"成功","code":"0000","doboShop":{"lotteryTime":"2019-10-09 07:58:10","periodList":[{"pid":285883,"period":3085,"shopId":175,"current":"YES"},{"pid":285832,"period":3084,"shopId":175,"current":"NO"},{"pid":285791,"period":3083,"shopId":175,"current":"NO"},{"pid":285752,"period":3082,"shopId":175,"current":"NO"},{"pid":285701,"period":3081,"shopId":175,"current":"NO"},{"pid":285659,"period":3080,"shopId":175,"current":"NO"},{"pid":285619,"period":3079,"shopId":175,"current":"NO"},{"pid":285569,"period":3078,"shopId":175,"current":"NO"},{"pid":285528,"period":3077,"shopId":175,"current":"NO"},{"pid":285488,"period":3076,"shopId":175,"current":"NO"},{"pid":285436,"period":3075,"shopId":175,"current":"NO"},{"pid":285395,"period":3074,"shopId":175,"current":"NO"},{"pid":285346,"period":3073,"shopId":175,"current":"NO"},{"pid":285304,"period":3072,"shopId":175,"current":"NO"},{"pid":285264,"period":3071,"shopId":175,"current":"NO"},{"pid":285214,"period":3070,"shopId":175,"current":"NO"},{"pid":285173,"period":3069,"shopId":175,"current":"NO"},{"pid":285131,"period":3068,"shopId":175,"current":"NO"},{"pid":285081,"period":3067,"shopId":175,"current":"NO"},{"pid":285040,"period":3066,"shopId":175,"current":"NO"},{"pid":285000,"period":3065,"shopId":175,"current":"NO"},{"pid":284950,"period":3064,"shopId":175,"current":"NO"},{"pid":284908,"period":3063,"shopId":175,"current":"NO"},{"pid":284857,"period":3062,"shopId":175,"current":"NO"},{"pid":284817,"period":3061,"shopId":175,"current":"NO"},{"pid":284776,"period":3060,"shopId":175,"current":"NO"},{"pid":284727,"period":3059,"shopId":175,"current":"NO"},{"pid":284686,"period":3058,"shopId":175,"current":"NO"},{"pid":284645,"period":3057,"shopId":175,"current":"NO"},{"pid":284595,"period":3056,"shopId":175,"current":"NO"},{"pid":284554,"period":3055,"shopId":175,"current":"NO"},{"pid":284513,"period":3054,"shopId":175,"current":"NO"},{"pid":284463,"period":3053,"shopId":175,"current":"NO"},{"pid":284422,"period":3052,"shopId":175,"current":"NO"},{"pid":284381,"period":3051,"shopId":175,"current":"NO"},{"pid":284331,"period":3050,"shopId":175,"current":"NO"},{"pid":284290,"period":3049,"shopId":175,"current":"NO"},{"pid":284249,"period":3048,"shopId":175,"current":"NO"},{"pid":284199,"period":3047,"shopId":175,"current":"NO"},{"pid":284158,"period":3046,"shopId":175,"current":"NO"},{"pid":284107,"period":3045,"shopId":175,"current":"NO"},{"pid":284066,"period":3044,"shopId":175,"current":"NO"},{"pid":284026,"period":3043,"shopId":175,"current":"NO"},{"pid":283976,"period":3042,"shopId":175,"current":"NO"},{"pid":283934,"period":3041,"shopId":175,"current":"NO"},{"pid":283894,"period":3040,"shopId":175,"current":"NO"},{"pid":283842,"period":3039,"shopId":175,"current":"NO"},{"pid":283802,"period":3038,"shopId":175,"current":"NO"},{"pid":283760,"period":3037,"shopId":175,"current":"NO"},{"pid":283711,"period":3036,"shopId":175,"current":"NO"},{"pid":283670,"period":3035,"shopId":175,"current":"NO"},{"pid":283628,"period":3034,"shopId":175,"current":"NO"},{"pid":283578,"period":3033,"shopId":175,"current":"NO"},{"pid":283538,"period":3032,"shopId":175,"current":"NO"},{"pid":283496,"period":3031,"shopId":175,"current":"NO"},{"pid":283446,"period":3030,"shopId":175,"current":"NO"},{"pid":283406,"period":3029,"shopId":175,"current":"NO"},{"pid":283356,"period":3028,"shopId":175,"current":"NO"},{"pid":283314,"period":3027,"shopId":175,"current":"NO"},{"pid":283274,"period":3026,"shopId":175,"current":"NO"},{"pid":283224,"period":3025,"shopId":175,"current":"NO"},{"pid":283184,"period":3024,"shopId":175,"current":"NO"},{"pid":283143,"period":3023,"shopId":175,"current":"NO"},{"pid":283091,"period":3022,"shopId":175,"current":"NO"},{"pid":283050,"period":3021,"shopId":175,"current":"NO"},{"pid":283010,"period":3020,"shopId":175,"current":"NO"},{"pid":282960,"period":3019,"shopId":175,"current":"NO"},{"pid":282918,"period":3018,"shopId":175,"current":"NO"},{"pid":282877,"period":3017,"shopId":175,"current":"NO"},{"pid":282828,"period":3016,"shopId":175,"current":"NO"},{"pid":282786,"period":3015,"shopId":175,"current":"NO"},{"pid":282745,"period":3014,"shopId":175,"current":"NO"},{"pid":282695,"period":3013,"shopId":175,"current":"NO"},{"pid":282654,"period":3012,"shopId":175,"current":"NO"},{"pid":282613,"period":3011,"shopId":175,"current":"NO"},{"pid":282564,"period":3010,"shopId":175,"current":"NO"},{"pid":282523,"period":3009,"shopId":175,"current":"NO"},{"pid":282479,"period":3008,"shopId":175,"current":"NO"},{"pid":282433,"period":3007,"shopId":175,"current":"NO"},{"pid":282391,"period":3006,"shopId":175,"current":"NO"},{"pid":282341,"period":3005,"shopId":175,"current":"NO"},{"pid":282299,"period":3004,"shopId":175,"current":"NO"},{"pid":282259,"period":3003,"shopId":175,"current":"NO"},{"pid":282209,"period":3002,"shopId":175,"current":"NO"},{"pid":282168,"period":3001,"shopId":175,"current":"NO"},{"pid":282126,"period":3000,"shopId":175,"current":"NO"},{"pid":282077,"period":2999,"shopId":175,"current":"NO"},{"pid":282036,"period":2998,"shopId":175,"current":"NO"},{"pid":281995,"period":2997,"shopId":175,"current":"NO"},{"pid":281944,"period":2996,"shopId":175,"current":"NO"},{"pid":281904,"period":2995,"shopId":175,"current":"NO"},{"pid":281863,"period":2994,"shopId":175,"current":"NO"},{"pid":281813,"period":2993,"shopId":175,"current":"NO"},{"pid":281772,"period":2992,"shopId":175,"current":"NO"},{"pid":281721,"period":2991,"shopId":175,"current":"NO"},{"pid":281681,"period":2990,"shopId":175,"current":"NO"},{"pid":281640,"period":2989,"shopId":175,"current":"NO"},{"pid":281589,"period":2988,"shopId":175,"current":"NO"},{"pid":281549,"period":2987,"shopId":175,"current":"NO"},{"pid":281508,"period":2986,"shopId":175,"current":"NO"}],"isActive":"YES","sid":175,"remainingTime":104}}</t>
-        </is>
-      </c>
-      <c r="J4" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="55.5" r="5" s="9">
-      <c r="A5" s="22" t="n">
+      <c r="I4" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","doboShop":{"lotteryTime":"2019-10-10 08:02:40","periodList":[{"pid":300036,"period":3404,"shopId":175,"current":"YES"},{"pid":299996,"period":3403,"shopId":175,"current":"NO"},{"pid":299945,"period":3402,"shopId":175,"current":"NO"},{"pid":299904,"period":3401,"shopId":175,"current":"NO"},{"pid":299864,"period":3400,"shopId":175,"current":"NO"},{"pid":299813,"period":3399,"shopId":175,"current":"NO"},{"pid":299772,"period":3398,"shopId":175,"current":"NO"},{"pid":299732,"period":3397,"shopId":175,"current":"NO"},{"pid":299681,"period":3396,"shopId":175,"current":"NO"},{"pid":299640,"period":3395,"shopId":175,"current":"NO"},{"pid":299600,"period":3394,"shopId":175,"current":"NO"},{"pid":299549,"period":3393,"shopId":175,"current":"NO"},{"pid":299509,"period":3392,"shopId":175,"current":"NO"},{"pid":299458,"period":3391,"shopId":175,"current":"NO"},{"pid":299417,"period":3390,"shopId":175,"current":"NO"},{"pid":299376,"period":3389,"shopId":175,"current":"NO"},{"pid":299325,"period":3388,"shopId":175,"current":"NO"},{"pid":299284,"period":3387,"shopId":175,"current":"NO"},{"pid":299244,"period":3386,"shopId":175,"current":"NO"},{"pid":299193,"period":3385,"shopId":175,"current":"NO"},{"pid":299152,"period":3384,"shopId":175,"current":"NO"},{"pid":299103,"period":3383,"shopId":175,"current":"NO"},{"pid":299061,"period":3382,"shopId":175,"current":"NO"},{"pid":299020,"period":3381,"shopId":175,"current":"NO"},{"pid":298970,"period":3380,"shopId":175,"current":"NO"},{"pid":298929,"period":3379,"shopId":175,"current":"NO"},{"pid":298888,"period":3378,"shopId":175,"current":"NO"},{"pid":298838,"period":3377,"shopId":175,"current":"NO"},{"pid":298797,"period":3376,"shopId":175,"current":"NO"},{"pid":298755,"period":3375,"shopId":175,"current":"NO"},{"pid":298705,"period":3374,"shopId":175,"current":"NO"},{"pid":298664,"period":3373,"shopId":175,"current":"NO"},{"pid":298613,"period":3372,"shopId":175,"current":"NO"},{"pid":298573,"period":3371,"shopId":175,"current":"NO"},{"pid":298532,"period":3370,"shopId":175,"current":"NO"},{"pid":298481,"period":3369,"shopId":175,"current":"NO"},{"pid":298441,"period":3368,"shopId":175,"current":"NO"},{"pid":298400,"period":3367,"shopId":175,"current":"NO"},{"pid":298349,"period":3366,"shopId":175,"current":"NO"},{"pid":298309,"period":3365,"shopId":175,"current":"NO"},{"pid":298268,"period":3364,"shopId":175,"current":"NO"},{"pid":298218,"period":3363,"shopId":175,"current":"NO"},{"pid":298177,"period":3362,"shopId":175,"current":"NO"},{"pid":298135,"period":3361,"shopId":175,"current":"NO"},{"pid":298086,"period":3360,"shopId":175,"current":"NO"},{"pid":298045,"period":3359,"shopId":175,"current":"NO"},{"pid":297994,"period":3358,"shopId":175,"current":"NO"},{"pid":297954,"period":3357,"shopId":175,"current":"NO"},{"pid":297912,"period":3356,"shopId":175,"current":"NO"},{"pid":297861,"period":3355,"shopId":175,"current":"NO"},{"pid":297821,"period":3354,"shopId":175,"current":"NO"},{"pid":297780,"period":3353,"shopId":175,"current":"NO"},{"pid":297730,"period":3352,"shopId":175,"current":"NO"},{"pid":297690,"period":3351,"shopId":175,"current":"NO"},{"pid":297649,"period":3350,"shopId":175,"current":"NO"},{"pid":297598,"period":3349,"shopId":175,"current":"NO"},{"pid":297557,"period":3348,"shopId":175,"current":"NO"},{"pid":297517,"period":3347,"shopId":175,"current":"NO"},{"pid":297465,"period":3346,"shopId":175,"current":"NO"},{"pid":297425,"period":3345,"shopId":175,"current":"NO"},{"pid":297384,"period":3344,"shopId":175,"current":"NO"},{"pid":297334,"period":3343,"shopId":175,"current":"NO"},{"pid":297292,"period":3342,"shopId":175,"current":"NO"},{"pid":297252,"period":3341,"shopId":175,"current":"NO"},{"pid":297202,"period":3340,"shopId":175,"current":"NO"},{"pid":297161,"period":3339,"shopId":175,"current":"NO"},{"pid":297109,"period":3338,"shopId":175,"current":"NO"},{"pid":297070,"period":3337,"shopId":175,"current":"NO"},{"pid":297028,"period":3336,"shopId":175,"current":"NO"},{"pid":296978,"period":3335,"shopId":175,"current":"NO"},{"pid":296938,"period":3334,"shopId":175,"current":"NO"},{"pid":296896,"period":3333,"shopId":175,"current":"NO"},{"pid":296845,"period":3332,"shopId":175,"current":"NO"},{"pid":296805,"period":3331,"shopId":175,"current":"NO"},{"pid":296763,"period":3330,"shopId":175,"current":"NO"},{"pid":296713,"period":3329,"shopId":175,"current":"NO"},{"pid":296673,"period":3328,"shopId":175,"current":"NO"},{"pid":296631,"period":3327,"shopId":175,"current":"NO"},{"pid":296581,"period":3326,"shopId":175,"current":"NO"},{"pid":296540,"period":3325,"shopId":175,"current":"NO"},{"pid":296499,"period":3324,"shopId":175,"current":"NO"},{"pid":296449,"period":3323,"shopId":175,"current":"NO"},{"pid":296408,"period":3322,"shopId":175,"current":"NO"},{"pid":296367,"period":3321,"shopId":175,"current":"NO"},{"pid":296317,"period":3320,"shopId":175,"current":"NO"},{"pid":296277,"period":3319,"shopId":175,"current":"NO"},{"pid":296225,"period":3318,"shopId":175,"current":"NO"},{"pid":296184,"period":3317,"shopId":175,"current":"NO"},{"pid":296143,"period":3316,"shopId":175,"current":"NO"},{"pid":296092,"period":3315,"shopId":175,"current":"NO"},{"pid":296052,"period":3314,"shopId":175,"current":"NO"},{"pid":296012,"period":3313,"shopId":175,"current":"NO"},{"pid":295961,"period":3312,"shopId":175,"current":"NO"},{"pid":295921,"period":3311,"shopId":175,"current":"NO"},{"pid":295880,"period":3310,"shopId":175,"current":"NO"},{"pid":295830,"period":3309,"shopId":175,"current":"NO"},{"pid":295788,"period":3308,"shopId":175,"current":"NO"},{"pid":295747,"period":3307,"shopId":175,"current":"NO"},{"pid":295698,"period":3306,"shopId":175,"current":"NO"},{"pid":295656,"period":3305,"shopId":175,"current":"NO"}],"isActive":"YES","sid":175,"remainingTime":168}}</t>
+        </is>
+      </c>
+      <c r="J4" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="55.5" r="5" s="22">
+      <c r="A5" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="inlineStr">
-        <is>
-          <t>下单</t>
-        </is>
-      </c>
-      <c r="C5" s="22" t="inlineStr">
+      <c r="B5" s="21" t="inlineStr">
+        <is>
+          <t>正常下单</t>
+        </is>
+      </c>
+      <c r="C5" s="21" t="inlineStr">
         <is>
           <t>一元商品下单</t>
         </is>
       </c>
-      <c r="D5" s="22" t="inlineStr">
+      <c r="D5" s="21" t="inlineStr">
         <is>
           <t>order/createOrder.do</t>
         </is>
       </c>
-      <c r="E5" s="22" t="inlineStr">
+      <c r="E5" s="21" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="15" t="inlineStr">
+      <c r="F5" s="14" t="inlineStr">
         <is>
           <t>{
     "orderType": "OneDollarRush",
@@ -3173,19 +3170,277 @@
 }</t>
         </is>
       </c>
-      <c r="G5" s="22" t="inlineStr">
+      <c r="G5" s="21" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I5" s="22" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+      <c r="I5" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000","orderDetail":{"orderType":"11","period":"3404","shopNum":1,"orderItem":"MHW201910100759582670087","orderStatus":"00","shopName":"筹满开&amp;无机器人","buyTime":"07:59:58 2019-10-10","updateTime":"2019-10-10 07:59:58","pid":"300036","oid":1822,"lotteryType":"22","sid":13,"uid":98,"shopPrice":10.00,"phone":"13242045218","totalPortion":1000,"property":"[{\"title\":\"产地\",\"value\":\"中国\"},{\"title\":\"网络\",\"value\":\"全网通6G\"},{\"title\":\"内存\",\"value\":\"1T\"},{\"title\":\"CPU\",\"value\":\"32核*8\"}]","name":"with wind","shopImg":"http://file.test.lihuitreasure.com/data/upload_file/img/20190925/fbcc9d35-d9ae-4d2b-8c27-d6157227202d.png","lotteryTime":"2019-10-10 08:02:40","currency":"INR","shouldPrice":10.00}}</t>
+        </is>
+      </c>
+      <c r="J5" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="31" r="6" s="22">
+      <c r="A6" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="inlineStr">
+        <is>
+          <t>异常下单</t>
+        </is>
+      </c>
+      <c r="C6" s="21" t="inlineStr">
+        <is>
+          <t>过期活动下单</t>
+        </is>
+      </c>
+      <c r="D6" s="21" t="inlineStr">
+        <is>
+          <t>order/createOrder.do</t>
+        </is>
+      </c>
+      <c r="E6" s="21" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" s="14" t="inlineStr">
+        <is>
+          <t>{
+    "orderType": "OneDollarRush",
+    "num": "1",
+    "pid": "285619",
+    "shopId": "121",
+    "aid": "1163"
+}</t>
+        </is>
+      </c>
+      <c r="H6" s="21" t="inlineStr">
         <is>
           <t>{"msg":"Activity has expired and cannot be purchased","code":"1009"}</t>
         </is>
       </c>
-      <c r="J5" s="22" t="inlineStr">
-        <is>
-          <t>Failed</t>
+      <c r="I6" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"Activity has expired and cannot be purchased","code":"1009"}</t>
+        </is>
+      </c>
+      <c r="J6" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="28" r="7" s="22">
+      <c r="A7" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="inlineStr">
+        <is>
+          <t>异常下单</t>
+        </is>
+      </c>
+      <c r="C7" s="21" t="inlineStr">
+        <is>
+          <t>单笔数量超过20</t>
+        </is>
+      </c>
+      <c r="D7" s="21" t="inlineStr">
+        <is>
+          <t>order/createOrder.do</t>
+        </is>
+      </c>
+      <c r="E7" s="21" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" s="21" t="inlineStr">
+        <is>
+          <t>{
+    "orderType": "OneDollarRush",
+    "num": "1",
+    "pid": "285619",
+    "shopId": "121",
+    "aid": "1163"
+}</t>
+        </is>
+      </c>
+      <c r="H7" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"Maximum purchasing 20 at one time","code":"1004"}</t>
+        </is>
+      </c>
+      <c r="I7" s="21" t="inlineStr">
+        <is>
+          <t>{"msg":"Maximum purchasing 20 at one time","code":"1004"}</t>
+        </is>
+      </c>
+      <c r="J7" s="21" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
+  <cols>
+    <col customWidth="1" max="3" min="1" style="21" width="8.7265625"/>
+    <col customWidth="1" max="4" min="4" style="21" width="30.08984375"/>
+    <col customWidth="1" max="5" min="5" style="21" width="8.7265625"/>
+    <col customWidth="1" max="6" min="6" style="21" width="15.1796875"/>
+    <col customWidth="1" max="7" min="7" style="21" width="8.7265625"/>
+    <col customWidth="1" max="8" min="8" style="21" width="23.81640625"/>
+    <col customWidth="1" max="9" min="9" style="21" width="24.08984375"/>
+    <col customWidth="1" max="10" min="10" style="21" width="21.08984375"/>
+    <col customWidth="1" max="11" min="11" style="21" width="8.7265625"/>
+    <col customWidth="1" max="16384" min="12" style="21" width="8.7265625"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="42" r="1" s="17">
+      <c r="A1" s="19" t="inlineStr">
+        <is>
+          <t>CaseId</t>
+        </is>
+      </c>
+      <c r="B1" s="19" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="C1" s="19" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="D1" s="19" t="inlineStr">
+        <is>
+          <t>Path</t>
+        </is>
+      </c>
+      <c r="E1" s="19" t="inlineStr">
+        <is>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="F1" s="19" t="inlineStr">
+        <is>
+          <t>Params</t>
+        </is>
+      </c>
+      <c r="G1" s="19" t="inlineStr">
+        <is>
+          <t>Sql</t>
+        </is>
+      </c>
+      <c r="H1" s="19" t="inlineStr">
+        <is>
+          <t>ExpectedResult</t>
+        </is>
+      </c>
+      <c r="I1" s="19" t="inlineStr">
+        <is>
+          <t>ActualResult</t>
+        </is>
+      </c>
+      <c r="J1" s="19" t="inlineStr">
+        <is>
+          <t>TestResult</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="51" r="2" s="22">
+      <c r="A2" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="C2" s="21" t="inlineStr">
+        <is>
+          <t>正常登录</t>
+        </is>
+      </c>
+      <c r="D2" s="20" t="inlineStr">
+        <is>
+          <t>loginByPwd.do</t>
+        </is>
+      </c>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="18" t="inlineStr">
+        <is>
+          <t>{"password": "a12345",
+    "phone": "13242045218"}</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>{"msg":"成功","code":"0000"}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56" r="3" s="22">
+      <c r="A3" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="inlineStr">
+        <is>
+          <t>logout</t>
+        </is>
+      </c>
+      <c r="C3" s="21" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t>ovmalUser/logout.do</t>
+        </is>
+      </c>
+      <c r="E3" s="21" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="18" t="inlineStr">
+        <is>
+          <t>{"password": "a12345",
+    "phone": "13242045218"}</t>
         </is>
       </c>
     </row>
